--- a/Project/IAG Spatially Resolved Atlas/values_SPA.xlsx
+++ b/Project/IAG Spatially Resolved Atlas/values_SPA.xlsx
@@ -438,7 +438,7 @@
         <v>7956737024.65556</v>
       </c>
       <c r="F2">
-        <v>1.289761656659619E-07</v>
+        <v>40214313.45838111</v>
       </c>
       <c r="G2">
         <v>420.9257797480747</v>
@@ -461,7 +461,7 @@
         <v>13477870288.37663</v>
       </c>
       <c r="F3">
-        <v>1.594206487150931E-09</v>
+        <v>497932.227819716</v>
       </c>
       <c r="G3">
         <v>149.7558507049375</v>
@@ -484,7 +484,7 @@
         <v>9554437129.977875</v>
       </c>
       <c r="F4">
-        <v>7.413430147247815E-08</v>
+        <v>23216491.96908789</v>
       </c>
       <c r="G4">
         <v>277.9337985658759</v>
@@ -507,7 +507,7 @@
         <v>10080688837.69621</v>
       </c>
       <c r="F5">
-        <v>4.908412678330381E-08</v>
+        <v>15394828.49956845</v>
       </c>
       <c r="G5">
         <v>334.8193889610315</v>
@@ -530,7 +530,7 @@
         <v>7800362735.570836</v>
       </c>
       <c r="F6">
-        <v>2.577629264160836E-07</v>
+        <v>80958934.16898233</v>
       </c>
       <c r="G6">
         <v>477.1282319023201</v>
@@ -553,7 +553,7 @@
         <v>8844417547.961292</v>
       </c>
       <c r="F7">
-        <v>1.654077005624169E-07</v>
+        <v>52201197.65040627</v>
       </c>
       <c r="G7">
         <v>469.4443676410949</v>
@@ -576,7 +576,7 @@
         <v>2168686909.108348</v>
       </c>
       <c r="F8">
-        <v>2.405738722748064E-06</v>
+        <v>761061811.9829437</v>
       </c>
       <c r="G8">
         <v>703.7429367153335</v>
@@ -599,7 +599,7 @@
         <v>9873218364.839312</v>
       </c>
       <c r="F9">
-        <v>8.502852117461377E-08</v>
+        <v>27005143.60264176</v>
       </c>
       <c r="G9">
         <v>376.3800984726426</v>
@@ -622,7 +622,7 @@
         <v>3110392109.412148</v>
       </c>
       <c r="F10">
-        <v>2.790344237443219E-07</v>
+        <v>88779112.87913874</v>
       </c>
       <c r="G10">
         <v>553.6723727340368</v>
@@ -645,7 +645,7 @@
         <v>17322704975.65882</v>
       </c>
       <c r="F11">
-        <v>3.701380212228509E-09</v>
+        <v>1189420.552938995</v>
       </c>
       <c r="G11">
         <v>325.713734087069</v>
@@ -668,7 +668,7 @@
         <v>1950419076.342742</v>
       </c>
       <c r="F12">
-        <v>1.602492294926526E-06</v>
+        <v>515383756.1041059</v>
       </c>
       <c r="G12">
         <v>899.066948116175</v>
@@ -691,7 +691,7 @@
         <v>5862452038.846129</v>
       </c>
       <c r="F13">
-        <v>2.563209759037622E-07</v>
+        <v>82780743.36280161</v>
       </c>
       <c r="G13">
         <v>431.3848305979838</v>
@@ -714,7 +714,7 @@
         <v>4504918476.414181</v>
       </c>
       <c r="F14">
-        <v>3.300169943946894E-07</v>
+        <v>106660733.4159998</v>
       </c>
       <c r="G14">
         <v>586.8573933102427</v>
@@ -737,7 +737,7 @@
         <v>6799948284.82059</v>
       </c>
       <c r="F15">
-        <v>7.947977952338413E-08</v>
+        <v>25712770.43708288</v>
       </c>
       <c r="G15">
         <v>367.5797045184399</v>
@@ -760,7 +760,7 @@
         <v>9292847921.861954</v>
       </c>
       <c r="F16">
-        <v>1.405918595134035E-07</v>
+        <v>46281100.63265605</v>
       </c>
       <c r="G16">
         <v>534.9019661149667</v>
@@ -783,7 +783,7 @@
         <v>14796067879.2144</v>
       </c>
       <c r="F17">
-        <v>-1.634975384708847E-09</v>
+        <v>-538532.760435399</v>
       </c>
       <c r="G17">
         <v>197.0397248583244</v>
@@ -806,7 +806,7 @@
         <v>2262845896.510838</v>
       </c>
       <c r="F18">
-        <v>8.03132466943592E-07</v>
+        <v>270414515.6100931</v>
       </c>
       <c r="G18">
         <v>685.8625151652143</v>
@@ -829,7 +829,7 @@
         <v>12584837079.76077</v>
       </c>
       <c r="F19">
-        <v>2.252489117245585E-08</v>
+        <v>7624853.019028246</v>
       </c>
       <c r="G19">
         <v>328.4935473026585</v>
@@ -852,7 +852,7 @@
         <v>6985302679.552778</v>
       </c>
       <c r="F20">
-        <v>2.918796958548522E-07</v>
+        <v>99110097.75766833</v>
       </c>
       <c r="G20">
         <v>621.5600673992133</v>
@@ -875,7 +875,7 @@
         <v>12428445947.34683</v>
       </c>
       <c r="F21">
-        <v>1.954386473393909E-08</v>
+        <v>6857236.069430495</v>
       </c>
       <c r="G21">
         <v>297.8550218957526</v>
@@ -898,7 +898,7 @@
         <v>2714857221.02059</v>
       </c>
       <c r="F22">
-        <v>2.384104815919794E-07</v>
+        <v>84448693.85646543</v>
       </c>
       <c r="G22">
         <v>518.2816338250062</v>
@@ -921,7 +921,7 @@
         <v>11218312188.73093</v>
       </c>
       <c r="F23">
-        <v>1.232460430575814E-08</v>
+        <v>4392391.498146226</v>
       </c>
       <c r="G23">
         <v>255.2941025872096</v>
@@ -944,7 +944,7 @@
         <v>13576108409.71871</v>
       </c>
       <c r="F24">
-        <v>6.011728092711784E-09</v>
+        <v>2148172.59403784</v>
       </c>
       <c r="G24">
         <v>310.2888755791125</v>
@@ -967,7 +967,7 @@
         <v>10072293021.28594</v>
       </c>
       <c r="F25">
-        <v>1.050182474458141E-07</v>
+        <v>38269065.30384443</v>
       </c>
       <c r="G25">
         <v>480.3122538659831</v>
@@ -990,7 +990,7 @@
         <v>13896759643.66327</v>
       </c>
       <c r="F26">
-        <v>-1.158815149199163E-09</v>
+        <v>-424467.5708547915</v>
       </c>
       <c r="G26">
         <v>287.8146011330351</v>
@@ -1013,7 +1013,7 @@
         <v>11957787337.2151</v>
       </c>
       <c r="F27">
-        <v>2.847540006316312E-08</v>
+        <v>10567769.55463233</v>
       </c>
       <c r="G27">
         <v>368.8388184345498</v>
@@ -1036,7 +1036,7 @@
         <v>7048434815.893798</v>
       </c>
       <c r="F28">
-        <v>1.502053344670636E-07</v>
+        <v>55770388.05755068</v>
       </c>
       <c r="G28">
         <v>484.8977586902467</v>
@@ -1059,7 +1059,7 @@
         <v>13287093651.74801</v>
       </c>
       <c r="F29">
-        <v>2.685582455349518E-09</v>
+        <v>1035659.434521177</v>
       </c>
       <c r="G29">
         <v>297.6659728998812</v>
@@ -1082,7 +1082,7 @@
         <v>4705696418.273812</v>
       </c>
       <c r="F30">
-        <v>3.354115137274332E-07</v>
+        <v>129397095.5113791</v>
       </c>
       <c r="G30">
         <v>554.6879335489692</v>
@@ -1105,7 +1105,7 @@
         <v>14167851680.4487</v>
       </c>
       <c r="F31">
-        <v>6.372433597020121E-10</v>
+        <v>246272.5144273958</v>
       </c>
       <c r="G31">
         <v>236.6526835544075</v>
@@ -1128,7 +1128,7 @@
         <v>11958666208.79302</v>
       </c>
       <c r="F32">
-        <v>2.083606077051036E-08</v>
+        <v>8061245.307986243</v>
       </c>
       <c r="G32">
         <v>236.5878619838987</v>
@@ -1151,7 +1151,7 @@
         <v>13642101914.55612</v>
       </c>
       <c r="F33">
-        <v>5.127469018266617E-09</v>
+        <v>1991934.486711669</v>
       </c>
       <c r="G33">
         <v>141.8068472985769</v>
@@ -1174,7 +1174,7 @@
         <v>2621735379.924401</v>
       </c>
       <c r="F34">
-        <v>3.73304364649826E-07</v>
+        <v>145546264.1934322</v>
       </c>
       <c r="G34">
         <v>620.6902604093026</v>
@@ -1197,7 +1197,7 @@
         <v>13827591816.74435</v>
       </c>
       <c r="F35">
-        <v>1.722040910556635E-08</v>
+        <v>6716945.087787445</v>
       </c>
       <c r="G35">
         <v>229.3600998066294</v>
@@ -1220,7 +1220,7 @@
         <v>17348283551.68607</v>
       </c>
       <c r="F36">
-        <v>1.516269074010078E-09</v>
+        <v>592838.9650619169</v>
       </c>
       <c r="G36">
         <v>269.6751748805509</v>
@@ -1243,7 +1243,7 @@
         <v>13289540051.79009</v>
       </c>
       <c r="F37">
-        <v>1.280273781111585E-08</v>
+        <v>5013157.461345589</v>
       </c>
       <c r="G37">
         <v>249.3564834071857</v>
@@ -1266,7 +1266,7 @@
         <v>14601570838.37045</v>
       </c>
       <c r="F38">
-        <v>8.032755773768564E-09</v>
+        <v>3154399.450092184</v>
       </c>
       <c r="G38">
         <v>228.9743950366214</v>
@@ -1289,7 +1289,7 @@
         <v>14449574952.06922</v>
       </c>
       <c r="F39">
-        <v>-3.532259759667261E-09</v>
+        <v>-1394598.579441746</v>
       </c>
       <c r="G39">
         <v>235.3910478027842</v>
@@ -1312,7 +1312,7 @@
         <v>12837105993.8848</v>
       </c>
       <c r="F40">
-        <v>1.260550863215224E-08</v>
+        <v>4984721.372462008</v>
       </c>
       <c r="G40">
         <v>255.4668429945003</v>
@@ -1335,7 +1335,7 @@
         <v>1967040775.459416</v>
       </c>
       <c r="F41">
-        <v>2.29936771548279E-06</v>
+        <v>912186642.4358728</v>
       </c>
       <c r="G41">
         <v>812.8088637041188</v>
@@ -1358,7 +1358,7 @@
         <v>5985793066.316721</v>
       </c>
       <c r="F42">
-        <v>1.227325140318012E-07</v>
+        <v>49027236.95077542</v>
       </c>
       <c r="G42">
         <v>509.6424402378982</v>
@@ -1381,7 +1381,7 @@
         <v>14025433369.75537</v>
       </c>
       <c r="F43">
-        <v>5.427274312365873E-09</v>
+        <v>2188950.757791318</v>
       </c>
       <c r="G43">
         <v>321.1063179710299</v>
@@ -1404,7 +1404,7 @@
         <v>13511155748.38366</v>
       </c>
       <c r="F44">
-        <v>6.060218471715232E-09</v>
+        <v>2447443.452583506</v>
       </c>
       <c r="G44">
         <v>180.5629461444882</v>
@@ -1427,7 +1427,7 @@
         <v>8577062488.528451</v>
       </c>
       <c r="F45">
-        <v>7.306882621468476E-08</v>
+        <v>29578057.53464424</v>
       </c>
       <c r="G45">
         <v>447.8027689461618</v>
@@ -1450,7 +1450,7 @@
         <v>11431087962.12382</v>
       </c>
       <c r="F46">
-        <v>2.824378440882856E-08</v>
+        <v>11447846.07574959</v>
       </c>
       <c r="G46">
         <v>367.4799945611327</v>
@@ -1473,7 +1473,7 @@
         <v>6321269143.175884</v>
       </c>
       <c r="F47">
-        <v>1.194182826436347E-07</v>
+        <v>48578654.12382686</v>
       </c>
       <c r="G47">
         <v>507.3309597821763</v>
@@ -1496,7 +1496,7 @@
         <v>2158596263.951111</v>
       </c>
       <c r="F48">
-        <v>7.155622575745231E-07</v>
+        <v>292340117.9049614</v>
       </c>
       <c r="G48">
         <v>646.8195325669061</v>
@@ -1519,7 +1519,7 @@
         <v>9824582634.745487</v>
       </c>
       <c r="F49">
-        <v>-3.559862771592528E-09</v>
+        <v>-1464776.612733198</v>
       </c>
       <c r="G49">
         <v>166.4088492987254</v>
@@ -1542,7 +1542,7 @@
         <v>13831489249.60563</v>
       </c>
       <c r="F50">
-        <v>-5.380619417761809E-09</v>
+        <v>-2243484.448526053</v>
       </c>
       <c r="G50">
         <v>278.6427193197707</v>
@@ -1565,7 +1565,7 @@
         <v>6557251170.669719</v>
       </c>
       <c r="F51">
-        <v>1.711492458527911E-07</v>
+        <v>71844273.92340891</v>
       </c>
       <c r="G51">
         <v>556.3479631289255</v>
@@ -1588,7 +1588,7 @@
         <v>3595884838.794737</v>
       </c>
       <c r="F52">
-        <v>6.705212637645719E-07</v>
+        <v>282967498.2285971</v>
       </c>
       <c r="G52">
         <v>674.6691499345801</v>
@@ -1611,7 +1611,7 @@
         <v>15579381118.19539</v>
       </c>
       <c r="F53">
-        <v>4.907917888486196E-09</v>
+        <v>2152003.175308941</v>
       </c>
       <c r="G53">
         <v>268.6077530148755</v>
@@ -1634,7 +1634,7 @@
         <v>14756574346.82716</v>
       </c>
       <c r="F54">
-        <v>3.978210265980114E-09</v>
+        <v>1763352.050611818</v>
       </c>
       <c r="G54">
         <v>228.6789846124696</v>
@@ -1657,7 +1657,7 @@
         <v>11778708582.58004</v>
       </c>
       <c r="F55">
-        <v>1.392887009592021E-08</v>
+        <v>6233394.524593283</v>
       </c>
       <c r="G55">
         <v>338.9396337718985</v>
@@ -1680,7 +1680,7 @@
         <v>4036148238.048314</v>
       </c>
       <c r="F56">
-        <v>5.145516874390026E-07</v>
+        <v>231239021.3660047</v>
       </c>
       <c r="G56">
         <v>670.6576304898763</v>
@@ -1703,7 +1703,7 @@
         <v>10741087789.72659</v>
       </c>
       <c r="F57">
-        <v>3.037391920846078E-08</v>
+        <v>13844897.4028348</v>
       </c>
       <c r="G57">
         <v>389.2918307329556</v>
@@ -1726,7 +1726,7 @@
         <v>9335336029.122759</v>
       </c>
       <c r="F58">
-        <v>4.090726198904127E-08</v>
+        <v>18739299.00296587</v>
       </c>
       <c r="G58">
         <v>434.1680914004986</v>
@@ -1749,7 +1749,7 @@
         <v>13413786979.3248</v>
       </c>
       <c r="F59">
-        <v>1.508746378610831E-08</v>
+        <v>6941828.544688405</v>
       </c>
       <c r="G59">
         <v>362.4890102856461</v>
@@ -1772,7 +1772,7 @@
         <v>15455655088.19918</v>
       </c>
       <c r="F60">
-        <v>5.605762871084498E-09</v>
+        <v>2592022.329911617</v>
       </c>
       <c r="G60">
         <v>265.0659483337108</v>
@@ -1795,7 +1795,7 @@
         <v>10210400299.78835</v>
       </c>
       <c r="F61">
-        <v>3.633978462395158E-08</v>
+        <v>16827056.91214114</v>
       </c>
       <c r="G61">
         <v>426.5390553607528</v>
@@ -1818,7 +1818,7 @@
         <v>12328939260.77472</v>
       </c>
       <c r="F62">
-        <v>2.141786960614674E-08</v>
+        <v>9968567.408922862</v>
       </c>
       <c r="G62">
         <v>348.5385721603259</v>
@@ -1841,7 +1841,7 @@
         <v>9316096811.345697</v>
       </c>
       <c r="F63">
-        <v>4.658849770349352E-08</v>
+        <v>21758083.13566476</v>
       </c>
       <c r="G63">
         <v>444.9743291182667</v>
@@ -1864,7 +1864,7 @@
         <v>8019581387.743544</v>
       </c>
       <c r="F64">
-        <v>5.756853545465212E-08</v>
+        <v>27352308.31776557</v>
       </c>
       <c r="G64">
         <v>468.7508212037549</v>
@@ -1887,7 +1887,7 @@
         <v>8044038364.816983</v>
       </c>
       <c r="F65">
-        <v>6.117727801729632E-08</v>
+        <v>29351754.43773678</v>
       </c>
       <c r="G65">
         <v>486.8262879988054</v>
@@ -1910,7 +1910,7 @@
         <v>16502061746.56462</v>
       </c>
       <c r="F66">
-        <v>1.469501719616248E-09</v>
+        <v>705912.2690772193</v>
       </c>
       <c r="G66">
         <v>281.7595400651596</v>
@@ -1933,7 +1933,7 @@
         <v>15047213904.79412</v>
       </c>
       <c r="F67">
-        <v>4.773968839087426E-09</v>
+        <v>2299702.645966645</v>
       </c>
       <c r="G67">
         <v>300.7606192795334</v>
@@ -1956,7 +1956,7 @@
         <v>6226433696.606266</v>
       </c>
       <c r="F68">
-        <v>9.187308520470584E-08</v>
+        <v>45160166.11724176</v>
       </c>
       <c r="G68">
         <v>541.1885568986736</v>
@@ -1979,7 +1979,7 @@
         <v>12330198806.64964</v>
       </c>
       <c r="F69">
-        <v>2.930879581965031E-08</v>
+        <v>14668864.00734625</v>
       </c>
       <c r="G69">
         <v>386.6352719951028</v>
@@ -2002,7 +2002,7 @@
         <v>11718998157.75992</v>
       </c>
       <c r="F70">
-        <v>-6.007774286995454E-11</v>
+        <v>-30080.47500528535</v>
       </c>
       <c r="G70">
         <v>152.103565471654</v>
@@ -2025,7 +2025,7 @@
         <v>12182460834.18043</v>
       </c>
       <c r="F71">
-        <v>2.191833275212547E-08</v>
+        <v>11130972.60223413</v>
       </c>
       <c r="G71">
         <v>353.6534040947407</v>
@@ -2048,7 +2048,7 @@
         <v>13049881649.99369</v>
       </c>
       <c r="F72">
-        <v>-4.183042532017404E-10</v>
+        <v>-218517.8671369059</v>
       </c>
       <c r="G72">
         <v>213.2069025311453</v>
@@ -2071,7 +2071,7 @@
         <v>11527685298.91117</v>
       </c>
       <c r="F73">
-        <v>2.551204612814688E-08</v>
+        <v>13409630.9179356</v>
       </c>
       <c r="G73">
         <v>394.4517984240071</v>
@@ -2094,7 +2094,7 @@
         <v>12214222607.0965</v>
       </c>
       <c r="F74">
-        <v>-9.745525435700489E-10</v>
+        <v>-512679.1934422441</v>
       </c>
       <c r="G74">
         <v>187.7941768108143</v>
@@ -2117,7 +2117,7 @@
         <v>10787860978.91849</v>
       </c>
       <c r="F75">
-        <v>3.31756051745781E-08</v>
+        <v>17479227.37828009</v>
       </c>
       <c r="G75">
         <v>419.2472942516421</v>
@@ -2140,7 +2140,7 @@
         <v>12274156159.71665</v>
       </c>
       <c r="F76">
-        <v>1.55157249121122E-09</v>
+        <v>823370.7501867298</v>
       </c>
       <c r="G76">
         <v>168.6470972061475</v>
@@ -2163,7 +2163,7 @@
         <v>12348284630.86265</v>
       </c>
       <c r="F77">
-        <v>5.553130735701591E-09</v>
+        <v>2952737.370836186</v>
       </c>
       <c r="G77">
         <v>274.6958173502403</v>
@@ -2186,7 +2186,7 @@
         <v>12920168340.90231</v>
       </c>
       <c r="F78">
-        <v>4.975704805517314E-09</v>
+        <v>2661302.66838404</v>
       </c>
       <c r="G78">
         <v>274.2924547390904</v>
@@ -2209,7 +2209,7 @@
         <v>13058308164.59484</v>
       </c>
       <c r="F79">
-        <v>2.680909051115408E-09</v>
+        <v>1467798.278630122</v>
       </c>
       <c r="G79">
         <v>216.9166997070782</v>
@@ -2232,7 +2232,7 @@
         <v>14557960922.72351</v>
       </c>
       <c r="F80">
-        <v>7.378509981064028E-09</v>
+        <v>4052042.016085098</v>
       </c>
       <c r="G80">
         <v>346.8030549982863</v>
@@ -2255,7 +2255,7 @@
         <v>12018788255.7709</v>
       </c>
       <c r="F81">
-        <v>1.009062793683079E-08</v>
+        <v>5615693.694136345</v>
       </c>
       <c r="G81">
         <v>376.5128291380712</v>
@@ -2278,7 +2278,7 @@
         <v>3990929038.013825</v>
       </c>
       <c r="F82">
-        <v>1.081250805242671E-07</v>
+        <v>60376487.74711934</v>
       </c>
       <c r="G82">
         <v>610.5502756047948</v>
@@ -2301,7 +2301,7 @@
         <v>2887925513.549094</v>
       </c>
       <c r="F83">
-        <v>1.59108380772612E-07</v>
+        <v>89694975.31203865</v>
       </c>
       <c r="G83">
         <v>670.6244879635998</v>
@@ -2324,7 +2324,7 @@
         <v>3671614702.285092</v>
       </c>
       <c r="F84">
-        <v>1.421472544541809E-07</v>
+        <v>80187308.53974813</v>
       </c>
       <c r="G84">
         <v>652.0572418087476</v>
@@ -2347,7 +2347,7 @@
         <v>13200198810.67547</v>
       </c>
       <c r="F85">
-        <v>6.969276683097411E-09</v>
+        <v>3943535.419819425</v>
       </c>
       <c r="G85">
         <v>301.19149868148</v>
@@ -2370,7 +2370,7 @@
         <v>14394037156.56203</v>
       </c>
       <c r="F86">
-        <v>9.779076953201578E-09</v>
+        <v>5560008.59144887</v>
       </c>
       <c r="G86">
         <v>313.1099961994693</v>
@@ -2393,7 +2393,7 @@
         <v>12120040484.85664</v>
       </c>
       <c r="F87">
-        <v>1.250467604594786E-08</v>
+        <v>7112166.979426265</v>
       </c>
       <c r="G87">
         <v>392.8880966500864</v>
@@ -2416,7 +2416,7 @@
         <v>12911355426.8304</v>
       </c>
       <c r="F88">
-        <v>1.667726749384981E-08</v>
+        <v>9510939.954688711</v>
       </c>
       <c r="G88">
         <v>355.8152646964811</v>
@@ -2439,7 +2439,7 @@
         <v>11782764113.10058</v>
       </c>
       <c r="F89">
-        <v>2.072537346297701E-08</v>
+        <v>11828273.26366744</v>
       </c>
       <c r="G89">
         <v>361.8832589915302</v>
@@ -2462,7 +2462,7 @@
         <v>2864040679.575552</v>
       </c>
       <c r="F90">
-        <v>3.837460757454263E-08</v>
+        <v>21980433.78721678</v>
       </c>
       <c r="G90">
         <v>618.9347908313625</v>
@@ -2485,7 +2485,7 @@
         <v>2330706117.056531</v>
       </c>
       <c r="F91">
-        <v>8.595212213289578E-09</v>
+        <v>4926185.701093145</v>
       </c>
       <c r="G91">
         <v>618.8414988269474</v>
@@ -2508,7 +2508,7 @@
         <v>12750199825.13306</v>
       </c>
       <c r="F92">
-        <v>7.549767120679257E-09</v>
+        <v>4331823.323476498</v>
       </c>
       <c r="G92">
         <v>232.76642785476</v>
@@ -2531,7 +2531,7 @@
         <v>13419444026.11343</v>
       </c>
       <c r="F93">
-        <v>7.507309383149967E-09</v>
+        <v>4360078.836726672</v>
       </c>
       <c r="G93">
         <v>305.3434741262351</v>
@@ -2554,7 +2554,7 @@
         <v>13210263293.32272</v>
       </c>
       <c r="F94">
-        <v>9.183821526002354E-09</v>
+        <v>5340941.849509899</v>
       </c>
       <c r="G94">
         <v>280.8214890136861</v>
@@ -2577,7 +2577,7 @@
         <v>10686966886.8106</v>
       </c>
       <c r="F95">
-        <v>2.329391029612568E-08</v>
+        <v>13553818.84988412</v>
       </c>
       <c r="G95">
         <v>408.9698371265093</v>
@@ -2600,7 +2600,7 @@
         <v>12210749227.02507</v>
       </c>
       <c r="F96">
-        <v>1.771331737076326E-08</v>
+        <v>10309280.75574248</v>
       </c>
       <c r="G96">
         <v>390.6331781611177</v>
@@ -2623,7 +2623,7 @@
         <v>12235368289.28755</v>
       </c>
       <c r="F97">
-        <v>1.920722834943836E-08</v>
+        <v>11180923.87183375</v>
       </c>
       <c r="G97">
         <v>384.5108168893962</v>
@@ -2646,7 +2646,7 @@
         <v>13184427309.72393</v>
       </c>
       <c r="F98">
-        <v>1.03599143815521E-08</v>
+        <v>6063520.314739813</v>
       </c>
       <c r="G98">
         <v>286.4684565991175</v>
@@ -2669,7 +2669,7 @@
         <v>12731335140.48432</v>
       </c>
       <c r="F99">
-        <v>5.410982765169538E-09</v>
+        <v>3168989.853925667</v>
       </c>
       <c r="G99">
         <v>219.3877363176368</v>
@@ -2692,7 +2692,7 @@
         <v>2218762979.587776</v>
       </c>
       <c r="F100">
-        <v>9.399168854460961E-09</v>
+        <v>5515895.202225931</v>
       </c>
       <c r="G100">
         <v>621.2839523717316</v>
@@ -2715,7 +2715,7 @@
         <v>8513857046.440112</v>
       </c>
       <c r="F101">
-        <v>4.388185737989459E-08</v>
+        <v>25841430.53253341</v>
       </c>
       <c r="G101">
         <v>523.3738562432578</v>
@@ -2738,7 +2738,7 @@
         <v>12138028284.99991</v>
       </c>
       <c r="F102">
-        <v>1.490015385807834E-08</v>
+        <v>8870398.07404653</v>
       </c>
       <c r="G102">
         <v>352.0149572303775</v>
@@ -2761,7 +2761,7 @@
         <v>5088299376.296271</v>
       </c>
       <c r="F103">
-        <v>1.357563138656479E-07</v>
+        <v>80860974.58168915</v>
       </c>
       <c r="G103">
         <v>606.8437012180223</v>
@@ -2784,7 +2784,7 @@
         <v>6499972628.710576</v>
       </c>
       <c r="F104">
-        <v>9.929811755557217E-08</v>
+        <v>59187035.58841902</v>
       </c>
       <c r="G104">
         <v>546.0628232056733</v>
@@ -2807,7 +2807,7 @@
         <v>11484256212.068</v>
       </c>
       <c r="F105">
-        <v>1.219342304646196E-09</v>
+        <v>730298.6232787917</v>
       </c>
       <c r="G105">
         <v>169.6818028425222</v>
@@ -2830,7 +2830,7 @@
         <v>7913722701.031931</v>
       </c>
       <c r="F106">
-        <v>4.894082788962899E-08</v>
+        <v>29329980.98010488</v>
       </c>
       <c r="G106">
         <v>508.9681532508874</v>
@@ -2853,7 +2853,7 @@
         <v>12291723081.39206</v>
       </c>
       <c r="F107">
-        <v>1.477335472399685E-08</v>
+        <v>8880223.753240881</v>
       </c>
       <c r="G107">
         <v>345.1118428330054</v>
@@ -2876,7 +2876,7 @@
         <v>5827675215.503829</v>
       </c>
       <c r="F108">
-        <v>8.987220889063181E-08</v>
+        <v>54723184.04902476</v>
       </c>
       <c r="G108">
         <v>567.30014252463</v>
@@ -2899,7 +2899,7 @@
         <v>11413951763.73825</v>
       </c>
       <c r="F109">
-        <v>2.20732222641841E-08</v>
+        <v>13459948.09042961</v>
       </c>
       <c r="G109">
         <v>434.3695935401912</v>
@@ -2922,7 +2922,7 @@
         <v>12218846023.7999</v>
       </c>
       <c r="F110">
-        <v>1.747995891632074E-08</v>
+        <v>10676377.70953258</v>
       </c>
       <c r="G110">
         <v>361.8275211944923</v>
@@ -2945,7 +2945,7 @@
         <v>14196888590.4441</v>
       </c>
       <c r="F111">
-        <v>7.345697080588327E-09</v>
+        <v>4488675.63201231</v>
       </c>
       <c r="G111">
         <v>289.428342609861</v>
@@ -2968,7 +2968,7 @@
         <v>6020396105.175292</v>
       </c>
       <c r="F112">
-        <v>6.15783261127872E-08</v>
+        <v>37993097.77694524</v>
       </c>
       <c r="G112">
         <v>517.3097895519192</v>
@@ -2991,7 +2991,7 @@
         <v>7952955952.670198</v>
       </c>
       <c r="F113">
-        <v>3.933350388799356E-08</v>
+        <v>24282917.29136499</v>
       </c>
       <c r="G113">
         <v>457.0886118432708</v>
@@ -3014,7 +3014,7 @@
         <v>6995084271.945768</v>
       </c>
       <c r="F114">
-        <v>6.066351874408159E-08</v>
+        <v>37469353.74368952</v>
       </c>
       <c r="G114">
         <v>541.2237488989177</v>
@@ -3037,7 +3037,7 @@
         <v>9069213212.450693</v>
       </c>
       <c r="F115">
-        <v>3.533743738557491E-08</v>
+        <v>21850992.02410202</v>
       </c>
       <c r="G115">
         <v>468.9288560410837</v>
@@ -3060,7 +3060,7 @@
         <v>12563664532.54956</v>
       </c>
       <c r="F116">
-        <v>3.736819989839561E-09</v>
+        <v>2312462.893460947</v>
       </c>
       <c r="G116">
         <v>228.4080897259217</v>
@@ -3083,7 +3083,7 @@
         <v>11145836800.61831</v>
       </c>
       <c r="F117">
-        <v>2.254274767622656E-08</v>
+        <v>13980746.21134952</v>
       </c>
       <c r="G117">
         <v>396.4919162247787</v>
@@ -3106,7 +3106,7 @@
         <v>10936059724.60959</v>
       </c>
       <c r="F118">
-        <v>2.20389105043539E-08</v>
+        <v>13693696.47602005</v>
       </c>
       <c r="G118">
         <v>402.3124239570178</v>
@@ -3129,7 +3129,7 @@
         <v>4732275773.443843</v>
       </c>
       <c r="F119">
-        <v>2.966002807179404E-07</v>
+        <v>184713694.693187</v>
       </c>
       <c r="G119">
         <v>648.1320726640671</v>
@@ -3152,7 +3152,7 @@
         <v>9404691162.248508</v>
       </c>
       <c r="F120">
-        <v>-5.119415727302398E-09</v>
+        <v>-3200937.919831602</v>
       </c>
       <c r="G120">
         <v>113.909581325338</v>
@@ -3175,7 +3175,7 @@
         <v>5244412345.080046</v>
       </c>
       <c r="F121">
-        <v>8.387856827586037E-08</v>
+        <v>52561305.58710208</v>
       </c>
       <c r="G121">
         <v>557.2507669958649</v>
@@ -3198,7 +3198,7 @@
         <v>11612696686.44507</v>
       </c>
       <c r="F122">
-        <v>1.60437261467016E-08</v>
+        <v>10061021.32324428</v>
       </c>
       <c r="G122">
         <v>389.4040072806783</v>
@@ -3221,7 +3221,7 @@
         <v>11930085401.63706</v>
       </c>
       <c r="F123">
-        <v>1.287849124777665E-09</v>
+        <v>808416.7638754812</v>
       </c>
       <c r="G123">
         <v>209.6266383939193</v>
@@ -3244,7 +3244,7 @@
         <v>6167118795.504225</v>
       </c>
       <c r="F124">
-        <v>6.084799407328293E-08</v>
+        <v>38246998.85125896</v>
       </c>
       <c r="G124">
         <v>526.8856422683017</v>
@@ -3267,7 +3267,7 @@
         <v>6977401631.047334</v>
       </c>
       <c r="F125">
-        <v>6.257670676387165E-08</v>
+        <v>39624524.16367897</v>
       </c>
       <c r="G125">
         <v>531.8922237942238</v>
@@ -3290,7 +3290,7 @@
         <v>8587246640.611396</v>
       </c>
       <c r="F126">
-        <v>5.136054397189522E-08</v>
+        <v>32711857.83009788</v>
       </c>
       <c r="G126">
         <v>495.3140120929924</v>
@@ -3313,7 +3313,7 @@
         <v>10902535318.958</v>
       </c>
       <c r="F127">
-        <v>-1.31587913905698E-09</v>
+        <v>-838722.8046989171</v>
       </c>
       <c r="G127">
         <v>131.2631921423011</v>
@@ -3336,7 +3336,7 @@
         <v>12081670741.20598</v>
       </c>
       <c r="F128">
-        <v>3.872181557012356E-09</v>
+        <v>2477071.791400491</v>
       </c>
       <c r="G128">
         <v>256.3266782031861</v>
@@ -3359,7 +3359,7 @@
         <v>11905670547.78912</v>
       </c>
       <c r="F129">
-        <v>1.942578117444212E-08</v>
+        <v>12430543.20440599</v>
       </c>
       <c r="G129">
         <v>429.1666017403272</v>
@@ -3382,7 +3382,7 @@
         <v>14335169824.14295</v>
       </c>
       <c r="F130">
-        <v>2.567328494821961E-09</v>
+        <v>1644777.421210033</v>
       </c>
       <c r="G130">
         <v>244.3140763600454</v>
@@ -3405,7 +3405,7 @@
         <v>7507382581.9926</v>
       </c>
       <c r="F131">
-        <v>9.256747271268323E-10</v>
+        <v>593587.1037824171</v>
       </c>
       <c r="G131">
         <v>142.9801140968682</v>
@@ -3428,7 +3428,7 @@
         <v>12743712725.3684</v>
       </c>
       <c r="F132">
-        <v>8.224072433996221E-09</v>
+        <v>5330237.979999029</v>
       </c>
       <c r="G132">
         <v>386.2066084853685</v>
@@ -3451,7 +3451,7 @@
         <v>11394193186.60372</v>
       </c>
       <c r="F133">
-        <v>-6.62959578932559E-10</v>
+        <v>-433245.7159828548</v>
       </c>
       <c r="G133">
         <v>195.6694928810959</v>
@@ -3474,7 +3474,7 @@
         <v>5258090068.64201</v>
       </c>
       <c r="F134">
-        <v>9.041860827027043E-08</v>
+        <v>59752232.8417443</v>
       </c>
       <c r="G134">
         <v>549.8957560367161</v>
@@ -3497,7 +3497,7 @@
         <v>12729679509.34903</v>
       </c>
       <c r="F135">
-        <v>4.363733712842513E-09</v>
+        <v>2892619.543676231</v>
       </c>
       <c r="G135">
         <v>295.4152197930109</v>
@@ -3520,7 +3520,7 @@
         <v>9236533839.163744</v>
       </c>
       <c r="F136">
-        <v>2.947736370198875E-08</v>
+        <v>19637213.37079386</v>
       </c>
       <c r="G136">
         <v>483.8797543895105</v>
@@ -3543,7 +3543,7 @@
         <v>4186917046.701827</v>
       </c>
       <c r="F137">
-        <v>3.758375366017266E-07</v>
+        <v>251237432.5684242</v>
       </c>
       <c r="G137">
         <v>672.1334036531405</v>
@@ -3566,7 +3566,7 @@
         <v>10301363760.41961</v>
       </c>
       <c r="F138">
-        <v>1.641974539866755E-08</v>
+        <v>11040487.82364796</v>
       </c>
       <c r="G138">
         <v>423.885296576584</v>
@@ -3589,7 +3589,7 @@
         <v>5502145211.990395</v>
       </c>
       <c r="F139">
-        <v>1.761378079791406E-07</v>
+        <v>119172833.5378027</v>
       </c>
       <c r="G139">
         <v>581.9364641927928</v>
@@ -3612,7 +3612,7 @@
         <v>11989686442.97081</v>
       </c>
       <c r="F140">
-        <v>6.194209862603001E-09</v>
+        <v>4192157.300135178</v>
       </c>
       <c r="G140">
         <v>205.7198180589327</v>
@@ -3635,7 +3635,7 @@
         <v>5357166275.682172</v>
       </c>
       <c r="F141">
-        <v>1.076926620795642E-07</v>
+        <v>73365016.91506253</v>
       </c>
       <c r="G141">
         <v>557.4672882490107</v>
@@ -3658,7 +3658,7 @@
         <v>7550263722.149791</v>
       </c>
       <c r="F142">
-        <v>-7.629951099278166E-09</v>
+        <v>-5231827.185733397</v>
       </c>
       <c r="G142">
         <v>140.6045061678527</v>
@@ -3681,7 +3681,7 @@
         <v>6499194775.788782</v>
       </c>
       <c r="F143">
-        <v>9.206718429589559E-08</v>
+        <v>63704048.90448733</v>
       </c>
       <c r="G143">
         <v>549.4571242738238</v>
@@ -3704,7 +3704,7 @@
         <v>11709799281.48086</v>
       </c>
       <c r="F144">
-        <v>1.695174515163196E-08</v>
+        <v>11767047.0369142</v>
       </c>
       <c r="G144">
         <v>414.6831450819184</v>
@@ -3727,7 +3727,7 @@
         <v>8486841868.498534</v>
       </c>
       <c r="F145">
-        <v>3.521556130102644E-08</v>
+        <v>24557776.87316553</v>
       </c>
       <c r="G145">
         <v>519.2157442921462</v>
@@ -3750,7 +3750,7 @@
         <v>10382454373.46235</v>
       </c>
       <c r="F146">
-        <v>2.480552795031316E-08</v>
+        <v>17357029.61000842</v>
       </c>
       <c r="G146">
         <v>501.2889690035408</v>
@@ -3773,7 +3773,7 @@
         <v>12141746973.97937</v>
       </c>
       <c r="F147">
-        <v>1.119118302976192E-08</v>
+        <v>7869201.182299123</v>
       </c>
       <c r="G147">
         <v>372.595456089051</v>
@@ -3796,7 +3796,7 @@
         <v>10734302222.78239</v>
       </c>
       <c r="F148">
-        <v>2.104435260662534E-08</v>
+        <v>14799714.47886929</v>
       </c>
       <c r="G148">
         <v>413.3331222706581</v>
@@ -3819,7 +3819,7 @@
         <v>12967687713.93533</v>
       </c>
       <c r="F149">
-        <v>1.275057045116093E-08</v>
+        <v>9042681.817730691</v>
       </c>
       <c r="G149">
         <v>395.0374591750795</v>
@@ -3842,7 +3842,7 @@
         <v>5217585901.814314</v>
       </c>
       <c r="F150">
-        <v>3.954875398090502E-08</v>
+        <v>28117945.07311838</v>
       </c>
       <c r="G150">
         <v>539.9353231382562</v>
@@ -3865,7 +3865,7 @@
         <v>10922222733.97431</v>
       </c>
       <c r="F151">
-        <v>2.152240437719492E-08</v>
+        <v>15338981.41843395</v>
       </c>
       <c r="G151">
         <v>429.3649716223846</v>
@@ -3888,7 +3888,7 @@
         <v>3114656976.93574</v>
       </c>
       <c r="F152">
-        <v>5.04246367426974E-07</v>
+        <v>367665834.911483</v>
       </c>
       <c r="G152">
         <v>703.8480779650433</v>
@@ -3911,7 +3911,7 @@
         <v>8834633591.545847</v>
       </c>
       <c r="F153">
-        <v>3.590438879361367E-08</v>
+        <v>26189932.0407669</v>
       </c>
       <c r="G153">
         <v>519.1791656285195</v>
@@ -3934,7 +3934,7 @@
         <v>12803574953.95595</v>
       </c>
       <c r="F154">
-        <v>1.353959352835359E-08</v>
+        <v>9880701.13207834</v>
       </c>
       <c r="G154">
         <v>340.3123212836119</v>
@@ -3957,7 +3957,7 @@
         <v>7638669779.545975</v>
       </c>
       <c r="F155">
-        <v>5.42937031899138E-08</v>
+        <v>39702579.89995347</v>
       </c>
       <c r="G155">
         <v>490.0303992407331</v>
@@ -3980,7 +3980,7 @@
         <v>6505538133.629124</v>
       </c>
       <c r="F156">
-        <v>4.343452205696496E-08</v>
+        <v>32166149.9072182</v>
       </c>
       <c r="G156">
         <v>517.2171929760651</v>
@@ -4003,7 +4003,7 @@
         <v>3722585579.749247</v>
       </c>
       <c r="F157">
-        <v>2.316782671343525E-07</v>
+        <v>171717254.0896718</v>
       </c>
       <c r="G157">
         <v>597.5479325376913</v>
@@ -4026,7 +4026,7 @@
         <v>7569734722.561796</v>
       </c>
       <c r="F158">
-        <v>4.246804582508927E-08</v>
+        <v>31503722.14269883</v>
       </c>
       <c r="G158">
         <v>516.9982386881812</v>
@@ -4049,7 +4049,7 @@
         <v>9835886170.377907</v>
       </c>
       <c r="F159">
-        <v>-4.442621902202122E-09</v>
+        <v>-3310283.353837809</v>
       </c>
       <c r="G159">
         <v>74.59465487300163</v>
@@ -4072,7 +4072,7 @@
         <v>14125888016.79154</v>
       </c>
       <c r="F160">
-        <v>1.085524594217384E-08</v>
+        <v>8103001.370698667</v>
       </c>
       <c r="G160">
         <v>447.3674607553189</v>
@@ -4095,7 +4095,7 @@
         <v>13022276869.73432</v>
       </c>
       <c r="F161">
-        <v>5.076895449673644E-09</v>
+        <v>3797962.74363583</v>
       </c>
       <c r="G161">
         <v>246.4911865977916</v>
@@ -4118,7 +4118,7 @@
         <v>2710103470.659324</v>
       </c>
       <c r="F162">
-        <v>3.708176459390783E-08</v>
+        <v>27837535.0133892</v>
       </c>
       <c r="G162">
         <v>641.4636615118862</v>
@@ -4141,7 +4141,7 @@
         <v>10023297965.74026</v>
       </c>
       <c r="F163">
-        <v>2.466287575201667E-08</v>
+        <v>18650091.3927904</v>
       </c>
       <c r="G163">
         <v>508.8058949962946</v>
@@ -4164,7 +4164,7 @@
         <v>13135640650.21904</v>
       </c>
       <c r="F164">
-        <v>8.680132549903376E-09</v>
+        <v>6570350.084674701</v>
       </c>
       <c r="G164">
         <v>314.3535067409522</v>
@@ -4187,7 +4187,7 @@
         <v>15977071050.12762</v>
       </c>
       <c r="F165">
-        <v>6.631233084078299E-09</v>
+        <v>5032005.68936869</v>
       </c>
       <c r="G165">
         <v>411.260583732821</v>
@@ -4210,7 +4210,7 @@
         <v>15918382172.06753</v>
       </c>
       <c r="F166">
-        <v>7.244977601218772E-09</v>
+        <v>5510986.002642492</v>
       </c>
       <c r="G166">
         <v>422.4302103327851</v>
@@ -4233,7 +4233,7 @@
         <v>6619638097.257519</v>
       </c>
       <c r="F167">
-        <v>6.668245069706569E-08</v>
+        <v>50739804.61292195</v>
       </c>
       <c r="G167">
         <v>485.1834988164658</v>
@@ -4256,7 +4256,7 @@
         <v>12360060888.92305</v>
       </c>
       <c r="F168">
-        <v>1.401259755801635E-08</v>
+        <v>10685300.02188325</v>
       </c>
       <c r="G168">
         <v>399.3487262362295</v>
@@ -4279,7 +4279,7 @@
         <v>1306177988.807577</v>
       </c>
       <c r="F169">
-        <v>-6.036925751219607E-08</v>
+        <v>-46600732.58203628</v>
       </c>
       <c r="G169">
         <v>614.2584235759223</v>
@@ -4302,7 +4302,7 @@
         <v>4651815203.089018</v>
       </c>
       <c r="F170">
-        <v>1.154682623826878E-07</v>
+        <v>89965096.61527938</v>
       </c>
       <c r="G170">
         <v>595.810304460068</v>
@@ -4325,7 +4325,7 @@
         <v>14784546670.91646</v>
       </c>
       <c r="F171">
-        <v>3.726068518862086E-09</v>
+        <v>2992602.764418385</v>
       </c>
       <c r="G171">
         <v>388.5713691400574</v>
@@ -4348,7 +4348,7 @@
         <v>3126428420.177254</v>
       </c>
       <c r="F172">
-        <v>4.802486779158299E-08</v>
+        <v>38633463.43907055</v>
       </c>
       <c r="G172">
         <v>636.1004480173411</v>
@@ -4371,7 +4371,7 @@
         <v>11202909959.73729</v>
       </c>
       <c r="F173">
-        <v>-2.619846212705638E-09</v>
+        <v>-2110626.258592449</v>
       </c>
       <c r="G173">
         <v>196.949620428969</v>
@@ -4394,7 +4394,7 @@
         <v>1373798496.731372</v>
       </c>
       <c r="F174">
-        <v>8.903955945728358E-08</v>
+        <v>71835567.56832862</v>
       </c>
       <c r="G174">
         <v>669.3904356366385</v>
@@ -4417,7 +4417,7 @@
         <v>2330698961.694452</v>
       </c>
       <c r="F175">
-        <v>6.333441231897049E-07</v>
+        <v>511160649.9937</v>
       </c>
       <c r="G175">
         <v>742.448428838096</v>
@@ -4440,7 +4440,7 @@
         <v>13882933541.68882</v>
       </c>
       <c r="F176">
-        <v>7.02174103696845E-09</v>
+        <v>5673291.077407782</v>
       </c>
       <c r="G176">
         <v>314.8919959077166</v>
@@ -4463,7 +4463,7 @@
         <v>8514532137.6654</v>
       </c>
       <c r="F177">
-        <v>4.181109363267198E-08</v>
+        <v>33855656.10957447</v>
       </c>
       <c r="G177">
         <v>500.1802131727463</v>
@@ -4486,7 +4486,7 @@
         <v>4842457172.657739</v>
       </c>
       <c r="F178">
-        <v>7.187659007072442E-08</v>
+        <v>58508118.79221967</v>
       </c>
       <c r="G178">
         <v>600.5486337546013</v>
@@ -4509,7 +4509,7 @@
         <v>12590909595.68492</v>
       </c>
       <c r="F179">
-        <v>1.439132642154065E-08</v>
+        <v>11939727.53198911</v>
       </c>
       <c r="G179">
         <v>424.5330561625467</v>
@@ -4532,7 +4532,7 @@
         <v>4660942873.512526</v>
       </c>
       <c r="F180">
-        <v>7.480580385779085E-08</v>
+        <v>62274035.04002401</v>
       </c>
       <c r="G180">
         <v>669.7457880486612</v>
@@ -4555,7 +4555,7 @@
         <v>1526690484.806616</v>
       </c>
       <c r="F181">
-        <v>2.659004170389759E-07</v>
+        <v>221607823.0460393</v>
       </c>
       <c r="G181">
         <v>703.0330618523579</v>
@@ -4578,7 +4578,7 @@
         <v>12914418430.17832</v>
       </c>
       <c r="F182">
-        <v>9.034189216946328E-09</v>
+        <v>7541722.333241968</v>
       </c>
       <c r="G182">
         <v>329.0620903396443</v>
@@ -4601,7 +4601,7 @@
         <v>13646285042.88204</v>
       </c>
       <c r="F183">
-        <v>6.364012125271358E-09</v>
+        <v>5335899.772438633</v>
       </c>
       <c r="G183">
         <v>367.7020108115853</v>
@@ -4624,7 +4624,7 @@
         <v>4353498554.83496</v>
       </c>
       <c r="F184">
-        <v>4.855891048442884E-08</v>
+        <v>40829335.3814453</v>
       </c>
       <c r="G184">
         <v>645.8085397330899</v>
@@ -4647,7 +4647,7 @@
         <v>11149734484.12477</v>
       </c>
       <c r="F185">
-        <v>1.699792065958847E-08</v>
+        <v>14357162.42865377</v>
       </c>
       <c r="G185">
         <v>461.5632895720748</v>
@@ -4670,7 +4670,7 @@
         <v>5153111374.358268</v>
       </c>
       <c r="F186">
-        <v>6.138119627178129E-08</v>
+        <v>51987300.25461452</v>
       </c>
       <c r="G186">
         <v>572.3916342336527</v>
@@ -4693,7 +4693,7 @@
         <v>8143067522.921221</v>
       </c>
       <c r="F187">
-        <v>3.415289554451588E-11</v>
+        <v>29021.51807901958</v>
       </c>
       <c r="G187">
         <v>199.8942695846278</v>
@@ -4716,7 +4716,7 @@
         <v>12673378352.46169</v>
       </c>
       <c r="F188">
-        <v>1.172713207137375E-08</v>
+        <v>9970075.815367874</v>
       </c>
       <c r="G188">
         <v>394.1876027371848</v>
@@ -4739,7 +4739,7 @@
         <v>12905788411.36051</v>
       </c>
       <c r="F189">
-        <v>6.501062208465379E-09</v>
+        <v>5549750.559369981</v>
       </c>
       <c r="G189">
         <v>388.2370871417029</v>
@@ -4762,7 +4762,7 @@
         <v>1567365596.041324</v>
       </c>
       <c r="F190">
-        <v>2.213130243660355E-07</v>
+        <v>189201983.6063914</v>
       </c>
       <c r="G190">
         <v>670.853001182327</v>
@@ -4785,7 +4785,7 @@
         <v>12367094891.97452</v>
       </c>
       <c r="F191">
-        <v>5.003187155738457E-09</v>
+        <v>4287876.176824187</v>
       </c>
       <c r="G191">
         <v>310.2846618025884</v>
@@ -4808,7 +4808,7 @@
         <v>5906249874.502076</v>
       </c>
       <c r="F192">
-        <v>4.907847324686513E-08</v>
+        <v>42117111.40188096</v>
       </c>
       <c r="G192">
         <v>603.7486770689545</v>
@@ -4831,7 +4831,7 @@
         <v>4232863799.839677</v>
       </c>
       <c r="F193">
-        <v>7.486159221188795E-08</v>
+        <v>64447134.53422201</v>
       </c>
       <c r="G193">
         <v>675.2201181398445</v>
@@ -4854,7 +4854,7 @@
         <v>4121562916.146234</v>
       </c>
       <c r="F194">
-        <v>3.136987287849223E-08</v>
+        <v>27183168.07370747</v>
       </c>
       <c r="G194">
         <v>679.641627236473</v>
@@ -4877,7 +4877,7 @@
         <v>11359712290.86633</v>
       </c>
       <c r="F195">
-        <v>9.496121230764022E-09</v>
+        <v>8282724.400745911</v>
       </c>
       <c r="G195">
         <v>347.5401751906177</v>
@@ -4900,7 +4900,7 @@
         <v>1843734540.786068</v>
       </c>
       <c r="F196">
-        <v>4.622374380276101E-07</v>
+        <v>403643587.2450528</v>
       </c>
       <c r="G196">
         <v>716.9384274599745</v>
@@ -4923,7 +4923,7 @@
         <v>7275768074.80712</v>
       </c>
       <c r="F197">
-        <v>3.572294708894444E-08</v>
+        <v>31436809.1602902</v>
       </c>
       <c r="G197">
         <v>577.9470411635199</v>
@@ -4946,7 +4946,7 @@
         <v>9792396432.13871</v>
       </c>
       <c r="F198">
-        <v>2.19715433273069E-08</v>
+        <v>19591069.811365</v>
       </c>
       <c r="G198">
         <v>515.7032952568153</v>
@@ -4969,7 +4969,7 @@
         <v>8437118594.548758</v>
       </c>
       <c r="F199">
-        <v>2.636649561552436E-08</v>
+        <v>23515322.06017706</v>
       </c>
       <c r="G199">
         <v>554.0746100250157</v>
@@ -4992,7 +4992,7 @@
         <v>11237963008.76139</v>
       </c>
       <c r="F200">
-        <v>-2.066469271071692E-10</v>
+        <v>-184435.4658979074</v>
       </c>
       <c r="G200">
         <v>202.9405577513195</v>
@@ -5015,7 +5015,7 @@
         <v>11979661081.62338</v>
       </c>
       <c r="F201">
-        <v>1.254509592797702E-08</v>
+        <v>11214074.06338916</v>
       </c>
       <c r="G201">
         <v>405.7239565693343</v>
@@ -5038,7 +5038,7 @@
         <v>10581415454.18473</v>
       </c>
       <c r="F202">
-        <v>3.264585261310848E-09</v>
+        <v>2919471.34472396</v>
       </c>
       <c r="G202">
         <v>191.8756990250914</v>
@@ -5061,7 +5061,7 @@
         <v>12045073924.69949</v>
       </c>
       <c r="F203">
-        <v>1.530835169266791E-08</v>
+        <v>13759448.8602562</v>
       </c>
       <c r="G203">
         <v>410.6429861223715</v>
@@ -5084,7 +5084,7 @@
         <v>8252685756.299269</v>
       </c>
       <c r="F204">
-        <v>2.877335090245821E-08</v>
+        <v>25912469.66578241</v>
       </c>
       <c r="G204">
         <v>514.4222097389581</v>
@@ -5107,7 +5107,7 @@
         <v>12311670360.79078</v>
       </c>
       <c r="F205">
-        <v>3.482897606344486E-09</v>
+        <v>3151584.137868674</v>
       </c>
       <c r="G205">
         <v>224.1082449474177</v>
@@ -5130,7 +5130,7 @@
         <v>10445730066.95593</v>
       </c>
       <c r="F206">
-        <v>2.173742450316575E-09</v>
+        <v>1981927.47004629</v>
       </c>
       <c r="G206">
         <v>163.6712040033631</v>
@@ -5153,7 +5153,7 @@
         <v>3405315274.532257</v>
       </c>
       <c r="F207">
-        <v>3.425276434586909E-07</v>
+        <v>313219047.5269222</v>
       </c>
       <c r="G207">
         <v>681.4650208204075</v>
@@ -5176,7 +5176,7 @@
         <v>4272510666.098863</v>
       </c>
       <c r="F208">
-        <v>1.244235069664103E-07</v>
+        <v>114104281.716613</v>
       </c>
       <c r="G208">
         <v>593.8109273766565</v>
@@ -5199,7 +5199,7 @@
         <v>3015684467.253445</v>
       </c>
       <c r="F209">
-        <v>4.008114756462048E-07</v>
+        <v>368992270.7923399</v>
       </c>
       <c r="G209">
         <v>680.3187193694172</v>
@@ -5222,7 +5222,7 @@
         <v>11833387629.67553</v>
       </c>
       <c r="F210">
-        <v>2.577649011799383E-09</v>
+        <v>2400122.787641696</v>
       </c>
       <c r="G210">
         <v>195.3759338266332</v>
@@ -5245,7 +5245,7 @@
         <v>12805598397.73617</v>
       </c>
       <c r="F211">
-        <v>4.347086461975435E-09</v>
+        <v>4056788.930199686</v>
       </c>
       <c r="G211">
         <v>244.0830023639354</v>
@@ -5268,7 +5268,7 @@
         <v>12719578267.37571</v>
       </c>
       <c r="F212">
-        <v>7.634691884881558E-09</v>
+        <v>7216303.456150872</v>
       </c>
       <c r="G212">
         <v>329.8148435956174</v>
@@ -5291,7 +5291,7 @@
         <v>12778905358.26233</v>
       </c>
       <c r="F213">
-        <v>6.201325444060346E-09</v>
+        <v>5864642.394640255</v>
       </c>
       <c r="G213">
         <v>324.3643904619492</v>
@@ -5314,7 +5314,7 @@
         <v>12682549762.33303</v>
       </c>
       <c r="F214">
-        <v>4.17306219629739E-09</v>
+        <v>3993042.750522017</v>
       </c>
       <c r="G214">
         <v>253.341683606782</v>
@@ -5337,7 +5337,7 @@
         <v>12780577453.09915</v>
       </c>
       <c r="F215">
-        <v>6.356103492994205E-09</v>
+        <v>6092841.79958324</v>
       </c>
       <c r="G215">
         <v>350.2090231170371</v>
@@ -5360,7 +5360,7 @@
         <v>10549583470.00189</v>
       </c>
       <c r="F216">
-        <v>1.655268485863774E-08</v>
+        <v>15901347.64161203</v>
       </c>
       <c r="G216">
         <v>468.488853923797</v>
@@ -5383,7 +5383,7 @@
         <v>7176422338.194611</v>
       </c>
       <c r="F217">
-        <v>3.227328139805018E-08</v>
+        <v>31235422.19830094</v>
       </c>
       <c r="G217">
         <v>558.9896774259148</v>
@@ -5406,7 +5406,7 @@
         <v>3433859714.865366</v>
       </c>
       <c r="F218">
-        <v>3.534701317245365E-08</v>
+        <v>34472865.50839001</v>
       </c>
       <c r="G218">
         <v>622.2980323971223</v>
@@ -5429,7 +5429,7 @@
         <v>10281167968.48408</v>
       </c>
       <c r="F219">
-        <v>9.328883103485454E-10</v>
+        <v>910345.1037276204</v>
       </c>
       <c r="G219">
         <v>171.6432888880289</v>
@@ -5452,7 +5452,7 @@
         <v>3296325462.464709</v>
       </c>
       <c r="F220">
-        <v>2.626831649936881E-08</v>
+        <v>26152691.87105436</v>
       </c>
       <c r="G220">
         <v>645.7820504085362</v>
@@ -5475,7 +5475,7 @@
         <v>12740007782.15816</v>
       </c>
       <c r="F221">
-        <v>4.022783113457211E-09</v>
+        <v>4013588.423720449</v>
       </c>
       <c r="G221">
         <v>250.7075251640749</v>
@@ -5498,7 +5498,7 @@
         <v>12150301122.18524</v>
       </c>
       <c r="F222">
-        <v>3.123002579276921E-09</v>
+        <v>3127837.764221967</v>
       </c>
       <c r="G222">
         <v>293.1000200226537</v>
@@ -5521,7 +5521,7 @@
         <v>9859693207.608702</v>
       </c>
       <c r="F223">
-        <v>1.994869109278349E-10</v>
+        <v>201477.6097796771</v>
       </c>
       <c r="G223">
         <v>175.4917888145211</v>
@@ -5544,7 +5544,7 @@
         <v>6989428374.619141</v>
       </c>
       <c r="F224">
-        <v>-3.202172090241612E-09</v>
+        <v>-3236133.423616712</v>
       </c>
       <c r="G224">
         <v>196.7330270168722</v>
@@ -5567,7 +5567,7 @@
         <v>3028331310.868876</v>
       </c>
       <c r="F225">
-        <v>6.744470506038075E-09</v>
+        <v>6845332.131148668</v>
       </c>
       <c r="G225">
         <v>159.3420947762234</v>
@@ -5590,7 +5590,7 @@
         <v>9087517066.428583</v>
       </c>
       <c r="F226">
-        <v>1.576293557473956E-09</v>
+        <v>1608087.826350056</v>
       </c>
       <c r="G226">
         <v>122.0058204779061</v>
@@ -5613,7 +5613,7 @@
         <v>5828059161.289463</v>
       </c>
       <c r="F227">
-        <v>-4.882961693768814E-09</v>
+        <v>-4986684.82166788</v>
       </c>
       <c r="G227">
         <v>196.2187752029738</v>
@@ -5636,7 +5636,7 @@
         <v>7991770743.239759</v>
       </c>
       <c r="F228">
-        <v>-1.402301140461104E-09</v>
+        <v>-1432948.503959238</v>
       </c>
       <c r="G228">
         <v>153.7699947650628</v>
@@ -5659,7 +5659,7 @@
         <v>10618267654.22149</v>
       </c>
       <c r="F229">
-        <v>5.791198375342921E-09</v>
+        <v>5929749.582284604</v>
       </c>
       <c r="G229">
         <v>211.9893403883534</v>
@@ -5682,7 +5682,7 @@
         <v>5156385501.395305</v>
       </c>
       <c r="F230">
-        <v>3.317933091718405E-11</v>
+        <v>34078.86381077689</v>
       </c>
       <c r="G230">
         <v>42.36491902258877</v>
@@ -5705,7 +5705,7 @@
         <v>6815501255.720757</v>
       </c>
       <c r="F231">
-        <v>-1.952935618648636E-09</v>
+        <v>-2008396.605063936</v>
       </c>
       <c r="G231">
         <v>153.5247981838676</v>
@@ -5728,7 +5728,7 @@
         <v>9983117073.607582</v>
       </c>
       <c r="F232">
-        <v>1.927368568358295E-08</v>
+        <v>19837515.83290631</v>
       </c>
       <c r="G232">
         <v>455.1863027942478</v>
@@ -5751,7 +5751,7 @@
         <v>2247083260.588636</v>
       </c>
       <c r="F233">
-        <v>-2.877002366221793E-08</v>
+        <v>-29930100.34894649</v>
       </c>
       <c r="G233">
         <v>147.8042628837914</v>
@@ -5774,7 +5774,7 @@
         <v>1528419535.869844</v>
       </c>
       <c r="F234">
-        <v>-2.780969294896422E-08</v>
+        <v>-28945235.59878176</v>
       </c>
       <c r="G234">
         <v>258.625851696873</v>
@@ -5797,7 +5797,7 @@
         <v>12001293394.51251</v>
       </c>
       <c r="F235">
-        <v>6.920591466240649E-09</v>
+        <v>7206454.367616752</v>
       </c>
       <c r="G235">
         <v>337.7587115346472</v>
@@ -5820,7 +5820,7 @@
         <v>3398931128.823686</v>
       </c>
       <c r="F236">
-        <v>-6.989189232041887E-09</v>
+        <v>-7284116.232829064</v>
       </c>
       <c r="G236">
         <v>211.0539491664019</v>
@@ -5843,7 +5843,7 @@
         <v>12295416466.61321</v>
       </c>
       <c r="F237">
-        <v>1.06657042783058E-08</v>
+        <v>11165121.89909092</v>
       </c>
       <c r="G237">
         <v>442.7230641088756</v>
@@ -5866,7 +5866,7 @@
         <v>10896165683.94891</v>
       </c>
       <c r="F238">
-        <v>1.919373278265156E-09</v>
+        <v>2016269.830171298</v>
       </c>
       <c r="G238">
         <v>210.6365328673202</v>
@@ -5889,7 +5889,7 @@
         <v>4186902150.103707</v>
       </c>
       <c r="F239">
-        <v>-3.807727389490889E-09</v>
+        <v>-4012881.704719041</v>
       </c>
       <c r="G239">
         <v>231.5133756899312</v>
@@ -5912,7 +5912,7 @@
         <v>4903801684.674041</v>
       </c>
       <c r="F240">
-        <v>-1.026839875546537E-08</v>
+        <v>-10836320.00220386</v>
       </c>
       <c r="G240">
         <v>226.1750588973376</v>
@@ -5935,7 +5935,7 @@
         <v>9915790039.894182</v>
       </c>
       <c r="F241">
-        <v>1.704930326091948E-08</v>
+        <v>18036890.55653952</v>
       </c>
       <c r="G241">
         <v>520.4067162609281</v>
@@ -5958,7 +5958,7 @@
         <v>5364632842.702776</v>
       </c>
       <c r="F242">
-        <v>-4.070678907741953E-09</v>
+        <v>-4316092.039936804</v>
       </c>
       <c r="G242">
         <v>78.80542461884487</v>
@@ -5981,7 +5981,7 @@
         <v>10598297693.42808</v>
       </c>
       <c r="F243">
-        <v>7.069826405332278E-10</v>
+        <v>749990.8189671782</v>
       </c>
       <c r="G243">
         <v>215.373900064697</v>
@@ -6004,7 +6004,7 @@
         <v>7659928564.075643</v>
       </c>
       <c r="F244">
-        <v>2.24136395549081E-08</v>
+        <v>23842539.29738018</v>
       </c>
       <c r="G244">
         <v>509.1938432839436</v>
@@ -6027,7 +6027,7 @@
         <v>3119747818.039159</v>
       </c>
       <c r="F245">
-        <v>-4.438977528708922E-09</v>
+        <v>-4723777.351215108</v>
       </c>
       <c r="G245">
         <v>131.2227948456307</v>
@@ -6050,7 +6050,7 @@
         <v>13263625019.53271</v>
       </c>
       <c r="F246">
-        <v>3.49229804713924E-09</v>
+        <v>3722096.286740248</v>
       </c>
       <c r="G246">
         <v>278.0852152709296</v>
@@ -6073,7 +6073,7 @@
         <v>1867823911.037834</v>
       </c>
       <c r="F247">
-        <v>-3.457755945639877E-08</v>
+        <v>-36915132.16371384</v>
       </c>
       <c r="G247">
         <v>57.69138280990988</v>
@@ -6096,7 +6096,7 @@
         <v>1691739126.604408</v>
       </c>
       <c r="F248">
-        <v>-2.187789430393069E-08</v>
+        <v>-23519326.46908582</v>
       </c>
       <c r="G248">
         <v>172.7746623561969</v>
@@ -6119,7 +6119,7 @@
         <v>12750703148.693</v>
       </c>
       <c r="F249">
-        <v>5.536571786415708E-09</v>
+        <v>5982422.997667843</v>
       </c>
       <c r="G249">
         <v>292.8195767894628</v>
@@ -6142,7 +6142,7 @@
         <v>3890180769.22627</v>
       </c>
       <c r="F250">
-        <v>-1.420440181399484E-08</v>
+        <v>-15353945.1101766</v>
       </c>
       <c r="G250">
         <v>135.9392874703295</v>
@@ -6165,7 +6165,7 @@
         <v>9298329284.585428</v>
       </c>
       <c r="F251">
-        <v>5.042372127050671E-11</v>
+        <v>54868.69214878235</v>
       </c>
       <c r="G251">
         <v>177.4710211691086</v>
@@ -6188,7 +6188,7 @@
         <v>3652379040.419583</v>
       </c>
       <c r="F252">
-        <v>-1.127466356949262E-08</v>
+        <v>-12278059.49792839</v>
       </c>
       <c r="G252">
         <v>208.7490275865416</v>
@@ -6211,7 +6211,7 @@
         <v>12297377696.15588</v>
       </c>
       <c r="F253">
-        <v>5.905521014102503E-09</v>
+        <v>6471830.69757905</v>
       </c>
       <c r="G253">
         <v>343.892658511731</v>
@@ -6234,7 +6234,7 @@
         <v>11728782322.6547</v>
       </c>
       <c r="F254">
-        <v>1.186625654147314E-08</v>
+        <v>13014050.44281741</v>
       </c>
       <c r="G254">
         <v>421.9700671478758</v>
@@ -6257,7 +6257,7 @@
         <v>4663863884.172993</v>
       </c>
       <c r="F255">
-        <v>-3.501466223689839E-09</v>
+        <v>-3843561.521302867</v>
       </c>
       <c r="G255">
         <v>203.1255855498597</v>
@@ -6280,7 +6280,7 @@
         <v>2589328248.016824</v>
       </c>
       <c r="F256">
-        <v>-2.303137082781631E-08</v>
+        <v>-25366999.64077644</v>
       </c>
       <c r="G256">
         <v>31.22372191764283</v>
@@ -6303,7 +6303,7 @@
         <v>7814001933.079844</v>
       </c>
       <c r="F257">
-        <v>-2.440438575542328E-09</v>
+        <v>-2689953.093224318</v>
       </c>
       <c r="G257">
         <v>213.3220075740043</v>
@@ -6326,7 +6326,7 @@
         <v>1102718506.925474</v>
       </c>
       <c r="F258">
-        <v>1.900189661171244E-08</v>
+        <v>20957944.45015552</v>
       </c>
       <c r="G258">
         <v>234.0968782828236</v>
@@ -6349,7 +6349,7 @@
         <v>8893189822.746149</v>
       </c>
       <c r="F259">
-        <v>9.162200594030628E-10</v>
+        <v>1011347.244605607</v>
       </c>
       <c r="G259">
         <v>187.2398782436362</v>
@@ -6372,7 +6372,7 @@
         <v>2298181086.071551</v>
       </c>
       <c r="F260">
-        <v>-7.019935387354953E-08</v>
+        <v>-77860202.31651072</v>
       </c>
       <c r="G260">
         <v>228.574673124128</v>
@@ -6395,7 +6395,7 @@
         <v>12819149730.12114</v>
       </c>
       <c r="F261">
-        <v>5.871933671785924E-09</v>
+        <v>6538778.685229259</v>
       </c>
       <c r="G261">
         <v>280.243787914125</v>
@@ -6418,7 +6418,7 @@
         <v>11590855192.04243</v>
       </c>
       <c r="F262">
-        <v>1.873653228206923E-10</v>
+        <v>209442.1061749894</v>
       </c>
       <c r="G262">
         <v>243.6829921484749</v>
@@ -6441,7 +6441,7 @@
         <v>7090627578.127073</v>
       </c>
       <c r="F263">
-        <v>-7.240102675298701E-10</v>
+        <v>-809432.1742566603</v>
       </c>
       <c r="G263">
         <v>171.0905238982596</v>
@@ -6464,7 +6464,7 @@
         <v>8406628971.141353</v>
       </c>
       <c r="F264">
-        <v>-3.58618148663246E-09</v>
+        <v>-4020000.278322522</v>
       </c>
       <c r="G264">
         <v>222.7876059399582</v>
@@ -6487,7 +6487,7 @@
         <v>2636949287.509439</v>
       </c>
       <c r="F265">
-        <v>-3.094768474586072E-08</v>
+        <v>-34856387.18156535</v>
       </c>
       <c r="G265">
         <v>196.6486787283332</v>
@@ -6510,7 +6510,7 @@
         <v>9601909371.648676</v>
       </c>
       <c r="F266">
-        <v>9.829219281633338E-10</v>
+        <v>1108894.318185029</v>
       </c>
       <c r="G266">
         <v>186.2218727446886</v>
@@ -6533,7 +6533,7 @@
         <v>11948453923.30882</v>
       </c>
       <c r="F267">
-        <v>6.389195492631502E-09</v>
+        <v>7272012.683518213</v>
       </c>
       <c r="G267">
         <v>320.0079319939016</v>
@@ -6556,7 +6556,7 @@
         <v>2817778131.22779</v>
       </c>
       <c r="F268">
-        <v>-1.528708701172117E-08</v>
+        <v>-17412012.16782926</v>
       </c>
       <c r="G268">
         <v>149.6538387839017</v>
@@ -6579,7 +6579,7 @@
         <v>1026382277.912191</v>
       </c>
       <c r="F269">
-        <v>-3.967997535612499E-08</v>
+        <v>-45201568.92786155</v>
       </c>
       <c r="G269">
         <v>247.6947321306367</v>
@@ -6602,7 +6602,7 @@
         <v>3677924007.161784</v>
       </c>
       <c r="F270">
-        <v>-8.445348775690476E-09</v>
+        <v>-9646665.104001032</v>
       </c>
       <c r="G270">
         <v>201.1155719441867</v>
@@ -6625,7 +6625,7 @@
         <v>6853346499.488369</v>
       </c>
       <c r="F271">
-        <v>-3.446635834205926E-09</v>
+        <v>-3944747.521619114</v>
       </c>
       <c r="G271">
         <v>149.4730732894459</v>
@@ -6648,7 +6648,7 @@
         <v>3144713581.889411</v>
       </c>
       <c r="F272">
-        <v>-8.676391729437998E-09</v>
+        <v>-9945805.053879214</v>
       </c>
       <c r="G272">
         <v>20.60893387877744</v>
@@ -6671,7 +6671,7 @@
         <v>4058394964.219866</v>
       </c>
       <c r="F273">
-        <v>-4.041819470447127E-09</v>
+        <v>-4667681.502057527</v>
       </c>
       <c r="G273">
         <v>210.8500893461524</v>
@@ -6694,7 +6694,7 @@
         <v>4444496096.342883</v>
       </c>
       <c r="F274">
-        <v>-7.317468086839963E-09</v>
+        <v>-8492518.165005345</v>
       </c>
       <c r="G274">
         <v>118.135329844852</v>
@@ -6717,7 +6717,7 @@
         <v>3075739332.563677</v>
       </c>
       <c r="F275">
-        <v>-2.251522566339028E-08</v>
+        <v>-26177414.23509444</v>
       </c>
       <c r="G275">
         <v>251.5675018282688</v>
@@ -6740,7 +6740,7 @@
         <v>5501225333.187243</v>
       </c>
       <c r="F276">
-        <v>-2.349405031720221E-09</v>
+        <v>-2732798.167033207</v>
       </c>
       <c r="G276">
         <v>200.2042000006331</v>
@@ -6763,7 +6763,7 @@
         <v>989760204.1558378</v>
       </c>
       <c r="F277">
-        <v>-1.648726411934985E-07</v>
+        <v>-192639497.3788427</v>
       </c>
       <c r="G277">
         <v>225.6184030490063</v>
@@ -6786,7 +6786,7 @@
         <v>1631355032.420958</v>
       </c>
       <c r="F278">
-        <v>-2.972548070195372E-08</v>
+        <v>-34740371.84954984</v>
       </c>
       <c r="G278">
         <v>128.1842017920085</v>
@@ -6809,7 +6809,7 @@
         <v>2727072752.833871</v>
       </c>
       <c r="F279">
-        <v>-1.529660389886269E-08</v>
+        <v>-17931099.33037942</v>
       </c>
       <c r="G279">
         <v>133.2113624649405</v>
@@ -6832,7 +6832,7 @@
         <v>1110320495.057286</v>
       </c>
       <c r="F280">
-        <v>-5.698373451735383E-09</v>
+        <v>-6686754.498891828</v>
       </c>
       <c r="G280">
         <v>291.9643757297873</v>
@@ -6855,7 +6855,7 @@
         <v>10442866379.15743</v>
       </c>
       <c r="F281">
-        <v>1.759816543043218E-09</v>
+        <v>2066486.197056184</v>
       </c>
       <c r="G281">
         <v>250.9434522490381</v>
@@ -6878,7 +6878,7 @@
         <v>2910596616.173574</v>
       </c>
       <c r="F282">
-        <v>4.026155741181649E-09</v>
+        <v>4730770.867157295</v>
       </c>
       <c r="G282">
         <v>302.1084108215355</v>
@@ -6901,7 +6901,7 @@
         <v>6557051766.791418</v>
       </c>
       <c r="F283">
-        <v>-3.558900601289822E-09</v>
+        <v>-4187252.08519888</v>
       </c>
       <c r="G283">
         <v>250.8209647597078</v>
@@ -6924,7 +6924,7 @@
         <v>9624811293.258402</v>
       </c>
       <c r="F284">
-        <v>-3.375727600129351E-10</v>
+        <v>-397448.2986713732</v>
       </c>
       <c r="G284">
         <v>240.5418226831307</v>
@@ -6947,7 +6947,7 @@
         <v>1055859612.059226</v>
       </c>
       <c r="F285">
-        <v>1.851717896219073E-08</v>
+        <v>21834029.56178562</v>
       </c>
       <c r="G285">
         <v>250.6844402908375</v>
@@ -6970,7 +6970,7 @@
         <v>3899666774.767416</v>
       </c>
       <c r="F286">
-        <v>-1.362500788477788E-08</v>
+        <v>-16071181.90222057</v>
       </c>
       <c r="G286">
         <v>250.6625090288727</v>
@@ -6993,7 +6993,7 @@
         <v>2796647006.734191</v>
       </c>
       <c r="F287">
-        <v>-2.63206889649793E-09</v>
+        <v>-3109556.329087359</v>
       </c>
       <c r="G287">
         <v>61.36231613344666</v>
@@ -7016,7 +7016,7 @@
         <v>10996657712.37162</v>
       </c>
       <c r="F288">
-        <v>1.191583601649371E-08</v>
+        <v>14089576.36405749</v>
       </c>
       <c r="G288">
         <v>531.6936311114202</v>
@@ -7039,7 +7039,7 @@
         <v>5058471582.44154</v>
       </c>
       <c r="F289">
-        <v>-5.72118251658258E-10</v>
+        <v>-681508.082006223</v>
       </c>
       <c r="G289">
         <v>142.883684043463</v>
@@ -7062,7 +7062,7 @@
         <v>4334182649.244018</v>
       </c>
       <c r="F290">
-        <v>9.806466121593921E-10</v>
+        <v>1174579.329471263</v>
       </c>
       <c r="G290">
         <v>168.1676406513978</v>
@@ -7085,7 +7085,7 @@
         <v>4940771358.595871</v>
       </c>
       <c r="F291">
-        <v>-1.471500167212396E-08</v>
+        <v>-17880455.45545046</v>
       </c>
       <c r="G291">
         <v>126.9422904632902</v>
@@ -7108,7 +7108,7 @@
         <v>12381135127.01262</v>
       </c>
       <c r="F292">
-        <v>5.378889688343535E-09</v>
+        <v>6550174.385248312</v>
       </c>
       <c r="G292">
         <v>279.1217893847889</v>
@@ -7131,7 +7131,7 @@
         <v>4191046733.494698</v>
       </c>
       <c r="F293">
-        <v>-2.118086390337657E-09</v>
+        <v>-2581349.139524592</v>
       </c>
       <c r="G293">
         <v>5.07393544957745</v>
@@ -7154,7 +7154,7 @@
         <v>13955890224.08709</v>
       </c>
       <c r="F294">
-        <v>9.450434550138624E-10</v>
+        <v>1159099.325523965</v>
       </c>
       <c r="G294">
         <v>395.1378745460425</v>
@@ -7177,7 +7177,7 @@
         <v>10766575342.90373</v>
       </c>
       <c r="F295">
-        <v>1.64502925426962E-09</v>
+        <v>2033420.228375565</v>
       </c>
       <c r="G295">
         <v>217.4082874196293</v>
@@ -7200,7 +7200,7 @@
         <v>10489331473.43997</v>
       </c>
       <c r="F296">
-        <v>2.001888369645509E-09</v>
+        <v>2477687.205762073</v>
       </c>
       <c r="G296">
         <v>197.1214749586593</v>
@@ -7223,7 +7223,7 @@
         <v>10669998090.33092</v>
       </c>
       <c r="F297">
-        <v>1.338624531136786E-08</v>
+        <v>16573513.59625077</v>
       </c>
       <c r="G297">
         <v>535.7206558771211</v>
@@ -7246,7 +7246,7 @@
         <v>11437481615.95392</v>
       </c>
       <c r="F298">
-        <v>7.810030214185279E-09</v>
+        <v>9698805.968017658</v>
       </c>
       <c r="G298">
         <v>419.1630707102194</v>
@@ -7269,7 +7269,7 @@
         <v>11925408810.53115</v>
       </c>
       <c r="F299">
-        <v>3.487443266447441E-09</v>
+        <v>4383808.066051207</v>
       </c>
       <c r="G299">
         <v>317.1944770638686</v>
@@ -7292,7 +7292,7 @@
         <v>1339451500.753004</v>
       </c>
       <c r="F300">
-        <v>-2.269857845072641E-08</v>
+        <v>-28734940.94975821</v>
       </c>
       <c r="G300">
         <v>301.5570441444258</v>
@@ -7315,7 +7315,7 @@
         <v>1351231417.432497</v>
       </c>
       <c r="F301">
-        <v>-2.294679862844537E-08</v>
+        <v>-29172534.43585939</v>
       </c>
       <c r="G301">
         <v>165.6806800781056</v>
@@ -7338,7 +7338,7 @@
         <v>510351796.5584667</v>
       </c>
       <c r="F302">
-        <v>-7.814543113365595E-08</v>
+        <v>-99787320.79657586</v>
       </c>
       <c r="G302">
         <v>285.8597634298384</v>
@@ -7361,7 +7361,7 @@
         <v>12534023019.66874</v>
       </c>
       <c r="F303">
-        <v>6.920774014998021E-09</v>
+        <v>8882016.931023909</v>
       </c>
       <c r="G303">
         <v>360.6321903990441</v>
@@ -7384,7 +7384,7 @@
         <v>10951515210.86382</v>
       </c>
       <c r="F304">
-        <v>1.124850680068154E-08</v>
+        <v>14447133.5133646</v>
       </c>
       <c r="G304">
         <v>475.7439724646751</v>
@@ -7407,7 +7407,7 @@
         <v>10500226477.82729</v>
       </c>
       <c r="F305">
-        <v>9.77593762262544E-09</v>
+        <v>12709223.6496095</v>
       </c>
       <c r="G305">
         <v>449.3385848136188</v>
@@ -7430,7 +7430,7 @@
         <v>7979249424.670936</v>
       </c>
       <c r="F306">
-        <v>-3.336638582332797E-09</v>
+        <v>-4345107.934872659</v>
       </c>
       <c r="G306">
         <v>294.4423604351983</v>
@@ -7453,7 +7453,7 @@
         <v>12415363555.23792</v>
       </c>
       <c r="F307">
-        <v>5.587638176552098E-09</v>
+        <v>7288189.337732968</v>
       </c>
       <c r="G307">
         <v>369.1519057380905</v>
@@ -7476,7 +7476,7 @@
         <v>10177483256.48672</v>
       </c>
       <c r="F308">
-        <v>1.073922328654864E-08</v>
+        <v>14013199.2687417</v>
       </c>
       <c r="G308">
         <v>473.8641878588085</v>
@@ -7499,7 +7499,7 @@
         <v>1823829065.699931</v>
       </c>
       <c r="F309">
-        <v>2.105479052480526E-08</v>
+        <v>27596048.03371594</v>
       </c>
       <c r="G309">
         <v>318.879901335732</v>
@@ -7522,7 +7522,7 @@
         <v>2615749583.655995</v>
       </c>
       <c r="F310">
-        <v>-1.828575317222096E-08</v>
+        <v>-24015373.93021127</v>
       </c>
       <c r="G310">
         <v>49.79969125091323</v>
@@ -7545,7 +7545,7 @@
         <v>1676683416.738425</v>
       </c>
       <c r="F311">
-        <v>-2.095202152547623E-09</v>
+        <v>-2753664.521215137</v>
       </c>
       <c r="G311">
         <v>189.2053006797367</v>
@@ -7568,7 +7568,7 @@
         <v>8042412587.169543</v>
       </c>
       <c r="F312">
-        <v>2.314786404239296E-08</v>
+        <v>30517707.14593407</v>
       </c>
       <c r="G312">
         <v>587.0746341558789</v>
@@ -7591,7 +7591,7 @@
         <v>13445119218.55251</v>
       </c>
       <c r="F313">
-        <v>6.336359136448513E-09</v>
+        <v>8370326.540323065</v>
       </c>
       <c r="G313">
         <v>372.9553595075291</v>
@@ -7614,7 +7614,7 @@
         <v>2689074173.20319</v>
       </c>
       <c r="F314">
-        <v>-1.597236678105826E-08</v>
+        <v>-21197381.49815887</v>
       </c>
       <c r="G314">
         <v>89.40567822075303</v>
@@ -7637,7 +7637,7 @@
         <v>2746962579.036287</v>
       </c>
       <c r="F315">
-        <v>-6.448607988798102E-09</v>
+        <v>-8672385.212878132</v>
       </c>
       <c r="G315">
         <v>123.7635463544082</v>
@@ -7660,7 +7660,7 @@
         <v>11905487746.36022</v>
       </c>
       <c r="F316">
-        <v>9.245796859833111E-09</v>
+        <v>12450086.89931176</v>
       </c>
       <c r="G316">
         <v>395.917095359063</v>
@@ -7683,7 +7683,7 @@
         <v>7627159891.589754</v>
       </c>
       <c r="F317">
-        <v>-3.228115379315932E-09</v>
+        <v>-4366548.069340677</v>
       </c>
       <c r="G317">
         <v>247.1688666531107</v>
@@ -7706,7 +7706,7 @@
         <v>11363615989.23699</v>
       </c>
       <c r="F318">
-        <v>9.372119341646896E-09</v>
+        <v>12808675.20513519</v>
       </c>
       <c r="G318">
         <v>414.1751023327312</v>
@@ -7729,7 +7729,7 @@
         <v>11316270148.15133</v>
       </c>
       <c r="F319">
-        <v>2.539662922551509E-09</v>
+        <v>3472077.322784561</v>
       </c>
       <c r="G319">
         <v>212.000135340784</v>
@@ -7752,7 +7752,7 @@
         <v>12421367242.34694</v>
       </c>
       <c r="F320">
-        <v>-1.859814911122844E-10</v>
+        <v>-254882.8827256591</v>
       </c>
       <c r="G320">
         <v>251.2890166721456</v>
@@ -7775,7 +7775,7 @@
         <v>8558354679.616647</v>
       </c>
       <c r="F321">
-        <v>-1.183453505780138E-09</v>
+        <v>-1633582.998557557</v>
       </c>
       <c r="G321">
         <v>127.8782649479058</v>
@@ -7798,7 +7798,7 @@
         <v>5460009466.793177</v>
       </c>
       <c r="F322">
-        <v>-2.563885386433426E-09</v>
+        <v>-3540763.158393706</v>
       </c>
       <c r="G322">
         <v>196.7122525614102</v>
@@ -7821,7 +7821,7 @@
         <v>9667578175.065166</v>
       </c>
       <c r="F323">
-        <v>3.602835956249289E-10</v>
+        <v>498305.7785261101</v>
       </c>
       <c r="G323">
         <v>206.4702262821356</v>
@@ -7844,7 +7844,7 @@
         <v>4557888930.522683</v>
       </c>
       <c r="F324">
-        <v>-1.197765417608711E-08</v>
+        <v>-16583372.46383609</v>
       </c>
       <c r="G324">
         <v>147.4405356400202</v>
@@ -7867,7 +7867,7 @@
         <v>2401448478.774716</v>
       </c>
       <c r="F325">
-        <v>-1.617256055395126E-08</v>
+        <v>-22421123.90685183</v>
       </c>
       <c r="G325">
         <v>186.6959607134303</v>
@@ -7890,7 +7890,7 @@
         <v>3512015559.437302</v>
       </c>
       <c r="F326">
-        <v>-1.557313242466106E-08</v>
+        <v>-21658919.88904367</v>
       </c>
       <c r="G326">
         <v>-9.818281462614754</v>
@@ -7913,7 +7913,7 @@
         <v>2049494032.412061</v>
       </c>
       <c r="F327">
-        <v>-2.72140557593385E-08</v>
+        <v>-38225340.4178875</v>
       </c>
       <c r="G327">
         <v>142.01341913711</v>
@@ -7936,7 +7936,7 @@
         <v>12689612245.63659</v>
       </c>
       <c r="F328">
-        <v>2.507974451815368E-09</v>
+        <v>3540413.588581478</v>
       </c>
       <c r="G328">
         <v>273.8901437581127</v>
@@ -7959,7 +7959,7 @@
         <v>2799485789.374488</v>
       </c>
       <c r="F329">
-        <v>6.125513201948151E-08</v>
+        <v>86964651.28316088</v>
       </c>
       <c r="G329">
         <v>678.8696866891216</v>
@@ -7982,7 +7982,7 @@
         <v>14012350167.0482</v>
       </c>
       <c r="F330">
-        <v>5.439512138650554E-09</v>
+        <v>7724419.872112893</v>
       </c>
       <c r="G330">
         <v>380.9249129044233</v>
@@ -8005,7 +8005,7 @@
         <v>3345069457.0417</v>
       </c>
       <c r="F331">
-        <v>5.475128184973606E-08</v>
+        <v>77785583.60000248</v>
       </c>
       <c r="G331">
         <v>659.2182479698313</v>
@@ -8028,7 +8028,7 @@
         <v>15033746421.19675</v>
       </c>
       <c r="F332">
-        <v>1.520291234134798E-09</v>
+        <v>2179549.673213859</v>
       </c>
       <c r="G332">
         <v>311.810785737741</v>
@@ -8051,7 +8051,7 @@
         <v>13201911266.28087</v>
       </c>
       <c r="F333">
-        <v>5.304157037349872E-09</v>
+        <v>7634507.67255867</v>
       </c>
       <c r="G333">
         <v>321.2357993535135</v>
@@ -8074,7 +8074,7 @@
         <v>12317003272.46349</v>
       </c>
       <c r="F334">
-        <v>2.307247897713887E-09</v>
+        <v>3337415.493938887</v>
       </c>
       <c r="G334">
         <v>262.5039473108753</v>
@@ -8097,7 +8097,7 @@
         <v>13830118339.5256</v>
       </c>
       <c r="F335">
-        <v>5.796704671780681E-09</v>
+        <v>8428371.137269182</v>
       </c>
       <c r="G335">
         <v>398.1021406184202</v>
@@ -8120,7 +8120,7 @@
         <v>14227905075.67407</v>
       </c>
       <c r="F336">
-        <v>2.18767228821293E-09</v>
+        <v>3195038.095257245</v>
       </c>
       <c r="G336">
         <v>320.0675594512902</v>
@@ -8143,7 +8143,7 @@
         <v>11022363957.31765</v>
       </c>
       <c r="F337">
-        <v>1.512923270714175E-09</v>
+        <v>2220739.152609609</v>
       </c>
       <c r="G337">
         <v>261.5439509517371</v>
@@ -8166,7 +8166,7 @@
         <v>11888421197.71374</v>
       </c>
       <c r="F338">
-        <v>5.151784124269775E-09</v>
+        <v>7622464.384466942</v>
       </c>
       <c r="G338">
         <v>468.8767299859279</v>
@@ -8189,7 +8189,7 @@
         <v>10517890543.49904</v>
       </c>
       <c r="F339">
-        <v>1.270103783507233E-08</v>
+        <v>18951699.24991865</v>
       </c>
       <c r="G339">
         <v>463.0633083425498</v>
@@ -8212,7 +8212,7 @@
         <v>11299741730.86432</v>
       </c>
       <c r="F340">
-        <v>1.533783455016768E-09</v>
+        <v>2291136.379248552</v>
       </c>
       <c r="G340">
         <v>279.6902830954069</v>
@@ -8235,7 +8235,7 @@
         <v>9112147055.012003</v>
       </c>
       <c r="F341">
-        <v>1.728919618466783E-08</v>
+        <v>25895176.46467625</v>
       </c>
       <c r="G341">
         <v>486.7228816925806</v>
@@ -8258,7 +8258,7 @@
         <v>11246854609.25177</v>
       </c>
       <c r="F342">
-        <v>7.787549673631883E-09</v>
+        <v>11764468.7818448</v>
       </c>
       <c r="G342">
         <v>427.975055229197</v>
@@ -8281,7 +8281,7 @@
         <v>14846790996.89622</v>
       </c>
       <c r="F343">
-        <v>1.624574684505055E-09</v>
+        <v>2466836.580840665</v>
       </c>
       <c r="G343">
         <v>336.1778190223142</v>
@@ -8304,7 +8304,7 @@
         <v>6781847388.380048</v>
       </c>
       <c r="F344">
-        <v>2.392449770826364E-08</v>
+        <v>36460525.76559008</v>
       </c>
       <c r="G344">
         <v>523.001499348122</v>
@@ -8327,7 +8327,7 @@
         <v>3480849164.915765</v>
       </c>
       <c r="F345">
-        <v>5.442292635593253E-08</v>
+        <v>83271495.83645821</v>
       </c>
       <c r="G345">
         <v>656.694838006605</v>
@@ -8350,7 +8350,7 @@
         <v>10023096943.77432</v>
       </c>
       <c r="F346">
-        <v>1.395929815242347E-08</v>
+        <v>21531194.70478527</v>
       </c>
       <c r="G346">
         <v>459.2418576381539</v>
@@ -8373,7 +8373,7 @@
         <v>14953298542.03981</v>
       </c>
       <c r="F347">
-        <v>4.446772998698248E-09</v>
+        <v>6926871.793785607</v>
       </c>
       <c r="G347">
         <v>381.758042844241</v>
@@ -8396,7 +8396,7 @@
         <v>12632071631.39491</v>
       </c>
       <c r="F348">
-        <v>7.47342100270588E-09</v>
+        <v>11769442.80861209</v>
       </c>
       <c r="G348">
         <v>437.8244903536454</v>
@@ -8419,7 +8419,7 @@
         <v>6884493956.112151</v>
       </c>
       <c r="F349">
-        <v>2.235748903016525E-08</v>
+        <v>35292504.53356972</v>
       </c>
       <c r="G349">
         <v>518.4216006885525</v>
@@ -8442,7 +8442,7 @@
         <v>11023058042.25396</v>
       </c>
       <c r="F350">
-        <v>9.346571438043747E-09</v>
+        <v>14763348.81025014</v>
       </c>
       <c r="G350">
         <v>442.2533734426983</v>
@@ -8465,7 +8465,7 @@
         <v>9562939862.65</v>
       </c>
       <c r="F351">
-        <v>-4.752169144878958E-10</v>
+        <v>-754925.4863659821</v>
       </c>
       <c r="G351">
         <v>246.928577745953</v>
@@ -8488,7 +8488,7 @@
         <v>11380291370.07478</v>
       </c>
       <c r="F352">
-        <v>1.696715292343711E-09</v>
+        <v>2702758.691107813</v>
       </c>
       <c r="G352">
         <v>232.5238714657339</v>
@@ -8511,7 +8511,7 @@
         <v>8088641038.087713</v>
       </c>
       <c r="F353">
-        <v>1.696261107436622E-08</v>
+        <v>27381835.327106</v>
       </c>
       <c r="G353">
         <v>501.3428574279085</v>
@@ -8534,7 +8534,7 @@
         <v>10430600514.49866</v>
       </c>
       <c r="F354">
-        <v>2.000330242456084E-09</v>
+        <v>3233199.247247541</v>
       </c>
       <c r="G354">
         <v>184.3965898477051</v>
@@ -8557,7 +8557,7 @@
         <v>12973216277.58961</v>
       </c>
       <c r="F355">
-        <v>2.418684287394136E-09</v>
+        <v>3922429.49292617</v>
       </c>
       <c r="G355">
         <v>373.2109214823816</v>
@@ -8580,7 +8580,7 @@
         <v>7395561542.717018</v>
       </c>
       <c r="F356">
-        <v>-2.600995729376918E-10</v>
+        <v>-427209.6195042419</v>
       </c>
       <c r="G356">
         <v>113.0203798200507</v>
@@ -8603,7 +8603,7 @@
         <v>3704710244.979796</v>
       </c>
       <c r="F357">
-        <v>1.466935964949352E-09</v>
+        <v>2409918.728945904</v>
       </c>
       <c r="G357">
         <v>103.5966528170118</v>
@@ -8626,7 +8626,7 @@
         <v>12506265000.31371</v>
       </c>
       <c r="F358">
-        <v>3.660157498491286E-09</v>
+        <v>6073885.954013045</v>
       </c>
       <c r="G358">
         <v>277.1286340804427</v>
@@ -8649,7 +8649,7 @@
         <v>3205790552.841436</v>
       </c>
       <c r="F359">
-        <v>-1.003005598752063E-08</v>
+        <v>-16696418.08448537</v>
       </c>
       <c r="G359">
         <v>122.0293335120035</v>
@@ -8672,7 +8672,7 @@
         <v>6630910522.559899</v>
       </c>
       <c r="F360">
-        <v>-2.87652772570233E-09</v>
+        <v>-4808875.471577702</v>
       </c>
       <c r="G360">
         <v>229.7329948318014</v>
@@ -8695,7 +8695,7 @@
         <v>2954065593.074745</v>
       </c>
       <c r="F361">
-        <v>2.962923000792292E-08</v>
+        <v>49566298.6596772</v>
       </c>
       <c r="G361">
         <v>651.5832568196157</v>
@@ -8718,7 +8718,7 @@
         <v>4536393233.336523</v>
       </c>
       <c r="F362">
-        <v>3.002028501497324E-08</v>
+        <v>50421833.47258341</v>
       </c>
       <c r="G362">
         <v>594.7361399262213</v>
@@ -8741,7 +8741,7 @@
         <v>9307800823.4429</v>
       </c>
       <c r="F363">
-        <v>1.209828138760048E-08</v>
+        <v>20422152.50991127</v>
       </c>
       <c r="G363">
         <v>472.3873972143959</v>
@@ -8764,7 +8764,7 @@
         <v>6053397654.657803</v>
       </c>
       <c r="F364">
-        <v>2.483105419229682E-08</v>
+        <v>42010462.2615065</v>
       </c>
       <c r="G364">
         <v>542.2366920214278</v>
@@ -8787,7 +8787,7 @@
         <v>3166040119.89288</v>
       </c>
       <c r="F365">
-        <v>-1.179940418282944E-08</v>
+        <v>-20062529.20130051</v>
       </c>
       <c r="G365">
         <v>233.4315987165931</v>
@@ -8810,7 +8810,7 @@
         <v>10974887381.89085</v>
       </c>
       <c r="F366">
-        <v>7.396992377062019E-09</v>
+        <v>12579516.83244504</v>
       </c>
       <c r="G366">
         <v>382.8096812041815</v>
@@ -8833,7 +8833,7 @@
         <v>5708228788.672423</v>
       </c>
       <c r="F367">
-        <v>3.814784739232251E-08</v>
+        <v>64932027.94484177</v>
       </c>
       <c r="G367">
         <v>560.0870455224909</v>
@@ -8856,7 +8856,7 @@
         <v>4891833407.858776</v>
       </c>
       <c r="F368">
-        <v>5.265191044558404E-08</v>
+        <v>90150894.77902985</v>
       </c>
       <c r="G368">
         <v>568.5810489098885</v>
@@ -8879,7 +8879,7 @@
         <v>3163299084.607537</v>
       </c>
       <c r="F369">
-        <v>-7.712528859297853E-09</v>
+        <v>-13251098.36659904</v>
       </c>
       <c r="G369">
         <v>162.9765853665559</v>
@@ -8902,7 +8902,7 @@
         <v>13869775358.03662</v>
       </c>
       <c r="F370">
-        <v>3.205860477103974E-09</v>
+        <v>5665370.027981409</v>
       </c>
       <c r="G370">
         <v>406.895651647155</v>
@@ -8925,7 +8925,7 @@
         <v>2508076262.359835</v>
       </c>
       <c r="F371">
-        <v>-8.010172146467032E-09</v>
+        <v>-14270431.72750136</v>
       </c>
       <c r="G371">
         <v>678.3287192218567</v>
@@ -8948,7 +8948,7 @@
         <v>11899147860.60353</v>
       </c>
       <c r="F372">
-        <v>5.060204296124843E-09</v>
+        <v>9023166.110623879</v>
       </c>
       <c r="G372">
         <v>369.0740403721263</v>
@@ -8971,7 +8971,7 @@
         <v>14846282057.65637</v>
       </c>
       <c r="F373">
-        <v>5.522443965810203E-10</v>
+        <v>986240.9067970578</v>
       </c>
       <c r="G373">
         <v>318.2052429697663</v>
@@ -8994,7 +8994,7 @@
         <v>1343684328.225561</v>
       </c>
       <c r="F374">
-        <v>-9.906386087180133E-09</v>
+        <v>-17808104.12537283</v>
       </c>
       <c r="G374">
         <v>142.7272816474987</v>
@@ -9017,7 +9017,7 @@
         <v>13888958087.78277</v>
       </c>
       <c r="F375">
-        <v>2.269818226199565E-09</v>
+        <v>4102308.351346817</v>
       </c>
       <c r="G375">
         <v>354.0402472986774</v>
@@ -9040,7 +9040,7 @@
         <v>2098704886.396751</v>
       </c>
       <c r="F376">
-        <v>-1.727073829523669E-08</v>
+        <v>-31856808.35245714</v>
       </c>
       <c r="G376">
         <v>233.3019545104987</v>
@@ -9063,7 +9063,7 @@
         <v>3469584948.927464</v>
       </c>
       <c r="F377">
-        <v>-1.08261441699086E-08</v>
+        <v>-20031807.26950025</v>
       </c>
       <c r="G377">
         <v>333.6817578340248</v>
@@ -9086,7 +9086,7 @@
         <v>10741197770.21745</v>
       </c>
       <c r="F378">
-        <v>5.518982772543618E-09</v>
+        <v>10289526.79977641</v>
       </c>
       <c r="G378">
         <v>437.9842358258773</v>
@@ -9109,7 +9109,7 @@
         <v>6781429250.844815</v>
       </c>
       <c r="F379">
-        <v>-1.969895652864618E-10</v>
+        <v>-369953.7463990645</v>
       </c>
       <c r="G379">
         <v>241.3630972534624</v>
@@ -9132,7 +9132,7 @@
         <v>3204548479.936498</v>
       </c>
       <c r="F380">
-        <v>-1.968206566398458E-09</v>
+        <v>-3719109.553093203</v>
       </c>
       <c r="G380">
         <v>145.5053018729194</v>
@@ -9155,7 +9155,7 @@
         <v>5581282764.728048</v>
       </c>
       <c r="F381">
-        <v>3.278713608479227E-08</v>
+        <v>62014925.11118027</v>
       </c>
       <c r="G381">
         <v>586.4258116898707</v>
@@ -9178,7 +9178,7 @@
         <v>9102090185.950563</v>
       </c>
       <c r="F382">
-        <v>7.669394567426758E-09</v>
+        <v>14514621.34765114</v>
       </c>
       <c r="G382">
         <v>559.0690713101734</v>
@@ -9201,7 +9201,7 @@
         <v>6399037030.390108</v>
       </c>
       <c r="F383">
-        <v>-1.854479831690361E-09</v>
+        <v>-3539894.703825359</v>
       </c>
       <c r="G383">
         <v>267.5968796027918</v>
@@ -9224,7 +9224,7 @@
         <v>12563549280.80945</v>
       </c>
       <c r="F384">
-        <v>2.488846649044668E-09</v>
+        <v>4753925.450748739</v>
       </c>
       <c r="G384">
         <v>435.34043757306</v>
@@ -9247,7 +9247,7 @@
         <v>6283692500.929295</v>
       </c>
       <c r="F385">
-        <v>-1.10444005132528E-09</v>
+        <v>-2129965.376865087</v>
       </c>
       <c r="G385">
         <v>239.7669510445183</v>
@@ -9270,7 +9270,7 @@
         <v>7415337182.884626</v>
       </c>
       <c r="F386">
-        <v>-4.893820903750435E-10</v>
+        <v>-945234.3396702323</v>
       </c>
       <c r="G386">
         <v>180.8873104808309</v>
@@ -9293,7 +9293,7 @@
         <v>6682589851.132745</v>
       </c>
       <c r="F387">
-        <v>-7.225807747581395E-10</v>
+        <v>-1400603.725012753</v>
       </c>
       <c r="G387">
         <v>203.3182170645693</v>
@@ -9316,7 +9316,7 @@
         <v>11520420245.40657</v>
       </c>
       <c r="F388">
-        <v>4.650550576962287E-09</v>
+        <v>9016174.033531202</v>
       </c>
       <c r="G388">
         <v>334.328522039182</v>
@@ -9339,7 +9339,7 @@
         <v>7098847314.927449</v>
       </c>
       <c r="F389">
-        <v>-3.273149912849572E-09</v>
+        <v>-6347115.569358299</v>
       </c>
       <c r="G389">
         <v>158.1198337144403</v>
@@ -9362,7 +9362,7 @@
         <v>3341946036.579381</v>
       </c>
       <c r="F390">
-        <v>-5.756412959145778E-09</v>
+        <v>-11249100.11776005</v>
       </c>
       <c r="G390">
         <v>225.449654349734</v>
@@ -9385,7 +9385,7 @@
         <v>3003120981.404699</v>
       </c>
       <c r="F391">
-        <v>-2.854803900103452E-09</v>
+        <v>-5602085.67968562</v>
       </c>
       <c r="G391">
         <v>189.1807318217273</v>
@@ -9408,7 +9408,7 @@
         <v>2075463188.252383</v>
       </c>
       <c r="F392">
-        <v>-1.104231627224419E-09</v>
+        <v>-2184599.835463396</v>
       </c>
       <c r="G392">
         <v>188.7958040917876</v>
@@ -9431,7 +9431,7 @@
         <v>1189833101.197466</v>
       </c>
       <c r="F393">
-        <v>1.134994601432375E-08</v>
+        <v>22726227.2518142</v>
       </c>
       <c r="G393">
         <v>143.4126634726172</v>
@@ -9454,7 +9454,7 @@
         <v>921055694.790382</v>
       </c>
       <c r="F394">
-        <v>-2.721213059369523E-08</v>
+        <v>-54643399.9457631</v>
       </c>
       <c r="G394">
         <v>201.5300055623515</v>
@@ -9477,7 +9477,7 @@
         <v>2269971915.899831</v>
       </c>
       <c r="F395">
-        <v>-1.375158540688453E-08</v>
+        <v>-27727450.96783087</v>
       </c>
       <c r="G395">
         <v>161.0586828614334</v>
@@ -9500,7 +9500,7 @@
         <v>11617561877.23574</v>
       </c>
       <c r="F396">
-        <v>5.943669222096401E-11</v>
+        <v>120159.9502042219</v>
       </c>
       <c r="G396">
         <v>281.6666207710454</v>
@@ -9523,7 +9523,7 @@
         <v>1849652005.153118</v>
       </c>
       <c r="F397">
-        <v>-1.466043343685252E-08</v>
+        <v>-29654335.74323343</v>
       </c>
       <c r="G397">
         <v>210.1036115224865</v>
@@ -9546,7 +9546,7 @@
         <v>10147540515.60598</v>
       </c>
       <c r="F398">
-        <v>9.896223830531669E-10</v>
+        <v>2002497.87381213</v>
       </c>
       <c r="G398">
         <v>236.9033910424936</v>
@@ -9569,7 +9569,7 @@
         <v>1749073654.666918</v>
       </c>
       <c r="F399">
-        <v>-3.136180556454788E-08</v>
+        <v>-63548672.92859666</v>
       </c>
       <c r="G399">
         <v>84.89811937545133</v>
@@ -9592,7 +9592,7 @@
         <v>5925674612.860806</v>
       </c>
       <c r="F400">
-        <v>-8.783980909067014E-10</v>
+        <v>-1782974.531947648</v>
       </c>
       <c r="G400">
         <v>245.6520027616339</v>
@@ -9615,7 +9615,7 @@
         <v>6466847073.592945</v>
       </c>
       <c r="F401">
-        <v>-3.194708944796884E-09</v>
+        <v>-6504217.715117049</v>
       </c>
       <c r="G401">
         <v>178.5212873107702</v>
@@ -9638,7 +9638,7 @@
         <v>4296664902.39156</v>
       </c>
       <c r="F402">
-        <v>-1.349277290566326E-09</v>
+        <v>-2748436.596176813</v>
       </c>
       <c r="G402">
         <v>151.7238001688008</v>
@@ -9661,7 +9661,7 @@
         <v>4843420705.339406</v>
       </c>
       <c r="F403">
-        <v>-2.530228724574798E-09</v>
+        <v>-5182053.485208192</v>
       </c>
       <c r="G403">
         <v>204.9950168773173</v>
@@ -9684,7 +9684,7 @@
         <v>10675475455.60962</v>
       </c>
       <c r="F404">
-        <v>2.438275162731658E-09</v>
+        <v>4997624.731516102</v>
       </c>
       <c r="G404">
         <v>302.9771127943011</v>
@@ -9707,7 +9707,7 @@
         <v>2357809041.239516</v>
       </c>
       <c r="F405">
-        <v>-1.091780256568462E-08</v>
+        <v>-22449607.34670368</v>
       </c>
       <c r="G405">
         <v>146.9151142995059</v>
@@ -9730,7 +9730,7 @@
         <v>7035922992.018658</v>
       </c>
       <c r="F406">
-        <v>-9.078711905999869E-11</v>
+        <v>-186800.6687725699</v>
       </c>
       <c r="G406">
         <v>209.2089770606141</v>
@@ -9753,7 +9753,7 @@
         <v>5893112517.811577</v>
       </c>
       <c r="F407">
-        <v>-1.265835485465846E-09</v>
+        <v>-2612029.405499047</v>
       </c>
       <c r="G407">
         <v>111.2015072872874</v>
@@ -9776,7 +9776,7 @@
         <v>4570776091.417056</v>
       </c>
       <c r="F408">
-        <v>-7.245931042159947E-10</v>
+        <v>-1496550.362886542</v>
       </c>
       <c r="G408">
         <v>226.7994110915046</v>
@@ -9799,7 +9799,7 @@
         <v>2572297064.373842</v>
       </c>
       <c r="F409">
-        <v>-1.285676278676975E-08</v>
+        <v>-26641952.6582154</v>
       </c>
       <c r="G409">
         <v>182.1781209483723</v>
@@ -9822,7 +9822,7 @@
         <v>1472772815.01032</v>
       </c>
       <c r="F410">
-        <v>-2.082623304893682E-08</v>
+        <v>-43203877.10277835</v>
       </c>
       <c r="G410">
         <v>226.5495520036302</v>
@@ -9845,7 +9845,7 @@
         <v>12326018475.64012</v>
       </c>
       <c r="F411">
-        <v>5.698764015489945E-09</v>
+        <v>11844508.54755271</v>
       </c>
       <c r="G411">
         <v>448.4444291037528</v>
@@ -9868,7 +9868,7 @@
         <v>8869183995.713091</v>
       </c>
       <c r="F412">
-        <v>8.307032805794199E-10</v>
+        <v>1729172.915443693</v>
       </c>
       <c r="G412">
         <v>239.6716607563876</v>
@@ -9891,7 +9891,7 @@
         <v>1586076246.070092</v>
       </c>
       <c r="F413">
-        <v>7.561933798252949E-09</v>
+        <v>15747787.06813077</v>
       </c>
       <c r="G413">
         <v>150.887468741358</v>
@@ -9914,7 +9914,7 @@
         <v>3211753353.620571</v>
       </c>
       <c r="F414">
-        <v>1.166354889393495E-10</v>
+        <v>247274.2370536211</v>
       </c>
       <c r="G414">
         <v>212.0680331192632</v>
@@ -9937,7 +9937,7 @@
         <v>6707027149.956857</v>
       </c>
       <c r="F415">
-        <v>-3.486964606283795E-10</v>
+        <v>-740634.2348484639</v>
       </c>
       <c r="G415">
         <v>207.5533754041792</v>
@@ -9960,7 +9960,7 @@
         <v>3807395514.217355</v>
       </c>
       <c r="F416">
-        <v>-2.291565779294639E-09</v>
+        <v>-4885683.158617209</v>
       </c>
       <c r="G416">
         <v>145.5916979046763</v>
@@ -9983,7 +9983,7 @@
         <v>5635938770.166121</v>
       </c>
       <c r="F417">
-        <v>-7.024106229909836E-11</v>
+        <v>-150705.3712828445</v>
       </c>
       <c r="G417">
         <v>149.7667556265442</v>
@@ -10006,7 +10006,7 @@
         <v>4313395597.11251</v>
       </c>
       <c r="F418">
-        <v>-5.903470791739584E-09</v>
+        <v>-12668182.9316761</v>
       </c>
       <c r="G418">
         <v>180.5939073269799</v>
@@ -10029,7 +10029,7 @@
         <v>11022729315.73971</v>
       </c>
       <c r="F419">
-        <v>-5.5533301896959E-10</v>
+        <v>-1193487.487687052</v>
       </c>
       <c r="G419">
         <v>277.3930404527628</v>
@@ -10052,7 +10052,7 @@
         <v>10925497589.57991</v>
       </c>
       <c r="F420">
-        <v>2.377340659055842E-09</v>
+        <v>5119502.304992794</v>
       </c>
       <c r="G420">
         <v>259.6504080836066</v>
@@ -10075,7 +10075,7 @@
         <v>11500540566.43847</v>
       </c>
       <c r="F421">
-        <v>3.33965061029511E-09</v>
+        <v>7269538.578155664</v>
       </c>
       <c r="G421">
         <v>351.1233776749401</v>
@@ -10098,7 +10098,7 @@
         <v>5008989771.091767</v>
       </c>
       <c r="F422">
-        <v>-3.350757560203649E-09</v>
+        <v>-7329714.429775923</v>
       </c>
       <c r="G422">
         <v>149.0437688032002</v>
@@ -10121,7 +10121,7 @@
         <v>9283108393.589682</v>
       </c>
       <c r="F423">
-        <v>-1.090402090916147E-09</v>
+        <v>-2389180.875809909</v>
       </c>
       <c r="G423">
         <v>293.5826203511812</v>
@@ -10144,7 +10144,7 @@
         <v>9081272908.763472</v>
       </c>
       <c r="F424">
-        <v>2.04204530976739E-09</v>
+        <v>4481801.999388166</v>
       </c>
       <c r="G424">
         <v>275.9401075279162</v>
@@ -10167,7 +10167,7 @@
         <v>11555138054.32149</v>
       </c>
       <c r="F425">
-        <v>4.152298657501697E-09</v>
+        <v>9118477.395269874</v>
       </c>
       <c r="G425">
         <v>306.5566569396331</v>
@@ -10190,7 +10190,7 @@
         <v>11697158721.71951</v>
       </c>
       <c r="F426">
-        <v>5.006469257441848E-09</v>
+        <v>11068378.07657321</v>
       </c>
       <c r="G426">
         <v>384.7386568464726</v>
@@ -10213,7 +10213,7 @@
         <v>6445370256.299841</v>
       </c>
       <c r="F427">
-        <v>1.557933126636762E-10</v>
+        <v>344849.0434468603</v>
       </c>
       <c r="G427">
         <v>161.7158574597413</v>
@@ -10236,7 +10236,7 @@
         <v>10984208057.37715</v>
       </c>
       <c r="F428">
-        <v>2.426593001859907E-09</v>
+        <v>5374098.654890883</v>
       </c>
       <c r="G428">
         <v>270.9477890440778</v>
@@ -10259,7 +10259,7 @@
         <v>11398016353.14199</v>
       </c>
       <c r="F429">
-        <v>2.491631251259895E-09</v>
+        <v>5708945.619972014</v>
       </c>
       <c r="G429">
         <v>320.6526643654252</v>
@@ -10282,7 +10282,7 @@
         <v>10466949285.08228</v>
       </c>
       <c r="F430">
-        <v>7.052349352398355E-09</v>
+        <v>16426917.3157606</v>
       </c>
       <c r="G430">
         <v>483.3189935356198</v>
@@ -10305,7 +10305,7 @@
         <v>11123712111.03624</v>
       </c>
       <c r="F431">
-        <v>5.066397022891987E-09</v>
+        <v>12031421.49191038</v>
       </c>
       <c r="G431">
         <v>480.9888311674453</v>
@@ -10328,7 +10328,7 @@
         <v>11267464611.97781</v>
       </c>
       <c r="F432">
-        <v>2.139564553137115E-09</v>
+        <v>5142448.261422534</v>
       </c>
       <c r="G432">
         <v>363.9393555399216</v>
@@ -10351,7 +10351,7 @@
         <v>11335290326.72852</v>
       </c>
       <c r="F433">
-        <v>3.160155681056864E-09</v>
+        <v>7696068.337145343</v>
       </c>
       <c r="G433">
         <v>371.2789986395435</v>
@@ -10374,7 +10374,7 @@
         <v>10819819332.62493</v>
       </c>
       <c r="F434">
-        <v>9.787478841127753E-10</v>
+        <v>2536512.074496774</v>
       </c>
       <c r="G434">
         <v>298.3238391989815</v>
@@ -10397,7 +10397,7 @@
         <v>11460216963.4004</v>
       </c>
       <c r="F435">
-        <v>2.475147445461965E-09</v>
+        <v>6685394.032770485</v>
       </c>
       <c r="G435">
         <v>386.7432372292913</v>
@@ -10420,7 +10420,7 @@
         <v>6409794568.045595</v>
       </c>
       <c r="F436">
-        <v>1.160189952952295E-08</v>
+        <v>31341712.43832516</v>
       </c>
       <c r="G436">
         <v>569.6966819413633</v>
@@ -10443,7 +10443,7 @@
         <v>11017776580.05437</v>
       </c>
       <c r="F437">
-        <v>2.223065366509893E-09</v>
+        <v>6281192.555164498</v>
       </c>
       <c r="G437">
         <v>312.5088202088724</v>
@@ -10466,7 +10466,7 @@
         <v>10748158308.72359</v>
       </c>
       <c r="F438">
-        <v>1.244835198580292E-09</v>
+        <v>3740366.220730961</v>
       </c>
       <c r="G438">
         <v>255.1003504786072</v>
@@ -10489,7 +10489,7 @@
         <v>11466576984.6684</v>
       </c>
       <c r="F439">
-        <v>1.580240859817982E-09</v>
+        <v>4791894.335482059</v>
       </c>
       <c r="G439">
         <v>331.2752944979538</v>
@@ -10512,7 +10512,7 @@
         <v>8916908999.446501</v>
       </c>
       <c r="F440">
-        <v>1.268980144735661E-09</v>
+        <v>3898809.766295747</v>
       </c>
       <c r="G440">
         <v>265.7637351744941</v>
@@ -10535,7 +10535,7 @@
         <v>7265738821.196564</v>
       </c>
       <c r="F441">
-        <v>2.347816418139194E-10</v>
+        <v>723038.6445987809</v>
       </c>
       <c r="G441">
         <v>297.8026173230223</v>
@@ -10558,7 +10558,7 @@
         <v>8186886089.921233</v>
       </c>
       <c r="F442">
-        <v>-9.8283239487531E-10</v>
+        <v>-3049782.608079666</v>
       </c>
       <c r="G442">
         <v>293.2220547212236</v>
@@ -10581,7 +10581,7 @@
         <v>3674645835.497848</v>
       </c>
       <c r="F443">
-        <v>-3.696480718031306E-09</v>
+        <v>-11544543.90291288</v>
       </c>
       <c r="G443">
         <v>224.5752912276861</v>
@@ -10604,7 +10604,7 @@
         <v>4110653387.928495</v>
       </c>
       <c r="F444">
-        <v>-4.169804973339978E-10</v>
+        <v>-1304245.876438956</v>
       </c>
       <c r="G444">
         <v>152.3328571949302</v>
@@ -10627,7 +10627,7 @@
         <v>3172024463.29296</v>
       </c>
       <c r="F445">
-        <v>-5.739523397444854E-09</v>
+        <v>-18005734.95848579</v>
       </c>
       <c r="G445">
         <v>264.3816239301195</v>
@@ -10650,7 +10650,7 @@
         <v>11097295206.72467</v>
       </c>
       <c r="F446">
-        <v>2.668166405142047E-09</v>
+        <v>8414010.256969824</v>
       </c>
       <c r="G446">
         <v>380.055767460319</v>
@@ -10673,7 +10673,7 @@
         <v>5853123079.947883</v>
       </c>
       <c r="F447">
-        <v>8.904575790267489E-09</v>
+        <v>28131770.25731316</v>
       </c>
       <c r="G447">
         <v>575.8217596913773</v>
@@ -10696,7 +10696,7 @@
         <v>5250288921.769056</v>
       </c>
       <c r="F448">
-        <v>-1.502180483443347E-09</v>
+        <v>-4754515.597482095</v>
       </c>
       <c r="G448">
         <v>207.8396045337686</v>
@@ -10719,7 +10719,7 @@
         <v>4239965114.322686</v>
       </c>
       <c r="F449">
-        <v>-4.214689256363975E-09</v>
+        <v>-13393157.529569</v>
       </c>
       <c r="G449">
         <v>267.5263343763079</v>
@@ -10742,7 +10742,7 @@
         <v>10945928959.82665</v>
       </c>
       <c r="F450">
-        <v>2.793617829482892E-09</v>
+        <v>8883305.050764252</v>
       </c>
       <c r="G450">
         <v>347.3270143878042</v>
@@ -10765,7 +10765,7 @@
         <v>5279304336.256651</v>
       </c>
       <c r="F451">
-        <v>7.960750456677966E-09</v>
+        <v>25364803.20749626</v>
       </c>
       <c r="G451">
         <v>590.5598290749705</v>
@@ -10788,7 +10788,7 @@
         <v>9909655380.49449</v>
       </c>
       <c r="F452">
-        <v>4.455403740115148E-09</v>
+        <v>14348686.88454142</v>
       </c>
       <c r="G452">
         <v>473.573156164945</v>
@@ -10811,7 +10811,7 @@
         <v>2286064314.158804</v>
       </c>
       <c r="F453">
-        <v>-5.507015043524263E-09</v>
+        <v>-17837008.30877105</v>
       </c>
       <c r="G453">
         <v>254.3311806618962</v>
@@ -10834,7 +10834,7 @@
         <v>4563876809.994122</v>
       </c>
       <c r="F454">
-        <v>-1.395105013522608E-09</v>
+        <v>-4533049.852747462</v>
       </c>
       <c r="G454">
         <v>266.0418701200632</v>
@@ -10857,7 +10857,7 @@
         <v>4114797871.081561</v>
       </c>
       <c r="F455">
-        <v>6.388568820241337E-10</v>
+        <v>2092482.607439377</v>
       </c>
       <c r="G455">
         <v>202.1047878190345</v>
@@ -10880,7 +10880,7 @@
         <v>10838088226.61301</v>
       </c>
       <c r="F456">
-        <v>3.174826770258576E-09</v>
+        <v>10431137.36630133</v>
       </c>
       <c r="G456">
         <v>407.8548308927116</v>
@@ -10903,7 +10903,7 @@
         <v>7236817728.679172</v>
       </c>
       <c r="F457">
-        <v>6.303932521366426E-09</v>
+        <v>20900110.94964657</v>
       </c>
       <c r="G457">
         <v>553.1148020513306</v>
@@ -10926,7 +10926,7 @@
         <v>5354467001.628204</v>
       </c>
       <c r="F458">
-        <v>6.235221484752922E-11</v>
+        <v>206971.5823852211</v>
       </c>
       <c r="G458">
         <v>252.7762893361213</v>
@@ -10949,7 +10949,7 @@
         <v>2929229253.075706</v>
       </c>
       <c r="F459">
-        <v>-2.083593651692305E-09</v>
+        <v>-7025126.649697298</v>
       </c>
       <c r="G459">
         <v>247.8570795854087</v>
@@ -10972,7 +10972,7 @@
         <v>11129793591.47611</v>
       </c>
       <c r="F460">
-        <v>2.420844809313401E-09</v>
+        <v>8565384.619439717</v>
       </c>
       <c r="G460">
         <v>388.7105124995614</v>
@@ -10995,7 +10995,7 @@
         <v>6054903719.335782</v>
       </c>
       <c r="F461">
-        <v>-1.085867178771298E-09</v>
+        <v>-3859324.550525118</v>
       </c>
       <c r="G461">
         <v>252.3775826414882</v>
@@ -11018,7 +11018,7 @@
         <v>11674325695.3803</v>
       </c>
       <c r="F462">
-        <v>4.127517027056682E-10</v>
+        <v>1470143.36189985</v>
       </c>
       <c r="G462">
         <v>322.0932017271632</v>
@@ -11041,7 +11041,7 @@
         <v>746917741.67029</v>
       </c>
       <c r="F463">
-        <v>-2.313546576985663E-08</v>
+        <v>-83022753.6611363</v>
       </c>
       <c r="G463">
         <v>162.682376215862</v>
@@ -11064,7 +11064,7 @@
         <v>4707608786.898621</v>
       </c>
       <c r="F464">
-        <v>-6.037028881797181E-10</v>
+        <v>-2175223.226688494</v>
       </c>
       <c r="G464">
         <v>278.6015051092205</v>
@@ -11087,7 +11087,7 @@
         <v>4015161257.194639</v>
       </c>
       <c r="F465">
-        <v>-2.878727902650031E-09</v>
+        <v>-10378232.68453361</v>
       </c>
       <c r="G465">
         <v>263.0869463685414</v>
@@ -11110,7 +11110,7 @@
         <v>8554097016.054304</v>
       </c>
       <c r="F466">
-        <v>7.234921231779874E-10</v>
+        <v>2614382.829637098</v>
       </c>
       <c r="G466">
         <v>340.2671505125766</v>
@@ -11133,7 +11133,7 @@
         <v>7353186641.309758</v>
       </c>
       <c r="F467">
-        <v>6.274396664653448E-09</v>
+        <v>23019501.85963562</v>
       </c>
       <c r="G467">
         <v>546.9893267614135</v>
@@ -11156,7 +11156,7 @@
         <v>3624115906.463933</v>
       </c>
       <c r="F468">
-        <v>-3.723932399299434E-09</v>
+        <v>-13816884.57671598</v>
       </c>
       <c r="G468">
         <v>230.4730780011295</v>
@@ -11179,7 +11179,7 @@
         <v>9556764967.012693</v>
       </c>
       <c r="F469">
-        <v>6.975203246573954E-10</v>
+        <v>2595228.451017265</v>
       </c>
       <c r="G469">
         <v>310.9220271046865</v>
@@ -11202,7 +11202,7 @@
         <v>3874967759.080205</v>
       </c>
       <c r="F470">
-        <v>-1.489232127006049E-09</v>
+        <v>-5549158.563754943</v>
       </c>
       <c r="G470">
         <v>253.2496307526172</v>
@@ -11225,7 +11225,7 @@
         <v>1687678936.339648</v>
       </c>
       <c r="F471">
-        <v>-5.204357211837191E-09</v>
+        <v>-19491802.51046773</v>
       </c>
       <c r="G471">
         <v>260.5906126537344</v>
@@ -11248,7 +11248,7 @@
         <v>6977380148.974051</v>
       </c>
       <c r="F472">
-        <v>6.040783315111203E-09</v>
+        <v>22756674.38876458</v>
       </c>
       <c r="G472">
         <v>566.3427617277607</v>
@@ -11271,7 +11271,7 @@
         <v>3058126861.048535</v>
       </c>
       <c r="F473">
-        <v>-1.393712213583656E-09</v>
+        <v>-5283553.176603395</v>
       </c>
       <c r="G473">
         <v>168.1068377486629</v>
@@ -11294,7 +11294,7 @@
         <v>5557685890.200953</v>
       </c>
       <c r="F474">
-        <v>8.183468788687835E-10</v>
+        <v>3119533.451478652</v>
       </c>
       <c r="G474">
         <v>240.3662823221559</v>
@@ -11317,7 +11317,7 @@
         <v>13048368414.91627</v>
       </c>
       <c r="F475">
-        <v>1.396939907869393E-09</v>
+        <v>5482678.654874719</v>
       </c>
       <c r="G475">
         <v>310.5855443248964</v>
@@ -11340,7 +11340,7 @@
         <v>11208586428.15492</v>
       </c>
       <c r="F476">
-        <v>9.479348176524734E-11</v>
+        <v>377379.5821357472</v>
       </c>
       <c r="G476">
         <v>317.0300777387063</v>
@@ -11363,7 +11363,7 @@
         <v>6195298998.834575</v>
       </c>
       <c r="F477">
-        <v>6.846250406285343E-09</v>
+        <v>27320886.8158157</v>
       </c>
       <c r="G477">
         <v>595.9614252734825</v>
@@ -11386,7 +11386,7 @@
         <v>2393040702.621309</v>
       </c>
       <c r="F478">
-        <v>-9.723108133436029E-09</v>
+        <v>-38979025.12084102</v>
       </c>
       <c r="G478">
         <v>286.3375110689166</v>
@@ -11409,7 +11409,7 @@
         <v>5120584143.456322</v>
       </c>
       <c r="F479">
-        <v>-1.891997539186495E-09</v>
+        <v>-7587727.133988104</v>
       </c>
       <c r="G479">
         <v>256.1723205549114</v>

--- a/Project/IAG Spatially Resolved Atlas/values_SPA.xlsx
+++ b/Project/IAG Spatially Resolved Atlas/values_SPA.xlsx
@@ -438,7 +438,7 @@
         <v>7956737024.65556</v>
       </c>
       <c r="F2">
-        <v>40214313.45838111</v>
+        <v>-40214313.45838111</v>
       </c>
       <c r="G2">
         <v>420.9257797480747</v>
@@ -461,7 +461,7 @@
         <v>13477870288.37663</v>
       </c>
       <c r="F3">
-        <v>497932.227819716</v>
+        <v>-497932.227819716</v>
       </c>
       <c r="G3">
         <v>149.7558507049375</v>
@@ -484,7 +484,7 @@
         <v>9554437129.977875</v>
       </c>
       <c r="F4">
-        <v>23216491.96908789</v>
+        <v>-23216491.96908789</v>
       </c>
       <c r="G4">
         <v>277.9337985658759</v>
@@ -507,7 +507,7 @@
         <v>10080688837.69621</v>
       </c>
       <c r="F5">
-        <v>15394828.49956845</v>
+        <v>-15394828.49956845</v>
       </c>
       <c r="G5">
         <v>334.8193889610315</v>
@@ -530,7 +530,7 @@
         <v>7800362735.570836</v>
       </c>
       <c r="F6">
-        <v>80958934.16898233</v>
+        <v>-80958934.16898233</v>
       </c>
       <c r="G6">
         <v>477.1282319023201</v>
@@ -553,7 +553,7 @@
         <v>8844417547.961292</v>
       </c>
       <c r="F7">
-        <v>52201197.65040627</v>
+        <v>-52201197.65040627</v>
       </c>
       <c r="G7">
         <v>469.4443676410949</v>
@@ -576,7 +576,7 @@
         <v>2168686909.108348</v>
       </c>
       <c r="F8">
-        <v>761061811.9829437</v>
+        <v>-761061811.9829437</v>
       </c>
       <c r="G8">
         <v>703.7429367153335</v>
@@ -599,7 +599,7 @@
         <v>9873218364.839312</v>
       </c>
       <c r="F9">
-        <v>27005143.60264176</v>
+        <v>-27005143.60264176</v>
       </c>
       <c r="G9">
         <v>376.3800984726426</v>
@@ -622,7 +622,7 @@
         <v>3110392109.412148</v>
       </c>
       <c r="F10">
-        <v>88779112.87913874</v>
+        <v>-88779112.87913874</v>
       </c>
       <c r="G10">
         <v>553.6723727340368</v>
@@ -645,7 +645,7 @@
         <v>17322704975.65882</v>
       </c>
       <c r="F11">
-        <v>1189420.552938995</v>
+        <v>-1189420.552938995</v>
       </c>
       <c r="G11">
         <v>325.713734087069</v>
@@ -668,7 +668,7 @@
         <v>1950419076.342742</v>
       </c>
       <c r="F12">
-        <v>515383756.1041059</v>
+        <v>-515383756.1041059</v>
       </c>
       <c r="G12">
         <v>899.066948116175</v>
@@ -691,7 +691,7 @@
         <v>5862452038.846129</v>
       </c>
       <c r="F13">
-        <v>82780743.36280161</v>
+        <v>-82780743.36280161</v>
       </c>
       <c r="G13">
         <v>431.3848305979838</v>
@@ -714,7 +714,7 @@
         <v>4504918476.414181</v>
       </c>
       <c r="F14">
-        <v>106660733.4159998</v>
+        <v>-106660733.4159998</v>
       </c>
       <c r="G14">
         <v>586.8573933102427</v>
@@ -737,7 +737,7 @@
         <v>6799948284.82059</v>
       </c>
       <c r="F15">
-        <v>25712770.43708288</v>
+        <v>-25712770.43708288</v>
       </c>
       <c r="G15">
         <v>367.5797045184399</v>
@@ -760,7 +760,7 @@
         <v>9292847921.861954</v>
       </c>
       <c r="F16">
-        <v>46281100.63265605</v>
+        <v>-46281100.63265605</v>
       </c>
       <c r="G16">
         <v>534.9019661149667</v>
@@ -783,7 +783,7 @@
         <v>14796067879.2144</v>
       </c>
       <c r="F17">
-        <v>-538532.760435399</v>
+        <v>538532.760435399</v>
       </c>
       <c r="G17">
         <v>197.0397248583244</v>
@@ -806,7 +806,7 @@
         <v>2262845896.510838</v>
       </c>
       <c r="F18">
-        <v>270414515.6100931</v>
+        <v>-270414515.6100931</v>
       </c>
       <c r="G18">
         <v>685.8625151652143</v>
@@ -829,7 +829,7 @@
         <v>12584837079.76077</v>
       </c>
       <c r="F19">
-        <v>7624853.019028246</v>
+        <v>-7624853.019028246</v>
       </c>
       <c r="G19">
         <v>328.4935473026585</v>
@@ -852,7 +852,7 @@
         <v>6985302679.552778</v>
       </c>
       <c r="F20">
-        <v>99110097.75766833</v>
+        <v>-99110097.75766833</v>
       </c>
       <c r="G20">
         <v>621.5600673992133</v>
@@ -875,7 +875,7 @@
         <v>12428445947.34683</v>
       </c>
       <c r="F21">
-        <v>6857236.069430495</v>
+        <v>-6857236.069430495</v>
       </c>
       <c r="G21">
         <v>297.8550218957526</v>
@@ -898,7 +898,7 @@
         <v>2714857221.02059</v>
       </c>
       <c r="F22">
-        <v>84448693.85646543</v>
+        <v>-84448693.85646543</v>
       </c>
       <c r="G22">
         <v>518.2816338250062</v>
@@ -921,7 +921,7 @@
         <v>11218312188.73093</v>
       </c>
       <c r="F23">
-        <v>4392391.498146226</v>
+        <v>-4392391.498146226</v>
       </c>
       <c r="G23">
         <v>255.2941025872096</v>
@@ -944,7 +944,7 @@
         <v>13576108409.71871</v>
       </c>
       <c r="F24">
-        <v>2148172.59403784</v>
+        <v>-2148172.59403784</v>
       </c>
       <c r="G24">
         <v>310.2888755791125</v>
@@ -967,7 +967,7 @@
         <v>10072293021.28594</v>
       </c>
       <c r="F25">
-        <v>38269065.30384443</v>
+        <v>-38269065.30384443</v>
       </c>
       <c r="G25">
         <v>480.3122538659831</v>
@@ -990,7 +990,7 @@
         <v>13896759643.66327</v>
       </c>
       <c r="F26">
-        <v>-424467.5708547915</v>
+        <v>424467.5708547915</v>
       </c>
       <c r="G26">
         <v>287.8146011330351</v>
@@ -1013,7 +1013,7 @@
         <v>11957787337.2151</v>
       </c>
       <c r="F27">
-        <v>10567769.55463233</v>
+        <v>-10567769.55463233</v>
       </c>
       <c r="G27">
         <v>368.8388184345498</v>
@@ -1036,7 +1036,7 @@
         <v>7048434815.893798</v>
       </c>
       <c r="F28">
-        <v>55770388.05755068</v>
+        <v>-55770388.05755068</v>
       </c>
       <c r="G28">
         <v>484.8977586902467</v>
@@ -1059,7 +1059,7 @@
         <v>13287093651.74801</v>
       </c>
       <c r="F29">
-        <v>1035659.434521177</v>
+        <v>-1035659.434521177</v>
       </c>
       <c r="G29">
         <v>297.6659728998812</v>
@@ -1082,7 +1082,7 @@
         <v>4705696418.273812</v>
       </c>
       <c r="F30">
-        <v>129397095.5113791</v>
+        <v>-129397095.5113791</v>
       </c>
       <c r="G30">
         <v>554.6879335489692</v>
@@ -1105,7 +1105,7 @@
         <v>14167851680.4487</v>
       </c>
       <c r="F31">
-        <v>246272.5144273958</v>
+        <v>-246272.5144273958</v>
       </c>
       <c r="G31">
         <v>236.6526835544075</v>
@@ -1128,7 +1128,7 @@
         <v>11958666208.79302</v>
       </c>
       <c r="F32">
-        <v>8061245.307986243</v>
+        <v>-8061245.307986243</v>
       </c>
       <c r="G32">
         <v>236.5878619838987</v>
@@ -1151,7 +1151,7 @@
         <v>13642101914.55612</v>
       </c>
       <c r="F33">
-        <v>1991934.486711669</v>
+        <v>-1991934.486711669</v>
       </c>
       <c r="G33">
         <v>141.8068472985769</v>
@@ -1174,7 +1174,7 @@
         <v>2621735379.924401</v>
       </c>
       <c r="F34">
-        <v>145546264.1934322</v>
+        <v>-145546264.1934322</v>
       </c>
       <c r="G34">
         <v>620.6902604093026</v>
@@ -1197,7 +1197,7 @@
         <v>13827591816.74435</v>
       </c>
       <c r="F35">
-        <v>6716945.087787445</v>
+        <v>-6716945.087787445</v>
       </c>
       <c r="G35">
         <v>229.3600998066294</v>
@@ -1220,7 +1220,7 @@
         <v>17348283551.68607</v>
       </c>
       <c r="F36">
-        <v>592838.9650619169</v>
+        <v>-592838.9650619169</v>
       </c>
       <c r="G36">
         <v>269.6751748805509</v>
@@ -1243,7 +1243,7 @@
         <v>13289540051.79009</v>
       </c>
       <c r="F37">
-        <v>5013157.461345589</v>
+        <v>-5013157.461345589</v>
       </c>
       <c r="G37">
         <v>249.3564834071857</v>
@@ -1266,7 +1266,7 @@
         <v>14601570838.37045</v>
       </c>
       <c r="F38">
-        <v>3154399.450092184</v>
+        <v>-3154399.450092184</v>
       </c>
       <c r="G38">
         <v>228.9743950366214</v>
@@ -1289,7 +1289,7 @@
         <v>14449574952.06922</v>
       </c>
       <c r="F39">
-        <v>-1394598.579441746</v>
+        <v>1394598.579441746</v>
       </c>
       <c r="G39">
         <v>235.3910478027842</v>
@@ -1312,7 +1312,7 @@
         <v>12837105993.8848</v>
       </c>
       <c r="F40">
-        <v>4984721.372462008</v>
+        <v>-4984721.372462008</v>
       </c>
       <c r="G40">
         <v>255.4668429945003</v>
@@ -1335,7 +1335,7 @@
         <v>1967040775.459416</v>
       </c>
       <c r="F41">
-        <v>912186642.4358728</v>
+        <v>-912186642.4358728</v>
       </c>
       <c r="G41">
         <v>812.8088637041188</v>
@@ -1358,7 +1358,7 @@
         <v>5985793066.316721</v>
       </c>
       <c r="F42">
-        <v>49027236.95077542</v>
+        <v>-49027236.95077542</v>
       </c>
       <c r="G42">
         <v>509.6424402378982</v>
@@ -1381,7 +1381,7 @@
         <v>14025433369.75537</v>
       </c>
       <c r="F43">
-        <v>2188950.757791318</v>
+        <v>-2188950.757791318</v>
       </c>
       <c r="G43">
         <v>321.1063179710299</v>
@@ -1404,7 +1404,7 @@
         <v>13511155748.38366</v>
       </c>
       <c r="F44">
-        <v>2447443.452583506</v>
+        <v>-2447443.452583506</v>
       </c>
       <c r="G44">
         <v>180.5629461444882</v>
@@ -1427,7 +1427,7 @@
         <v>8577062488.528451</v>
       </c>
       <c r="F45">
-        <v>29578057.53464424</v>
+        <v>-29578057.53464424</v>
       </c>
       <c r="G45">
         <v>447.8027689461618</v>
@@ -1450,7 +1450,7 @@
         <v>11431087962.12382</v>
       </c>
       <c r="F46">
-        <v>11447846.07574959</v>
+        <v>-11447846.07574959</v>
       </c>
       <c r="G46">
         <v>367.4799945611327</v>
@@ -1473,7 +1473,7 @@
         <v>6321269143.175884</v>
       </c>
       <c r="F47">
-        <v>48578654.12382686</v>
+        <v>-48578654.12382686</v>
       </c>
       <c r="G47">
         <v>507.3309597821763</v>
@@ -1496,7 +1496,7 @@
         <v>2158596263.951111</v>
       </c>
       <c r="F48">
-        <v>292340117.9049614</v>
+        <v>-292340117.9049614</v>
       </c>
       <c r="G48">
         <v>646.8195325669061</v>
@@ -1519,7 +1519,7 @@
         <v>9824582634.745487</v>
       </c>
       <c r="F49">
-        <v>-1464776.612733198</v>
+        <v>1464776.612733198</v>
       </c>
       <c r="G49">
         <v>166.4088492987254</v>
@@ -1542,7 +1542,7 @@
         <v>13831489249.60563</v>
       </c>
       <c r="F50">
-        <v>-2243484.448526053</v>
+        <v>2243484.448526053</v>
       </c>
       <c r="G50">
         <v>278.6427193197707</v>
@@ -1565,7 +1565,7 @@
         <v>6557251170.669719</v>
       </c>
       <c r="F51">
-        <v>71844273.92340891</v>
+        <v>-71844273.92340891</v>
       </c>
       <c r="G51">
         <v>556.3479631289255</v>
@@ -1588,7 +1588,7 @@
         <v>3595884838.794737</v>
       </c>
       <c r="F52">
-        <v>282967498.2285971</v>
+        <v>-282967498.2285971</v>
       </c>
       <c r="G52">
         <v>674.6691499345801</v>
@@ -1611,7 +1611,7 @@
         <v>15579381118.19539</v>
       </c>
       <c r="F53">
-        <v>2152003.175308941</v>
+        <v>-2152003.175308941</v>
       </c>
       <c r="G53">
         <v>268.6077530148755</v>
@@ -1634,7 +1634,7 @@
         <v>14756574346.82716</v>
       </c>
       <c r="F54">
-        <v>1763352.050611818</v>
+        <v>-1763352.050611818</v>
       </c>
       <c r="G54">
         <v>228.6789846124696</v>
@@ -1657,7 +1657,7 @@
         <v>11778708582.58004</v>
       </c>
       <c r="F55">
-        <v>6233394.524593283</v>
+        <v>-6233394.524593283</v>
       </c>
       <c r="G55">
         <v>338.9396337718985</v>
@@ -1680,7 +1680,7 @@
         <v>4036148238.048314</v>
       </c>
       <c r="F56">
-        <v>231239021.3660047</v>
+        <v>-231239021.3660047</v>
       </c>
       <c r="G56">
         <v>670.6576304898763</v>
@@ -1703,7 +1703,7 @@
         <v>10741087789.72659</v>
       </c>
       <c r="F57">
-        <v>13844897.4028348</v>
+        <v>-13844897.4028348</v>
       </c>
       <c r="G57">
         <v>389.2918307329556</v>
@@ -1726,7 +1726,7 @@
         <v>9335336029.122759</v>
       </c>
       <c r="F58">
-        <v>18739299.00296587</v>
+        <v>-18739299.00296587</v>
       </c>
       <c r="G58">
         <v>434.1680914004986</v>
@@ -1749,7 +1749,7 @@
         <v>13413786979.3248</v>
       </c>
       <c r="F59">
-        <v>6941828.544688405</v>
+        <v>-6941828.544688405</v>
       </c>
       <c r="G59">
         <v>362.4890102856461</v>
@@ -1772,7 +1772,7 @@
         <v>15455655088.19918</v>
       </c>
       <c r="F60">
-        <v>2592022.329911617</v>
+        <v>-2592022.329911617</v>
       </c>
       <c r="G60">
         <v>265.0659483337108</v>
@@ -1795,7 +1795,7 @@
         <v>10210400299.78835</v>
       </c>
       <c r="F61">
-        <v>16827056.91214114</v>
+        <v>-16827056.91214114</v>
       </c>
       <c r="G61">
         <v>426.5390553607528</v>
@@ -1818,7 +1818,7 @@
         <v>12328939260.77472</v>
       </c>
       <c r="F62">
-        <v>9968567.408922862</v>
+        <v>-9968567.408922862</v>
       </c>
       <c r="G62">
         <v>348.5385721603259</v>
@@ -1841,7 +1841,7 @@
         <v>9316096811.345697</v>
       </c>
       <c r="F63">
-        <v>21758083.13566476</v>
+        <v>-21758083.13566476</v>
       </c>
       <c r="G63">
         <v>444.9743291182667</v>
@@ -1864,7 +1864,7 @@
         <v>8019581387.743544</v>
       </c>
       <c r="F64">
-        <v>27352308.31776557</v>
+        <v>-27352308.31776557</v>
       </c>
       <c r="G64">
         <v>468.7508212037549</v>
@@ -1887,7 +1887,7 @@
         <v>8044038364.816983</v>
       </c>
       <c r="F65">
-        <v>29351754.43773678</v>
+        <v>-29351754.43773678</v>
       </c>
       <c r="G65">
         <v>486.8262879988054</v>
@@ -1910,7 +1910,7 @@
         <v>16502061746.56462</v>
       </c>
       <c r="F66">
-        <v>705912.2690772193</v>
+        <v>-705912.2690772193</v>
       </c>
       <c r="G66">
         <v>281.7595400651596</v>
@@ -1933,7 +1933,7 @@
         <v>15047213904.79412</v>
       </c>
       <c r="F67">
-        <v>2299702.645966645</v>
+        <v>-2299702.645966645</v>
       </c>
       <c r="G67">
         <v>300.7606192795334</v>
@@ -1956,7 +1956,7 @@
         <v>6226433696.606266</v>
       </c>
       <c r="F68">
-        <v>45160166.11724176</v>
+        <v>-45160166.11724176</v>
       </c>
       <c r="G68">
         <v>541.1885568986736</v>
@@ -1979,7 +1979,7 @@
         <v>12330198806.64964</v>
       </c>
       <c r="F69">
-        <v>14668864.00734625</v>
+        <v>-14668864.00734625</v>
       </c>
       <c r="G69">
         <v>386.6352719951028</v>
@@ -2002,7 +2002,7 @@
         <v>11718998157.75992</v>
       </c>
       <c r="F70">
-        <v>-30080.47500528535</v>
+        <v>30080.47500528535</v>
       </c>
       <c r="G70">
         <v>152.103565471654</v>
@@ -2025,7 +2025,7 @@
         <v>12182460834.18043</v>
       </c>
       <c r="F71">
-        <v>11130972.60223413</v>
+        <v>-11130972.60223413</v>
       </c>
       <c r="G71">
         <v>353.6534040947407</v>
@@ -2048,7 +2048,7 @@
         <v>13049881649.99369</v>
       </c>
       <c r="F72">
-        <v>-218517.8671369059</v>
+        <v>218517.8671369059</v>
       </c>
       <c r="G72">
         <v>213.2069025311453</v>
@@ -2071,7 +2071,7 @@
         <v>11527685298.91117</v>
       </c>
       <c r="F73">
-        <v>13409630.9179356</v>
+        <v>-13409630.9179356</v>
       </c>
       <c r="G73">
         <v>394.4517984240071</v>
@@ -2094,7 +2094,7 @@
         <v>12214222607.0965</v>
       </c>
       <c r="F74">
-        <v>-512679.1934422441</v>
+        <v>512679.1934422441</v>
       </c>
       <c r="G74">
         <v>187.7941768108143</v>
@@ -2117,7 +2117,7 @@
         <v>10787860978.91849</v>
       </c>
       <c r="F75">
-        <v>17479227.37828009</v>
+        <v>-17479227.37828009</v>
       </c>
       <c r="G75">
         <v>419.2472942516421</v>
@@ -2140,7 +2140,7 @@
         <v>12274156159.71665</v>
       </c>
       <c r="F76">
-        <v>823370.7501867298</v>
+        <v>-823370.7501867298</v>
       </c>
       <c r="G76">
         <v>168.6470972061475</v>
@@ -2163,7 +2163,7 @@
         <v>12348284630.86265</v>
       </c>
       <c r="F77">
-        <v>2952737.370836186</v>
+        <v>-2952737.370836186</v>
       </c>
       <c r="G77">
         <v>274.6958173502403</v>
@@ -2186,7 +2186,7 @@
         <v>12920168340.90231</v>
       </c>
       <c r="F78">
-        <v>2661302.66838404</v>
+        <v>-2661302.66838404</v>
       </c>
       <c r="G78">
         <v>274.2924547390904</v>
@@ -2209,7 +2209,7 @@
         <v>13058308164.59484</v>
       </c>
       <c r="F79">
-        <v>1467798.278630122</v>
+        <v>-1467798.278630122</v>
       </c>
       <c r="G79">
         <v>216.9166997070782</v>
@@ -2232,7 +2232,7 @@
         <v>14557960922.72351</v>
       </c>
       <c r="F80">
-        <v>4052042.016085098</v>
+        <v>-4052042.016085098</v>
       </c>
       <c r="G80">
         <v>346.8030549982863</v>
@@ -2255,7 +2255,7 @@
         <v>12018788255.7709</v>
       </c>
       <c r="F81">
-        <v>5615693.694136345</v>
+        <v>-5615693.694136345</v>
       </c>
       <c r="G81">
         <v>376.5128291380712</v>
@@ -2278,7 +2278,7 @@
         <v>3990929038.013825</v>
       </c>
       <c r="F82">
-        <v>60376487.74711934</v>
+        <v>-60376487.74711934</v>
       </c>
       <c r="G82">
         <v>610.5502756047948</v>
@@ -2301,7 +2301,7 @@
         <v>2887925513.549094</v>
       </c>
       <c r="F83">
-        <v>89694975.31203865</v>
+        <v>-89694975.31203865</v>
       </c>
       <c r="G83">
         <v>670.6244879635998</v>
@@ -2324,7 +2324,7 @@
         <v>3671614702.285092</v>
       </c>
       <c r="F84">
-        <v>80187308.53974813</v>
+        <v>-80187308.53974813</v>
       </c>
       <c r="G84">
         <v>652.0572418087476</v>
@@ -2347,7 +2347,7 @@
         <v>13200198810.67547</v>
       </c>
       <c r="F85">
-        <v>3943535.419819425</v>
+        <v>-3943535.419819425</v>
       </c>
       <c r="G85">
         <v>301.19149868148</v>
@@ -2370,7 +2370,7 @@
         <v>14394037156.56203</v>
       </c>
       <c r="F86">
-        <v>5560008.59144887</v>
+        <v>-5560008.59144887</v>
       </c>
       <c r="G86">
         <v>313.1099961994693</v>
@@ -2393,7 +2393,7 @@
         <v>12120040484.85664</v>
       </c>
       <c r="F87">
-        <v>7112166.979426265</v>
+        <v>-7112166.979426265</v>
       </c>
       <c r="G87">
         <v>392.8880966500864</v>
@@ -2416,7 +2416,7 @@
         <v>12911355426.8304</v>
       </c>
       <c r="F88">
-        <v>9510939.954688711</v>
+        <v>-9510939.954688711</v>
       </c>
       <c r="G88">
         <v>355.8152646964811</v>
@@ -2439,7 +2439,7 @@
         <v>11782764113.10058</v>
       </c>
       <c r="F89">
-        <v>11828273.26366744</v>
+        <v>-11828273.26366744</v>
       </c>
       <c r="G89">
         <v>361.8832589915302</v>
@@ -2462,7 +2462,7 @@
         <v>2864040679.575552</v>
       </c>
       <c r="F90">
-        <v>21980433.78721678</v>
+        <v>-21980433.78721678</v>
       </c>
       <c r="G90">
         <v>618.9347908313625</v>
@@ -2485,7 +2485,7 @@
         <v>2330706117.056531</v>
       </c>
       <c r="F91">
-        <v>4926185.701093145</v>
+        <v>-4926185.701093145</v>
       </c>
       <c r="G91">
         <v>618.8414988269474</v>
@@ -2508,7 +2508,7 @@
         <v>12750199825.13306</v>
       </c>
       <c r="F92">
-        <v>4331823.323476498</v>
+        <v>-4331823.323476498</v>
       </c>
       <c r="G92">
         <v>232.76642785476</v>
@@ -2531,7 +2531,7 @@
         <v>13419444026.11343</v>
       </c>
       <c r="F93">
-        <v>4360078.836726672</v>
+        <v>-4360078.836726672</v>
       </c>
       <c r="G93">
         <v>305.3434741262351</v>
@@ -2554,7 +2554,7 @@
         <v>13210263293.32272</v>
       </c>
       <c r="F94">
-        <v>5340941.849509899</v>
+        <v>-5340941.849509899</v>
       </c>
       <c r="G94">
         <v>280.8214890136861</v>
@@ -2577,7 +2577,7 @@
         <v>10686966886.8106</v>
       </c>
       <c r="F95">
-        <v>13553818.84988412</v>
+        <v>-13553818.84988412</v>
       </c>
       <c r="G95">
         <v>408.9698371265093</v>
@@ -2600,7 +2600,7 @@
         <v>12210749227.02507</v>
       </c>
       <c r="F96">
-        <v>10309280.75574248</v>
+        <v>-10309280.75574248</v>
       </c>
       <c r="G96">
         <v>390.6331781611177</v>
@@ -2623,7 +2623,7 @@
         <v>12235368289.28755</v>
       </c>
       <c r="F97">
-        <v>11180923.87183375</v>
+        <v>-11180923.87183375</v>
       </c>
       <c r="G97">
         <v>384.5108168893962</v>
@@ -2646,7 +2646,7 @@
         <v>13184427309.72393</v>
       </c>
       <c r="F98">
-        <v>6063520.314739813</v>
+        <v>-6063520.314739813</v>
       </c>
       <c r="G98">
         <v>286.4684565991175</v>
@@ -2669,7 +2669,7 @@
         <v>12731335140.48432</v>
       </c>
       <c r="F99">
-        <v>3168989.853925667</v>
+        <v>-3168989.853925667</v>
       </c>
       <c r="G99">
         <v>219.3877363176368</v>
@@ -2692,7 +2692,7 @@
         <v>2218762979.587776</v>
       </c>
       <c r="F100">
-        <v>5515895.202225931</v>
+        <v>-5515895.202225931</v>
       </c>
       <c r="G100">
         <v>621.2839523717316</v>
@@ -2715,7 +2715,7 @@
         <v>8513857046.440112</v>
       </c>
       <c r="F101">
-        <v>25841430.53253341</v>
+        <v>-25841430.53253341</v>
       </c>
       <c r="G101">
         <v>523.3738562432578</v>
@@ -2738,7 +2738,7 @@
         <v>12138028284.99991</v>
       </c>
       <c r="F102">
-        <v>8870398.07404653</v>
+        <v>-8870398.07404653</v>
       </c>
       <c r="G102">
         <v>352.0149572303775</v>
@@ -2761,7 +2761,7 @@
         <v>5088299376.296271</v>
       </c>
       <c r="F103">
-        <v>80860974.58168915</v>
+        <v>-80860974.58168915</v>
       </c>
       <c r="G103">
         <v>606.8437012180223</v>
@@ -2784,7 +2784,7 @@
         <v>6499972628.710576</v>
       </c>
       <c r="F104">
-        <v>59187035.58841902</v>
+        <v>-59187035.58841902</v>
       </c>
       <c r="G104">
         <v>546.0628232056733</v>
@@ -2807,7 +2807,7 @@
         <v>11484256212.068</v>
       </c>
       <c r="F105">
-        <v>730298.6232787917</v>
+        <v>-730298.6232787917</v>
       </c>
       <c r="G105">
         <v>169.6818028425222</v>
@@ -2830,7 +2830,7 @@
         <v>7913722701.031931</v>
       </c>
       <c r="F106">
-        <v>29329980.98010488</v>
+        <v>-29329980.98010488</v>
       </c>
       <c r="G106">
         <v>508.9681532508874</v>
@@ -2853,7 +2853,7 @@
         <v>12291723081.39206</v>
       </c>
       <c r="F107">
-        <v>8880223.753240881</v>
+        <v>-8880223.753240881</v>
       </c>
       <c r="G107">
         <v>345.1118428330054</v>
@@ -2876,7 +2876,7 @@
         <v>5827675215.503829</v>
       </c>
       <c r="F108">
-        <v>54723184.04902476</v>
+        <v>-54723184.04902476</v>
       </c>
       <c r="G108">
         <v>567.30014252463</v>
@@ -2899,7 +2899,7 @@
         <v>11413951763.73825</v>
       </c>
       <c r="F109">
-        <v>13459948.09042961</v>
+        <v>-13459948.09042961</v>
       </c>
       <c r="G109">
         <v>434.3695935401912</v>
@@ -2922,7 +2922,7 @@
         <v>12218846023.7999</v>
       </c>
       <c r="F110">
-        <v>10676377.70953258</v>
+        <v>-10676377.70953258</v>
       </c>
       <c r="G110">
         <v>361.8275211944923</v>
@@ -2945,7 +2945,7 @@
         <v>14196888590.4441</v>
       </c>
       <c r="F111">
-        <v>4488675.63201231</v>
+        <v>-4488675.63201231</v>
       </c>
       <c r="G111">
         <v>289.428342609861</v>
@@ -2968,7 +2968,7 @@
         <v>6020396105.175292</v>
       </c>
       <c r="F112">
-        <v>37993097.77694524</v>
+        <v>-37993097.77694524</v>
       </c>
       <c r="G112">
         <v>517.3097895519192</v>
@@ -2991,7 +2991,7 @@
         <v>7952955952.670198</v>
       </c>
       <c r="F113">
-        <v>24282917.29136499</v>
+        <v>-24282917.29136499</v>
       </c>
       <c r="G113">
         <v>457.0886118432708</v>
@@ -3014,7 +3014,7 @@
         <v>6995084271.945768</v>
       </c>
       <c r="F114">
-        <v>37469353.74368952</v>
+        <v>-37469353.74368952</v>
       </c>
       <c r="G114">
         <v>541.2237488989177</v>
@@ -3037,7 +3037,7 @@
         <v>9069213212.450693</v>
       </c>
       <c r="F115">
-        <v>21850992.02410202</v>
+        <v>-21850992.02410202</v>
       </c>
       <c r="G115">
         <v>468.9288560410837</v>
@@ -3060,7 +3060,7 @@
         <v>12563664532.54956</v>
       </c>
       <c r="F116">
-        <v>2312462.893460947</v>
+        <v>-2312462.893460947</v>
       </c>
       <c r="G116">
         <v>228.4080897259217</v>
@@ -3083,7 +3083,7 @@
         <v>11145836800.61831</v>
       </c>
       <c r="F117">
-        <v>13980746.21134952</v>
+        <v>-13980746.21134952</v>
       </c>
       <c r="G117">
         <v>396.4919162247787</v>
@@ -3106,7 +3106,7 @@
         <v>10936059724.60959</v>
       </c>
       <c r="F118">
-        <v>13693696.47602005</v>
+        <v>-13693696.47602005</v>
       </c>
       <c r="G118">
         <v>402.3124239570178</v>
@@ -3129,7 +3129,7 @@
         <v>4732275773.443843</v>
       </c>
       <c r="F119">
-        <v>184713694.693187</v>
+        <v>-184713694.693187</v>
       </c>
       <c r="G119">
         <v>648.1320726640671</v>
@@ -3152,7 +3152,7 @@
         <v>9404691162.248508</v>
       </c>
       <c r="F120">
-        <v>-3200937.919831602</v>
+        <v>3200937.919831602</v>
       </c>
       <c r="G120">
         <v>113.909581325338</v>
@@ -3175,7 +3175,7 @@
         <v>5244412345.080046</v>
       </c>
       <c r="F121">
-        <v>52561305.58710208</v>
+        <v>-52561305.58710208</v>
       </c>
       <c r="G121">
         <v>557.2507669958649</v>
@@ -3198,7 +3198,7 @@
         <v>11612696686.44507</v>
       </c>
       <c r="F122">
-        <v>10061021.32324428</v>
+        <v>-10061021.32324428</v>
       </c>
       <c r="G122">
         <v>389.4040072806783</v>
@@ -3221,7 +3221,7 @@
         <v>11930085401.63706</v>
       </c>
       <c r="F123">
-        <v>808416.7638754812</v>
+        <v>-808416.7638754812</v>
       </c>
       <c r="G123">
         <v>209.6266383939193</v>
@@ -3244,7 +3244,7 @@
         <v>6167118795.504225</v>
       </c>
       <c r="F124">
-        <v>38246998.85125896</v>
+        <v>-38246998.85125896</v>
       </c>
       <c r="G124">
         <v>526.8856422683017</v>
@@ -3267,7 +3267,7 @@
         <v>6977401631.047334</v>
       </c>
       <c r="F125">
-        <v>39624524.16367897</v>
+        <v>-39624524.16367897</v>
       </c>
       <c r="G125">
         <v>531.8922237942238</v>
@@ -3290,7 +3290,7 @@
         <v>8587246640.611396</v>
       </c>
       <c r="F126">
-        <v>32711857.83009788</v>
+        <v>-32711857.83009788</v>
       </c>
       <c r="G126">
         <v>495.3140120929924</v>
@@ -3313,7 +3313,7 @@
         <v>10902535318.958</v>
       </c>
       <c r="F127">
-        <v>-838722.8046989171</v>
+        <v>838722.8046989171</v>
       </c>
       <c r="G127">
         <v>131.2631921423011</v>
@@ -3336,7 +3336,7 @@
         <v>12081670741.20598</v>
       </c>
       <c r="F128">
-        <v>2477071.791400491</v>
+        <v>-2477071.791400491</v>
       </c>
       <c r="G128">
         <v>256.3266782031861</v>
@@ -3359,7 +3359,7 @@
         <v>11905670547.78912</v>
       </c>
       <c r="F129">
-        <v>12430543.20440599</v>
+        <v>-12430543.20440599</v>
       </c>
       <c r="G129">
         <v>429.1666017403272</v>
@@ -3382,7 +3382,7 @@
         <v>14335169824.14295</v>
       </c>
       <c r="F130">
-        <v>1644777.421210033</v>
+        <v>-1644777.421210033</v>
       </c>
       <c r="G130">
         <v>244.3140763600454</v>
@@ -3405,7 +3405,7 @@
         <v>7507382581.9926</v>
       </c>
       <c r="F131">
-        <v>593587.1037824171</v>
+        <v>-593587.1037824171</v>
       </c>
       <c r="G131">
         <v>142.9801140968682</v>
@@ -3428,7 +3428,7 @@
         <v>12743712725.3684</v>
       </c>
       <c r="F132">
-        <v>5330237.979999029</v>
+        <v>-5330237.979999029</v>
       </c>
       <c r="G132">
         <v>386.2066084853685</v>
@@ -3451,7 +3451,7 @@
         <v>11394193186.60372</v>
       </c>
       <c r="F133">
-        <v>-433245.7159828548</v>
+        <v>433245.7159828548</v>
       </c>
       <c r="G133">
         <v>195.6694928810959</v>
@@ -3474,7 +3474,7 @@
         <v>5258090068.64201</v>
       </c>
       <c r="F134">
-        <v>59752232.8417443</v>
+        <v>-59752232.8417443</v>
       </c>
       <c r="G134">
         <v>549.8957560367161</v>
@@ -3497,7 +3497,7 @@
         <v>12729679509.34903</v>
       </c>
       <c r="F135">
-        <v>2892619.543676231</v>
+        <v>-2892619.543676231</v>
       </c>
       <c r="G135">
         <v>295.4152197930109</v>
@@ -3520,7 +3520,7 @@
         <v>9236533839.163744</v>
       </c>
       <c r="F136">
-        <v>19637213.37079386</v>
+        <v>-19637213.37079386</v>
       </c>
       <c r="G136">
         <v>483.8797543895105</v>
@@ -3543,7 +3543,7 @@
         <v>4186917046.701827</v>
       </c>
       <c r="F137">
-        <v>251237432.5684242</v>
+        <v>-251237432.5684242</v>
       </c>
       <c r="G137">
         <v>672.1334036531405</v>
@@ -3566,7 +3566,7 @@
         <v>10301363760.41961</v>
       </c>
       <c r="F138">
-        <v>11040487.82364796</v>
+        <v>-11040487.82364796</v>
       </c>
       <c r="G138">
         <v>423.885296576584</v>
@@ -3589,7 +3589,7 @@
         <v>5502145211.990395</v>
       </c>
       <c r="F139">
-        <v>119172833.5378027</v>
+        <v>-119172833.5378027</v>
       </c>
       <c r="G139">
         <v>581.9364641927928</v>
@@ -3612,7 +3612,7 @@
         <v>11989686442.97081</v>
       </c>
       <c r="F140">
-        <v>4192157.300135178</v>
+        <v>-4192157.300135178</v>
       </c>
       <c r="G140">
         <v>205.7198180589327</v>
@@ -3635,7 +3635,7 @@
         <v>5357166275.682172</v>
       </c>
       <c r="F141">
-        <v>73365016.91506253</v>
+        <v>-73365016.91506253</v>
       </c>
       <c r="G141">
         <v>557.4672882490107</v>
@@ -3658,7 +3658,7 @@
         <v>7550263722.149791</v>
       </c>
       <c r="F142">
-        <v>-5231827.185733397</v>
+        <v>5231827.185733397</v>
       </c>
       <c r="G142">
         <v>140.6045061678527</v>
@@ -3681,7 +3681,7 @@
         <v>6499194775.788782</v>
       </c>
       <c r="F143">
-        <v>63704048.90448733</v>
+        <v>-63704048.90448733</v>
       </c>
       <c r="G143">
         <v>549.4571242738238</v>
@@ -3704,7 +3704,7 @@
         <v>11709799281.48086</v>
       </c>
       <c r="F144">
-        <v>11767047.0369142</v>
+        <v>-11767047.0369142</v>
       </c>
       <c r="G144">
         <v>414.6831450819184</v>
@@ -3727,7 +3727,7 @@
         <v>8486841868.498534</v>
       </c>
       <c r="F145">
-        <v>24557776.87316553</v>
+        <v>-24557776.87316553</v>
       </c>
       <c r="G145">
         <v>519.2157442921462</v>
@@ -3750,7 +3750,7 @@
         <v>10382454373.46235</v>
       </c>
       <c r="F146">
-        <v>17357029.61000842</v>
+        <v>-17357029.61000842</v>
       </c>
       <c r="G146">
         <v>501.2889690035408</v>
@@ -3773,7 +3773,7 @@
         <v>12141746973.97937</v>
       </c>
       <c r="F147">
-        <v>7869201.182299123</v>
+        <v>-7869201.182299123</v>
       </c>
       <c r="G147">
         <v>372.595456089051</v>
@@ -3796,7 +3796,7 @@
         <v>10734302222.78239</v>
       </c>
       <c r="F148">
-        <v>14799714.47886929</v>
+        <v>-14799714.47886929</v>
       </c>
       <c r="G148">
         <v>413.3331222706581</v>
@@ -3819,7 +3819,7 @@
         <v>12967687713.93533</v>
       </c>
       <c r="F149">
-        <v>9042681.817730691</v>
+        <v>-9042681.817730691</v>
       </c>
       <c r="G149">
         <v>395.0374591750795</v>
@@ -3842,7 +3842,7 @@
         <v>5217585901.814314</v>
       </c>
       <c r="F150">
-        <v>28117945.07311838</v>
+        <v>-28117945.07311838</v>
       </c>
       <c r="G150">
         <v>539.9353231382562</v>
@@ -3865,7 +3865,7 @@
         <v>10922222733.97431</v>
       </c>
       <c r="F151">
-        <v>15338981.41843395</v>
+        <v>-15338981.41843395</v>
       </c>
       <c r="G151">
         <v>429.3649716223846</v>
@@ -3888,7 +3888,7 @@
         <v>3114656976.93574</v>
       </c>
       <c r="F152">
-        <v>367665834.911483</v>
+        <v>-367665834.911483</v>
       </c>
       <c r="G152">
         <v>703.8480779650433</v>
@@ -3911,7 +3911,7 @@
         <v>8834633591.545847</v>
       </c>
       <c r="F153">
-        <v>26189932.0407669</v>
+        <v>-26189932.0407669</v>
       </c>
       <c r="G153">
         <v>519.1791656285195</v>
@@ -3934,7 +3934,7 @@
         <v>12803574953.95595</v>
       </c>
       <c r="F154">
-        <v>9880701.13207834</v>
+        <v>-9880701.13207834</v>
       </c>
       <c r="G154">
         <v>340.3123212836119</v>
@@ -3957,7 +3957,7 @@
         <v>7638669779.545975</v>
       </c>
       <c r="F155">
-        <v>39702579.89995347</v>
+        <v>-39702579.89995347</v>
       </c>
       <c r="G155">
         <v>490.0303992407331</v>
@@ -3980,7 +3980,7 @@
         <v>6505538133.629124</v>
       </c>
       <c r="F156">
-        <v>32166149.9072182</v>
+        <v>-32166149.9072182</v>
       </c>
       <c r="G156">
         <v>517.2171929760651</v>
@@ -4003,7 +4003,7 @@
         <v>3722585579.749247</v>
       </c>
       <c r="F157">
-        <v>171717254.0896718</v>
+        <v>-171717254.0896718</v>
       </c>
       <c r="G157">
         <v>597.5479325376913</v>
@@ -4026,7 +4026,7 @@
         <v>7569734722.561796</v>
       </c>
       <c r="F158">
-        <v>31503722.14269883</v>
+        <v>-31503722.14269883</v>
       </c>
       <c r="G158">
         <v>516.9982386881812</v>
@@ -4049,7 +4049,7 @@
         <v>9835886170.377907</v>
       </c>
       <c r="F159">
-        <v>-3310283.353837809</v>
+        <v>3310283.353837809</v>
       </c>
       <c r="G159">
         <v>74.59465487300163</v>
@@ -4072,7 +4072,7 @@
         <v>14125888016.79154</v>
       </c>
       <c r="F160">
-        <v>8103001.370698667</v>
+        <v>-8103001.370698667</v>
       </c>
       <c r="G160">
         <v>447.3674607553189</v>
@@ -4095,7 +4095,7 @@
         <v>13022276869.73432</v>
       </c>
       <c r="F161">
-        <v>3797962.74363583</v>
+        <v>-3797962.74363583</v>
       </c>
       <c r="G161">
         <v>246.4911865977916</v>
@@ -4118,7 +4118,7 @@
         <v>2710103470.659324</v>
       </c>
       <c r="F162">
-        <v>27837535.0133892</v>
+        <v>-27837535.0133892</v>
       </c>
       <c r="G162">
         <v>641.4636615118862</v>
@@ -4141,7 +4141,7 @@
         <v>10023297965.74026</v>
       </c>
       <c r="F163">
-        <v>18650091.3927904</v>
+        <v>-18650091.3927904</v>
       </c>
       <c r="G163">
         <v>508.8058949962946</v>
@@ -4164,7 +4164,7 @@
         <v>13135640650.21904</v>
       </c>
       <c r="F164">
-        <v>6570350.084674701</v>
+        <v>-6570350.084674701</v>
       </c>
       <c r="G164">
         <v>314.3535067409522</v>
@@ -4187,7 +4187,7 @@
         <v>15977071050.12762</v>
       </c>
       <c r="F165">
-        <v>5032005.68936869</v>
+        <v>-5032005.68936869</v>
       </c>
       <c r="G165">
         <v>411.260583732821</v>
@@ -4210,7 +4210,7 @@
         <v>15918382172.06753</v>
       </c>
       <c r="F166">
-        <v>5510986.002642492</v>
+        <v>-5510986.002642492</v>
       </c>
       <c r="G166">
         <v>422.4302103327851</v>
@@ -4233,7 +4233,7 @@
         <v>6619638097.257519</v>
       </c>
       <c r="F167">
-        <v>50739804.61292195</v>
+        <v>-50739804.61292195</v>
       </c>
       <c r="G167">
         <v>485.1834988164658</v>
@@ -4256,7 +4256,7 @@
         <v>12360060888.92305</v>
       </c>
       <c r="F168">
-        <v>10685300.02188325</v>
+        <v>-10685300.02188325</v>
       </c>
       <c r="G168">
         <v>399.3487262362295</v>
@@ -4279,7 +4279,7 @@
         <v>1306177988.807577</v>
       </c>
       <c r="F169">
-        <v>-46600732.58203628</v>
+        <v>46600732.58203628</v>
       </c>
       <c r="G169">
         <v>614.2584235759223</v>
@@ -4302,7 +4302,7 @@
         <v>4651815203.089018</v>
       </c>
       <c r="F170">
-        <v>89965096.61527938</v>
+        <v>-89965096.61527938</v>
       </c>
       <c r="G170">
         <v>595.810304460068</v>
@@ -4325,7 +4325,7 @@
         <v>14784546670.91646</v>
       </c>
       <c r="F171">
-        <v>2992602.764418385</v>
+        <v>-2992602.764418385</v>
       </c>
       <c r="G171">
         <v>388.5713691400574</v>
@@ -4348,7 +4348,7 @@
         <v>3126428420.177254</v>
       </c>
       <c r="F172">
-        <v>38633463.43907055</v>
+        <v>-38633463.43907055</v>
       </c>
       <c r="G172">
         <v>636.1004480173411</v>
@@ -4371,7 +4371,7 @@
         <v>11202909959.73729</v>
       </c>
       <c r="F173">
-        <v>-2110626.258592449</v>
+        <v>2110626.258592449</v>
       </c>
       <c r="G173">
         <v>196.949620428969</v>
@@ -4394,7 +4394,7 @@
         <v>1373798496.731372</v>
       </c>
       <c r="F174">
-        <v>71835567.56832862</v>
+        <v>-71835567.56832862</v>
       </c>
       <c r="G174">
         <v>669.3904356366385</v>
@@ -4417,7 +4417,7 @@
         <v>2330698961.694452</v>
       </c>
       <c r="F175">
-        <v>511160649.9937</v>
+        <v>-511160649.9937</v>
       </c>
       <c r="G175">
         <v>742.448428838096</v>
@@ -4440,7 +4440,7 @@
         <v>13882933541.68882</v>
       </c>
       <c r="F176">
-        <v>5673291.077407782</v>
+        <v>-5673291.077407782</v>
       </c>
       <c r="G176">
         <v>314.8919959077166</v>
@@ -4463,7 +4463,7 @@
         <v>8514532137.6654</v>
       </c>
       <c r="F177">
-        <v>33855656.10957447</v>
+        <v>-33855656.10957447</v>
       </c>
       <c r="G177">
         <v>500.1802131727463</v>
@@ -4486,7 +4486,7 @@
         <v>4842457172.657739</v>
       </c>
       <c r="F178">
-        <v>58508118.79221967</v>
+        <v>-58508118.79221967</v>
       </c>
       <c r="G178">
         <v>600.5486337546013</v>
@@ -4509,7 +4509,7 @@
         <v>12590909595.68492</v>
       </c>
       <c r="F179">
-        <v>11939727.53198911</v>
+        <v>-11939727.53198911</v>
       </c>
       <c r="G179">
         <v>424.5330561625467</v>
@@ -4532,7 +4532,7 @@
         <v>4660942873.512526</v>
       </c>
       <c r="F180">
-        <v>62274035.04002401</v>
+        <v>-62274035.04002401</v>
       </c>
       <c r="G180">
         <v>669.7457880486612</v>
@@ -4555,7 +4555,7 @@
         <v>1526690484.806616</v>
       </c>
       <c r="F181">
-        <v>221607823.0460393</v>
+        <v>-221607823.0460393</v>
       </c>
       <c r="G181">
         <v>703.0330618523579</v>
@@ -4578,7 +4578,7 @@
         <v>12914418430.17832</v>
       </c>
       <c r="F182">
-        <v>7541722.333241968</v>
+        <v>-7541722.333241968</v>
       </c>
       <c r="G182">
         <v>329.0620903396443</v>
@@ -4601,7 +4601,7 @@
         <v>13646285042.88204</v>
       </c>
       <c r="F183">
-        <v>5335899.772438633</v>
+        <v>-5335899.772438633</v>
       </c>
       <c r="G183">
         <v>367.7020108115853</v>
@@ -4624,7 +4624,7 @@
         <v>4353498554.83496</v>
       </c>
       <c r="F184">
-        <v>40829335.3814453</v>
+        <v>-40829335.3814453</v>
       </c>
       <c r="G184">
         <v>645.8085397330899</v>
@@ -4647,7 +4647,7 @@
         <v>11149734484.12477</v>
       </c>
       <c r="F185">
-        <v>14357162.42865377</v>
+        <v>-14357162.42865377</v>
       </c>
       <c r="G185">
         <v>461.5632895720748</v>
@@ -4670,7 +4670,7 @@
         <v>5153111374.358268</v>
       </c>
       <c r="F186">
-        <v>51987300.25461452</v>
+        <v>-51987300.25461452</v>
       </c>
       <c r="G186">
         <v>572.3916342336527</v>
@@ -4693,7 +4693,7 @@
         <v>8143067522.921221</v>
       </c>
       <c r="F187">
-        <v>29021.51807901958</v>
+        <v>-29021.51807901958</v>
       </c>
       <c r="G187">
         <v>199.8942695846278</v>
@@ -4716,7 +4716,7 @@
         <v>12673378352.46169</v>
       </c>
       <c r="F188">
-        <v>9970075.815367874</v>
+        <v>-9970075.815367874</v>
       </c>
       <c r="G188">
         <v>394.1876027371848</v>
@@ -4739,7 +4739,7 @@
         <v>12905788411.36051</v>
       </c>
       <c r="F189">
-        <v>5549750.559369981</v>
+        <v>-5549750.559369981</v>
       </c>
       <c r="G189">
         <v>388.2370871417029</v>
@@ -4762,7 +4762,7 @@
         <v>1567365596.041324</v>
       </c>
       <c r="F190">
-        <v>189201983.6063914</v>
+        <v>-189201983.6063914</v>
       </c>
       <c r="G190">
         <v>670.853001182327</v>
@@ -4785,7 +4785,7 @@
         <v>12367094891.97452</v>
       </c>
       <c r="F191">
-        <v>4287876.176824187</v>
+        <v>-4287876.176824187</v>
       </c>
       <c r="G191">
         <v>310.2846618025884</v>
@@ -4808,7 +4808,7 @@
         <v>5906249874.502076</v>
       </c>
       <c r="F192">
-        <v>42117111.40188096</v>
+        <v>-42117111.40188096</v>
       </c>
       <c r="G192">
         <v>603.7486770689545</v>
@@ -4831,7 +4831,7 @@
         <v>4232863799.839677</v>
       </c>
       <c r="F193">
-        <v>64447134.53422201</v>
+        <v>-64447134.53422201</v>
       </c>
       <c r="G193">
         <v>675.2201181398445</v>
@@ -4854,7 +4854,7 @@
         <v>4121562916.146234</v>
       </c>
       <c r="F194">
-        <v>27183168.07370747</v>
+        <v>-27183168.07370747</v>
       </c>
       <c r="G194">
         <v>679.641627236473</v>
@@ -4877,7 +4877,7 @@
         <v>11359712290.86633</v>
       </c>
       <c r="F195">
-        <v>8282724.400745911</v>
+        <v>-8282724.400745911</v>
       </c>
       <c r="G195">
         <v>347.5401751906177</v>
@@ -4900,7 +4900,7 @@
         <v>1843734540.786068</v>
       </c>
       <c r="F196">
-        <v>403643587.2450528</v>
+        <v>-403643587.2450528</v>
       </c>
       <c r="G196">
         <v>716.9384274599745</v>
@@ -4923,7 +4923,7 @@
         <v>7275768074.80712</v>
       </c>
       <c r="F197">
-        <v>31436809.1602902</v>
+        <v>-31436809.1602902</v>
       </c>
       <c r="G197">
         <v>577.9470411635199</v>
@@ -4946,7 +4946,7 @@
         <v>9792396432.13871</v>
       </c>
       <c r="F198">
-        <v>19591069.811365</v>
+        <v>-19591069.811365</v>
       </c>
       <c r="G198">
         <v>515.7032952568153</v>
@@ -4969,7 +4969,7 @@
         <v>8437118594.548758</v>
       </c>
       <c r="F199">
-        <v>23515322.06017706</v>
+        <v>-23515322.06017706</v>
       </c>
       <c r="G199">
         <v>554.0746100250157</v>
@@ -4992,7 +4992,7 @@
         <v>11237963008.76139</v>
       </c>
       <c r="F200">
-        <v>-184435.4658979074</v>
+        <v>184435.4658979074</v>
       </c>
       <c r="G200">
         <v>202.9405577513195</v>
@@ -5015,7 +5015,7 @@
         <v>11979661081.62338</v>
       </c>
       <c r="F201">
-        <v>11214074.06338916</v>
+        <v>-11214074.06338916</v>
       </c>
       <c r="G201">
         <v>405.7239565693343</v>
@@ -5038,7 +5038,7 @@
         <v>10581415454.18473</v>
       </c>
       <c r="F202">
-        <v>2919471.34472396</v>
+        <v>-2919471.34472396</v>
       </c>
       <c r="G202">
         <v>191.8756990250914</v>
@@ -5061,7 +5061,7 @@
         <v>12045073924.69949</v>
       </c>
       <c r="F203">
-        <v>13759448.8602562</v>
+        <v>-13759448.8602562</v>
       </c>
       <c r="G203">
         <v>410.6429861223715</v>
@@ -5084,7 +5084,7 @@
         <v>8252685756.299269</v>
       </c>
       <c r="F204">
-        <v>25912469.66578241</v>
+        <v>-25912469.66578241</v>
       </c>
       <c r="G204">
         <v>514.4222097389581</v>
@@ -5107,7 +5107,7 @@
         <v>12311670360.79078</v>
       </c>
       <c r="F205">
-        <v>3151584.137868674</v>
+        <v>-3151584.137868674</v>
       </c>
       <c r="G205">
         <v>224.1082449474177</v>
@@ -5130,7 +5130,7 @@
         <v>10445730066.95593</v>
       </c>
       <c r="F206">
-        <v>1981927.47004629</v>
+        <v>-1981927.47004629</v>
       </c>
       <c r="G206">
         <v>163.6712040033631</v>
@@ -5153,7 +5153,7 @@
         <v>3405315274.532257</v>
       </c>
       <c r="F207">
-        <v>313219047.5269222</v>
+        <v>-313219047.5269222</v>
       </c>
       <c r="G207">
         <v>681.4650208204075</v>
@@ -5176,7 +5176,7 @@
         <v>4272510666.098863</v>
       </c>
       <c r="F208">
-        <v>114104281.716613</v>
+        <v>-114104281.716613</v>
       </c>
       <c r="G208">
         <v>593.8109273766565</v>
@@ -5199,7 +5199,7 @@
         <v>3015684467.253445</v>
       </c>
       <c r="F209">
-        <v>368992270.7923399</v>
+        <v>-368992270.7923399</v>
       </c>
       <c r="G209">
         <v>680.3187193694172</v>
@@ -5222,7 +5222,7 @@
         <v>11833387629.67553</v>
       </c>
       <c r="F210">
-        <v>2400122.787641696</v>
+        <v>-2400122.787641696</v>
       </c>
       <c r="G210">
         <v>195.3759338266332</v>
@@ -5245,7 +5245,7 @@
         <v>12805598397.73617</v>
       </c>
       <c r="F211">
-        <v>4056788.930199686</v>
+        <v>-4056788.930199686</v>
       </c>
       <c r="G211">
         <v>244.0830023639354</v>
@@ -5268,7 +5268,7 @@
         <v>12719578267.37571</v>
       </c>
       <c r="F212">
-        <v>7216303.456150872</v>
+        <v>-7216303.456150872</v>
       </c>
       <c r="G212">
         <v>329.8148435956174</v>
@@ -5291,7 +5291,7 @@
         <v>12778905358.26233</v>
       </c>
       <c r="F213">
-        <v>5864642.394640255</v>
+        <v>-5864642.394640255</v>
       </c>
       <c r="G213">
         <v>324.3643904619492</v>
@@ -5314,7 +5314,7 @@
         <v>12682549762.33303</v>
       </c>
       <c r="F214">
-        <v>3993042.750522017</v>
+        <v>-3993042.750522017</v>
       </c>
       <c r="G214">
         <v>253.341683606782</v>
@@ -5337,7 +5337,7 @@
         <v>12780577453.09915</v>
       </c>
       <c r="F215">
-        <v>6092841.79958324</v>
+        <v>-6092841.79958324</v>
       </c>
       <c r="G215">
         <v>350.2090231170371</v>
@@ -5360,7 +5360,7 @@
         <v>10549583470.00189</v>
       </c>
       <c r="F216">
-        <v>15901347.64161203</v>
+        <v>-15901347.64161203</v>
       </c>
       <c r="G216">
         <v>468.488853923797</v>
@@ -5383,7 +5383,7 @@
         <v>7176422338.194611</v>
       </c>
       <c r="F217">
-        <v>31235422.19830094</v>
+        <v>-31235422.19830094</v>
       </c>
       <c r="G217">
         <v>558.9896774259148</v>
@@ -5406,7 +5406,7 @@
         <v>3433859714.865366</v>
       </c>
       <c r="F218">
-        <v>34472865.50839001</v>
+        <v>-34472865.50839001</v>
       </c>
       <c r="G218">
         <v>622.2980323971223</v>
@@ -5429,7 +5429,7 @@
         <v>10281167968.48408</v>
       </c>
       <c r="F219">
-        <v>910345.1037276204</v>
+        <v>-910345.1037276204</v>
       </c>
       <c r="G219">
         <v>171.6432888880289</v>
@@ -5452,7 +5452,7 @@
         <v>3296325462.464709</v>
       </c>
       <c r="F220">
-        <v>26152691.87105436</v>
+        <v>-26152691.87105436</v>
       </c>
       <c r="G220">
         <v>645.7820504085362</v>
@@ -5475,7 +5475,7 @@
         <v>12740007782.15816</v>
       </c>
       <c r="F221">
-        <v>4013588.423720449</v>
+        <v>-4013588.423720449</v>
       </c>
       <c r="G221">
         <v>250.7075251640749</v>
@@ -5498,7 +5498,7 @@
         <v>12150301122.18524</v>
       </c>
       <c r="F222">
-        <v>3127837.764221967</v>
+        <v>-3127837.764221967</v>
       </c>
       <c r="G222">
         <v>293.1000200226537</v>
@@ -5521,7 +5521,7 @@
         <v>9859693207.608702</v>
       </c>
       <c r="F223">
-        <v>201477.6097796771</v>
+        <v>-201477.6097796771</v>
       </c>
       <c r="G223">
         <v>175.4917888145211</v>
@@ -5544,7 +5544,7 @@
         <v>6989428374.619141</v>
       </c>
       <c r="F224">
-        <v>-3236133.423616712</v>
+        <v>3236133.423616712</v>
       </c>
       <c r="G224">
         <v>196.7330270168722</v>
@@ -5567,7 +5567,7 @@
         <v>3028331310.868876</v>
       </c>
       <c r="F225">
-        <v>6845332.131148668</v>
+        <v>-6845332.131148668</v>
       </c>
       <c r="G225">
         <v>159.3420947762234</v>
@@ -5590,7 +5590,7 @@
         <v>9087517066.428583</v>
       </c>
       <c r="F226">
-        <v>1608087.826350056</v>
+        <v>-1608087.826350056</v>
       </c>
       <c r="G226">
         <v>122.0058204779061</v>
@@ -5613,7 +5613,7 @@
         <v>5828059161.289463</v>
       </c>
       <c r="F227">
-        <v>-4986684.82166788</v>
+        <v>4986684.82166788</v>
       </c>
       <c r="G227">
         <v>196.2187752029738</v>
@@ -5636,7 +5636,7 @@
         <v>7991770743.239759</v>
       </c>
       <c r="F228">
-        <v>-1432948.503959238</v>
+        <v>1432948.503959238</v>
       </c>
       <c r="G228">
         <v>153.7699947650628</v>
@@ -5659,7 +5659,7 @@
         <v>10618267654.22149</v>
       </c>
       <c r="F229">
-        <v>5929749.582284604</v>
+        <v>-5929749.582284604</v>
       </c>
       <c r="G229">
         <v>211.9893403883534</v>
@@ -5682,7 +5682,7 @@
         <v>5156385501.395305</v>
       </c>
       <c r="F230">
-        <v>34078.86381077689</v>
+        <v>-34078.86381077689</v>
       </c>
       <c r="G230">
         <v>42.36491902258877</v>
@@ -5705,7 +5705,7 @@
         <v>6815501255.720757</v>
       </c>
       <c r="F231">
-        <v>-2008396.605063936</v>
+        <v>2008396.605063936</v>
       </c>
       <c r="G231">
         <v>153.5247981838676</v>
@@ -5728,7 +5728,7 @@
         <v>9983117073.607582</v>
       </c>
       <c r="F232">
-        <v>19837515.83290631</v>
+        <v>-19837515.83290631</v>
       </c>
       <c r="G232">
         <v>455.1863027942478</v>
@@ -5751,7 +5751,7 @@
         <v>2247083260.588636</v>
       </c>
       <c r="F233">
-        <v>-29930100.34894649</v>
+        <v>29930100.34894649</v>
       </c>
       <c r="G233">
         <v>147.8042628837914</v>
@@ -5774,7 +5774,7 @@
         <v>1528419535.869844</v>
       </c>
       <c r="F234">
-        <v>-28945235.59878176</v>
+        <v>28945235.59878176</v>
       </c>
       <c r="G234">
         <v>258.625851696873</v>
@@ -5797,7 +5797,7 @@
         <v>12001293394.51251</v>
       </c>
       <c r="F235">
-        <v>7206454.367616752</v>
+        <v>-7206454.367616752</v>
       </c>
       <c r="G235">
         <v>337.7587115346472</v>
@@ -5820,7 +5820,7 @@
         <v>3398931128.823686</v>
       </c>
       <c r="F236">
-        <v>-7284116.232829064</v>
+        <v>7284116.232829064</v>
       </c>
       <c r="G236">
         <v>211.0539491664019</v>
@@ -5843,7 +5843,7 @@
         <v>12295416466.61321</v>
       </c>
       <c r="F237">
-        <v>11165121.89909092</v>
+        <v>-11165121.89909092</v>
       </c>
       <c r="G237">
         <v>442.7230641088756</v>
@@ -5866,7 +5866,7 @@
         <v>10896165683.94891</v>
       </c>
       <c r="F238">
-        <v>2016269.830171298</v>
+        <v>-2016269.830171298</v>
       </c>
       <c r="G238">
         <v>210.6365328673202</v>
@@ -5889,7 +5889,7 @@
         <v>4186902150.103707</v>
       </c>
       <c r="F239">
-        <v>-4012881.704719041</v>
+        <v>4012881.704719041</v>
       </c>
       <c r="G239">
         <v>231.5133756899312</v>
@@ -5912,7 +5912,7 @@
         <v>4903801684.674041</v>
       </c>
       <c r="F240">
-        <v>-10836320.00220386</v>
+        <v>10836320.00220386</v>
       </c>
       <c r="G240">
         <v>226.1750588973376</v>
@@ -5935,7 +5935,7 @@
         <v>9915790039.894182</v>
       </c>
       <c r="F241">
-        <v>18036890.55653952</v>
+        <v>-18036890.55653952</v>
       </c>
       <c r="G241">
         <v>520.4067162609281</v>
@@ -5958,7 +5958,7 @@
         <v>5364632842.702776</v>
       </c>
       <c r="F242">
-        <v>-4316092.039936804</v>
+        <v>4316092.039936804</v>
       </c>
       <c r="G242">
         <v>78.80542461884487</v>
@@ -5981,7 +5981,7 @@
         <v>10598297693.42808</v>
       </c>
       <c r="F243">
-        <v>749990.8189671782</v>
+        <v>-749990.8189671782</v>
       </c>
       <c r="G243">
         <v>215.373900064697</v>
@@ -6004,7 +6004,7 @@
         <v>7659928564.075643</v>
       </c>
       <c r="F244">
-        <v>23842539.29738018</v>
+        <v>-23842539.29738018</v>
       </c>
       <c r="G244">
         <v>509.1938432839436</v>
@@ -6027,7 +6027,7 @@
         <v>3119747818.039159</v>
       </c>
       <c r="F245">
-        <v>-4723777.351215108</v>
+        <v>4723777.351215108</v>
       </c>
       <c r="G245">
         <v>131.2227948456307</v>
@@ -6050,7 +6050,7 @@
         <v>13263625019.53271</v>
       </c>
       <c r="F246">
-        <v>3722096.286740248</v>
+        <v>-3722096.286740248</v>
       </c>
       <c r="G246">
         <v>278.0852152709296</v>
@@ -6073,7 +6073,7 @@
         <v>1867823911.037834</v>
       </c>
       <c r="F247">
-        <v>-36915132.16371384</v>
+        <v>36915132.16371384</v>
       </c>
       <c r="G247">
         <v>57.69138280990988</v>
@@ -6096,7 +6096,7 @@
         <v>1691739126.604408</v>
       </c>
       <c r="F248">
-        <v>-23519326.46908582</v>
+        <v>23519326.46908582</v>
       </c>
       <c r="G248">
         <v>172.7746623561969</v>
@@ -6119,7 +6119,7 @@
         <v>12750703148.693</v>
       </c>
       <c r="F249">
-        <v>5982422.997667843</v>
+        <v>-5982422.997667843</v>
       </c>
       <c r="G249">
         <v>292.8195767894628</v>
@@ -6142,7 +6142,7 @@
         <v>3890180769.22627</v>
       </c>
       <c r="F250">
-        <v>-15353945.1101766</v>
+        <v>15353945.1101766</v>
       </c>
       <c r="G250">
         <v>135.9392874703295</v>
@@ -6165,7 +6165,7 @@
         <v>9298329284.585428</v>
       </c>
       <c r="F251">
-        <v>54868.69214878235</v>
+        <v>-54868.69214878235</v>
       </c>
       <c r="G251">
         <v>177.4710211691086</v>
@@ -6188,7 +6188,7 @@
         <v>3652379040.419583</v>
       </c>
       <c r="F252">
-        <v>-12278059.49792839</v>
+        <v>12278059.49792839</v>
       </c>
       <c r="G252">
         <v>208.7490275865416</v>
@@ -6211,7 +6211,7 @@
         <v>12297377696.15588</v>
       </c>
       <c r="F253">
-        <v>6471830.69757905</v>
+        <v>-6471830.69757905</v>
       </c>
       <c r="G253">
         <v>343.892658511731</v>
@@ -6234,7 +6234,7 @@
         <v>11728782322.6547</v>
       </c>
       <c r="F254">
-        <v>13014050.44281741</v>
+        <v>-13014050.44281741</v>
       </c>
       <c r="G254">
         <v>421.9700671478758</v>
@@ -6257,7 +6257,7 @@
         <v>4663863884.172993</v>
       </c>
       <c r="F255">
-        <v>-3843561.521302867</v>
+        <v>3843561.521302867</v>
       </c>
       <c r="G255">
         <v>203.1255855498597</v>
@@ -6280,7 +6280,7 @@
         <v>2589328248.016824</v>
       </c>
       <c r="F256">
-        <v>-25366999.64077644</v>
+        <v>25366999.64077644</v>
       </c>
       <c r="G256">
         <v>31.22372191764283</v>
@@ -6303,7 +6303,7 @@
         <v>7814001933.079844</v>
       </c>
       <c r="F257">
-        <v>-2689953.093224318</v>
+        <v>2689953.093224318</v>
       </c>
       <c r="G257">
         <v>213.3220075740043</v>
@@ -6326,7 +6326,7 @@
         <v>1102718506.925474</v>
       </c>
       <c r="F258">
-        <v>20957944.45015552</v>
+        <v>-20957944.45015552</v>
       </c>
       <c r="G258">
         <v>234.0968782828236</v>
@@ -6349,7 +6349,7 @@
         <v>8893189822.746149</v>
       </c>
       <c r="F259">
-        <v>1011347.244605607</v>
+        <v>-1011347.244605607</v>
       </c>
       <c r="G259">
         <v>187.2398782436362</v>
@@ -6372,7 +6372,7 @@
         <v>2298181086.071551</v>
       </c>
       <c r="F260">
-        <v>-77860202.31651072</v>
+        <v>77860202.31651072</v>
       </c>
       <c r="G260">
         <v>228.574673124128</v>
@@ -6395,7 +6395,7 @@
         <v>12819149730.12114</v>
       </c>
       <c r="F261">
-        <v>6538778.685229259</v>
+        <v>-6538778.685229259</v>
       </c>
       <c r="G261">
         <v>280.243787914125</v>
@@ -6418,7 +6418,7 @@
         <v>11590855192.04243</v>
       </c>
       <c r="F262">
-        <v>209442.1061749894</v>
+        <v>-209442.1061749894</v>
       </c>
       <c r="G262">
         <v>243.6829921484749</v>
@@ -6441,7 +6441,7 @@
         <v>7090627578.127073</v>
       </c>
       <c r="F263">
-        <v>-809432.1742566603</v>
+        <v>809432.1742566603</v>
       </c>
       <c r="G263">
         <v>171.0905238982596</v>
@@ -6464,7 +6464,7 @@
         <v>8406628971.141353</v>
       </c>
       <c r="F264">
-        <v>-4020000.278322522</v>
+        <v>4020000.278322522</v>
       </c>
       <c r="G264">
         <v>222.7876059399582</v>
@@ -6487,7 +6487,7 @@
         <v>2636949287.509439</v>
       </c>
       <c r="F265">
-        <v>-34856387.18156535</v>
+        <v>34856387.18156535</v>
       </c>
       <c r="G265">
         <v>196.6486787283332</v>
@@ -6510,7 +6510,7 @@
         <v>9601909371.648676</v>
       </c>
       <c r="F266">
-        <v>1108894.318185029</v>
+        <v>-1108894.318185029</v>
       </c>
       <c r="G266">
         <v>186.2218727446886</v>
@@ -6533,7 +6533,7 @@
         <v>11948453923.30882</v>
       </c>
       <c r="F267">
-        <v>7272012.683518213</v>
+        <v>-7272012.683518213</v>
       </c>
       <c r="G267">
         <v>320.0079319939016</v>
@@ -6556,7 +6556,7 @@
         <v>2817778131.22779</v>
       </c>
       <c r="F268">
-        <v>-17412012.16782926</v>
+        <v>17412012.16782926</v>
       </c>
       <c r="G268">
         <v>149.6538387839017</v>
@@ -6579,7 +6579,7 @@
         <v>1026382277.912191</v>
       </c>
       <c r="F269">
-        <v>-45201568.92786155</v>
+        <v>45201568.92786155</v>
       </c>
       <c r="G269">
         <v>247.6947321306367</v>
@@ -6602,7 +6602,7 @@
         <v>3677924007.161784</v>
       </c>
       <c r="F270">
-        <v>-9646665.104001032</v>
+        <v>9646665.104001032</v>
       </c>
       <c r="G270">
         <v>201.1155719441867</v>
@@ -6625,7 +6625,7 @@
         <v>6853346499.488369</v>
       </c>
       <c r="F271">
-        <v>-3944747.521619114</v>
+        <v>3944747.521619114</v>
       </c>
       <c r="G271">
         <v>149.4730732894459</v>
@@ -6648,7 +6648,7 @@
         <v>3144713581.889411</v>
       </c>
       <c r="F272">
-        <v>-9945805.053879214</v>
+        <v>9945805.053879214</v>
       </c>
       <c r="G272">
         <v>20.60893387877744</v>
@@ -6671,7 +6671,7 @@
         <v>4058394964.219866</v>
       </c>
       <c r="F273">
-        <v>-4667681.502057527</v>
+        <v>4667681.502057527</v>
       </c>
       <c r="G273">
         <v>210.8500893461524</v>
@@ -6694,7 +6694,7 @@
         <v>4444496096.342883</v>
       </c>
       <c r="F274">
-        <v>-8492518.165005345</v>
+        <v>8492518.165005345</v>
       </c>
       <c r="G274">
         <v>118.135329844852</v>
@@ -6717,7 +6717,7 @@
         <v>3075739332.563677</v>
       </c>
       <c r="F275">
-        <v>-26177414.23509444</v>
+        <v>26177414.23509444</v>
       </c>
       <c r="G275">
         <v>251.5675018282688</v>
@@ -6740,7 +6740,7 @@
         <v>5501225333.187243</v>
       </c>
       <c r="F276">
-        <v>-2732798.167033207</v>
+        <v>2732798.167033207</v>
       </c>
       <c r="G276">
         <v>200.2042000006331</v>
@@ -6763,7 +6763,7 @@
         <v>989760204.1558378</v>
       </c>
       <c r="F277">
-        <v>-192639497.3788427</v>
+        <v>192639497.3788427</v>
       </c>
       <c r="G277">
         <v>225.6184030490063</v>
@@ -6786,7 +6786,7 @@
         <v>1631355032.420958</v>
       </c>
       <c r="F278">
-        <v>-34740371.84954984</v>
+        <v>34740371.84954984</v>
       </c>
       <c r="G278">
         <v>128.1842017920085</v>
@@ -6809,7 +6809,7 @@
         <v>2727072752.833871</v>
       </c>
       <c r="F279">
-        <v>-17931099.33037942</v>
+        <v>17931099.33037942</v>
       </c>
       <c r="G279">
         <v>133.2113624649405</v>
@@ -6832,7 +6832,7 @@
         <v>1110320495.057286</v>
       </c>
       <c r="F280">
-        <v>-6686754.498891828</v>
+        <v>6686754.498891828</v>
       </c>
       <c r="G280">
         <v>291.9643757297873</v>
@@ -6855,7 +6855,7 @@
         <v>10442866379.15743</v>
       </c>
       <c r="F281">
-        <v>2066486.197056184</v>
+        <v>-2066486.197056184</v>
       </c>
       <c r="G281">
         <v>250.9434522490381</v>
@@ -6878,7 +6878,7 @@
         <v>2910596616.173574</v>
       </c>
       <c r="F282">
-        <v>4730770.867157295</v>
+        <v>-4730770.867157295</v>
       </c>
       <c r="G282">
         <v>302.1084108215355</v>
@@ -6901,7 +6901,7 @@
         <v>6557051766.791418</v>
       </c>
       <c r="F283">
-        <v>-4187252.08519888</v>
+        <v>4187252.08519888</v>
       </c>
       <c r="G283">
         <v>250.8209647597078</v>
@@ -6924,7 +6924,7 @@
         <v>9624811293.258402</v>
       </c>
       <c r="F284">
-        <v>-397448.2986713732</v>
+        <v>397448.2986713732</v>
       </c>
       <c r="G284">
         <v>240.5418226831307</v>
@@ -6947,7 +6947,7 @@
         <v>1055859612.059226</v>
       </c>
       <c r="F285">
-        <v>21834029.56178562</v>
+        <v>-21834029.56178562</v>
       </c>
       <c r="G285">
         <v>250.6844402908375</v>
@@ -6970,7 +6970,7 @@
         <v>3899666774.767416</v>
       </c>
       <c r="F286">
-        <v>-16071181.90222057</v>
+        <v>16071181.90222057</v>
       </c>
       <c r="G286">
         <v>250.6625090288727</v>
@@ -6993,7 +6993,7 @@
         <v>2796647006.734191</v>
       </c>
       <c r="F287">
-        <v>-3109556.329087359</v>
+        <v>3109556.329087359</v>
       </c>
       <c r="G287">
         <v>61.36231613344666</v>
@@ -7016,7 +7016,7 @@
         <v>10996657712.37162</v>
       </c>
       <c r="F288">
-        <v>14089576.36405749</v>
+        <v>-14089576.36405749</v>
       </c>
       <c r="G288">
         <v>531.6936311114202</v>
@@ -7039,7 +7039,7 @@
         <v>5058471582.44154</v>
       </c>
       <c r="F289">
-        <v>-681508.082006223</v>
+        <v>681508.082006223</v>
       </c>
       <c r="G289">
         <v>142.883684043463</v>
@@ -7062,7 +7062,7 @@
         <v>4334182649.244018</v>
       </c>
       <c r="F290">
-        <v>1174579.329471263</v>
+        <v>-1174579.329471263</v>
       </c>
       <c r="G290">
         <v>168.1676406513978</v>
@@ -7085,7 +7085,7 @@
         <v>4940771358.595871</v>
       </c>
       <c r="F291">
-        <v>-17880455.45545046</v>
+        <v>17880455.45545046</v>
       </c>
       <c r="G291">
         <v>126.9422904632902</v>
@@ -7108,7 +7108,7 @@
         <v>12381135127.01262</v>
       </c>
       <c r="F292">
-        <v>6550174.385248312</v>
+        <v>-6550174.385248312</v>
       </c>
       <c r="G292">
         <v>279.1217893847889</v>
@@ -7131,7 +7131,7 @@
         <v>4191046733.494698</v>
       </c>
       <c r="F293">
-        <v>-2581349.139524592</v>
+        <v>2581349.139524592</v>
       </c>
       <c r="G293">
         <v>5.07393544957745</v>
@@ -7154,7 +7154,7 @@
         <v>13955890224.08709</v>
       </c>
       <c r="F294">
-        <v>1159099.325523965</v>
+        <v>-1159099.325523965</v>
       </c>
       <c r="G294">
         <v>395.1378745460425</v>
@@ -7177,7 +7177,7 @@
         <v>10766575342.90373</v>
       </c>
       <c r="F295">
-        <v>2033420.228375565</v>
+        <v>-2033420.228375565</v>
       </c>
       <c r="G295">
         <v>217.4082874196293</v>
@@ -7200,7 +7200,7 @@
         <v>10489331473.43997</v>
       </c>
       <c r="F296">
-        <v>2477687.205762073</v>
+        <v>-2477687.205762073</v>
       </c>
       <c r="G296">
         <v>197.1214749586593</v>
@@ -7223,7 +7223,7 @@
         <v>10669998090.33092</v>
       </c>
       <c r="F297">
-        <v>16573513.59625077</v>
+        <v>-16573513.59625077</v>
       </c>
       <c r="G297">
         <v>535.7206558771211</v>
@@ -7246,7 +7246,7 @@
         <v>11437481615.95392</v>
       </c>
       <c r="F298">
-        <v>9698805.968017658</v>
+        <v>-9698805.968017658</v>
       </c>
       <c r="G298">
         <v>419.1630707102194</v>
@@ -7269,7 +7269,7 @@
         <v>11925408810.53115</v>
       </c>
       <c r="F299">
-        <v>4383808.066051207</v>
+        <v>-4383808.066051207</v>
       </c>
       <c r="G299">
         <v>317.1944770638686</v>
@@ -7292,7 +7292,7 @@
         <v>1339451500.753004</v>
       </c>
       <c r="F300">
-        <v>-28734940.94975821</v>
+        <v>28734940.94975821</v>
       </c>
       <c r="G300">
         <v>301.5570441444258</v>
@@ -7315,7 +7315,7 @@
         <v>1351231417.432497</v>
       </c>
       <c r="F301">
-        <v>-29172534.43585939</v>
+        <v>29172534.43585939</v>
       </c>
       <c r="G301">
         <v>165.6806800781056</v>
@@ -7338,7 +7338,7 @@
         <v>510351796.5584667</v>
       </c>
       <c r="F302">
-        <v>-99787320.79657586</v>
+        <v>99787320.79657586</v>
       </c>
       <c r="G302">
         <v>285.8597634298384</v>
@@ -7361,7 +7361,7 @@
         <v>12534023019.66874</v>
       </c>
       <c r="F303">
-        <v>8882016.931023909</v>
+        <v>-8882016.931023909</v>
       </c>
       <c r="G303">
         <v>360.6321903990441</v>
@@ -7384,7 +7384,7 @@
         <v>10951515210.86382</v>
       </c>
       <c r="F304">
-        <v>14447133.5133646</v>
+        <v>-14447133.5133646</v>
       </c>
       <c r="G304">
         <v>475.7439724646751</v>
@@ -7407,7 +7407,7 @@
         <v>10500226477.82729</v>
       </c>
       <c r="F305">
-        <v>12709223.6496095</v>
+        <v>-12709223.6496095</v>
       </c>
       <c r="G305">
         <v>449.3385848136188</v>
@@ -7430,7 +7430,7 @@
         <v>7979249424.670936</v>
       </c>
       <c r="F306">
-        <v>-4345107.934872659</v>
+        <v>4345107.934872659</v>
       </c>
       <c r="G306">
         <v>294.4423604351983</v>
@@ -7453,7 +7453,7 @@
         <v>12415363555.23792</v>
       </c>
       <c r="F307">
-        <v>7288189.337732968</v>
+        <v>-7288189.337732968</v>
       </c>
       <c r="G307">
         <v>369.1519057380905</v>
@@ -7476,7 +7476,7 @@
         <v>10177483256.48672</v>
       </c>
       <c r="F308">
-        <v>14013199.2687417</v>
+        <v>-14013199.2687417</v>
       </c>
       <c r="G308">
         <v>473.8641878588085</v>
@@ -7499,7 +7499,7 @@
         <v>1823829065.699931</v>
       </c>
       <c r="F309">
-        <v>27596048.03371594</v>
+        <v>-27596048.03371594</v>
       </c>
       <c r="G309">
         <v>318.879901335732</v>
@@ -7522,7 +7522,7 @@
         <v>2615749583.655995</v>
       </c>
       <c r="F310">
-        <v>-24015373.93021127</v>
+        <v>24015373.93021127</v>
       </c>
       <c r="G310">
         <v>49.79969125091323</v>
@@ -7545,7 +7545,7 @@
         <v>1676683416.738425</v>
       </c>
       <c r="F311">
-        <v>-2753664.521215137</v>
+        <v>2753664.521215137</v>
       </c>
       <c r="G311">
         <v>189.2053006797367</v>
@@ -7568,7 +7568,7 @@
         <v>8042412587.169543</v>
       </c>
       <c r="F312">
-        <v>30517707.14593407</v>
+        <v>-30517707.14593407</v>
       </c>
       <c r="G312">
         <v>587.0746341558789</v>
@@ -7591,7 +7591,7 @@
         <v>13445119218.55251</v>
       </c>
       <c r="F313">
-        <v>8370326.540323065</v>
+        <v>-8370326.540323065</v>
       </c>
       <c r="G313">
         <v>372.9553595075291</v>
@@ -7614,7 +7614,7 @@
         <v>2689074173.20319</v>
       </c>
       <c r="F314">
-        <v>-21197381.49815887</v>
+        <v>21197381.49815887</v>
       </c>
       <c r="G314">
         <v>89.40567822075303</v>
@@ -7637,7 +7637,7 @@
         <v>2746962579.036287</v>
       </c>
       <c r="F315">
-        <v>-8672385.212878132</v>
+        <v>8672385.212878132</v>
       </c>
       <c r="G315">
         <v>123.7635463544082</v>
@@ -7660,7 +7660,7 @@
         <v>11905487746.36022</v>
       </c>
       <c r="F316">
-        <v>12450086.89931176</v>
+        <v>-12450086.89931176</v>
       </c>
       <c r="G316">
         <v>395.917095359063</v>
@@ -7683,7 +7683,7 @@
         <v>7627159891.589754</v>
       </c>
       <c r="F317">
-        <v>-4366548.069340677</v>
+        <v>4366548.069340677</v>
       </c>
       <c r="G317">
         <v>247.1688666531107</v>
@@ -7706,7 +7706,7 @@
         <v>11363615989.23699</v>
       </c>
       <c r="F318">
-        <v>12808675.20513519</v>
+        <v>-12808675.20513519</v>
       </c>
       <c r="G318">
         <v>414.1751023327312</v>
@@ -7729,7 +7729,7 @@
         <v>11316270148.15133</v>
       </c>
       <c r="F319">
-        <v>3472077.322784561</v>
+        <v>-3472077.322784561</v>
       </c>
       <c r="G319">
         <v>212.000135340784</v>
@@ -7752,7 +7752,7 @@
         <v>12421367242.34694</v>
       </c>
       <c r="F320">
-        <v>-254882.8827256591</v>
+        <v>254882.8827256591</v>
       </c>
       <c r="G320">
         <v>251.2890166721456</v>
@@ -7775,7 +7775,7 @@
         <v>8558354679.616647</v>
       </c>
       <c r="F321">
-        <v>-1633582.998557557</v>
+        <v>1633582.998557557</v>
       </c>
       <c r="G321">
         <v>127.8782649479058</v>
@@ -7798,7 +7798,7 @@
         <v>5460009466.793177</v>
       </c>
       <c r="F322">
-        <v>-3540763.158393706</v>
+        <v>3540763.158393706</v>
       </c>
       <c r="G322">
         <v>196.7122525614102</v>
@@ -7821,7 +7821,7 @@
         <v>9667578175.065166</v>
       </c>
       <c r="F323">
-        <v>498305.7785261101</v>
+        <v>-498305.7785261101</v>
       </c>
       <c r="G323">
         <v>206.4702262821356</v>
@@ -7844,7 +7844,7 @@
         <v>4557888930.522683</v>
       </c>
       <c r="F324">
-        <v>-16583372.46383609</v>
+        <v>16583372.46383609</v>
       </c>
       <c r="G324">
         <v>147.4405356400202</v>
@@ -7867,7 +7867,7 @@
         <v>2401448478.774716</v>
       </c>
       <c r="F325">
-        <v>-22421123.90685183</v>
+        <v>22421123.90685183</v>
       </c>
       <c r="G325">
         <v>186.6959607134303</v>
@@ -7890,7 +7890,7 @@
         <v>3512015559.437302</v>
       </c>
       <c r="F326">
-        <v>-21658919.88904367</v>
+        <v>21658919.88904367</v>
       </c>
       <c r="G326">
         <v>-9.818281462614754</v>
@@ -7913,7 +7913,7 @@
         <v>2049494032.412061</v>
       </c>
       <c r="F327">
-        <v>-38225340.4178875</v>
+        <v>38225340.4178875</v>
       </c>
       <c r="G327">
         <v>142.01341913711</v>
@@ -7936,7 +7936,7 @@
         <v>12689612245.63659</v>
       </c>
       <c r="F328">
-        <v>3540413.588581478</v>
+        <v>-3540413.588581478</v>
       </c>
       <c r="G328">
         <v>273.8901437581127</v>
@@ -7959,7 +7959,7 @@
         <v>2799485789.374488</v>
       </c>
       <c r="F329">
-        <v>86964651.28316088</v>
+        <v>-86964651.28316088</v>
       </c>
       <c r="G329">
         <v>678.8696866891216</v>
@@ -7982,7 +7982,7 @@
         <v>14012350167.0482</v>
       </c>
       <c r="F330">
-        <v>7724419.872112893</v>
+        <v>-7724419.872112893</v>
       </c>
       <c r="G330">
         <v>380.9249129044233</v>
@@ -8005,7 +8005,7 @@
         <v>3345069457.0417</v>
       </c>
       <c r="F331">
-        <v>77785583.60000248</v>
+        <v>-77785583.60000248</v>
       </c>
       <c r="G331">
         <v>659.2182479698313</v>
@@ -8028,7 +8028,7 @@
         <v>15033746421.19675</v>
       </c>
       <c r="F332">
-        <v>2179549.673213859</v>
+        <v>-2179549.673213859</v>
       </c>
       <c r="G332">
         <v>311.810785737741</v>
@@ -8051,7 +8051,7 @@
         <v>13201911266.28087</v>
       </c>
       <c r="F333">
-        <v>7634507.67255867</v>
+        <v>-7634507.67255867</v>
       </c>
       <c r="G333">
         <v>321.2357993535135</v>
@@ -8074,7 +8074,7 @@
         <v>12317003272.46349</v>
       </c>
       <c r="F334">
-        <v>3337415.493938887</v>
+        <v>-3337415.493938887</v>
       </c>
       <c r="G334">
         <v>262.5039473108753</v>
@@ -8097,7 +8097,7 @@
         <v>13830118339.5256</v>
       </c>
       <c r="F335">
-        <v>8428371.137269182</v>
+        <v>-8428371.137269182</v>
       </c>
       <c r="G335">
         <v>398.1021406184202</v>
@@ -8120,7 +8120,7 @@
         <v>14227905075.67407</v>
       </c>
       <c r="F336">
-        <v>3195038.095257245</v>
+        <v>-3195038.095257245</v>
       </c>
       <c r="G336">
         <v>320.0675594512902</v>
@@ -8143,7 +8143,7 @@
         <v>11022363957.31765</v>
       </c>
       <c r="F337">
-        <v>2220739.152609609</v>
+        <v>-2220739.152609609</v>
       </c>
       <c r="G337">
         <v>261.5439509517371</v>
@@ -8166,7 +8166,7 @@
         <v>11888421197.71374</v>
       </c>
       <c r="F338">
-        <v>7622464.384466942</v>
+        <v>-7622464.384466942</v>
       </c>
       <c r="G338">
         <v>468.8767299859279</v>
@@ -8189,7 +8189,7 @@
         <v>10517890543.49904</v>
       </c>
       <c r="F339">
-        <v>18951699.24991865</v>
+        <v>-18951699.24991865</v>
       </c>
       <c r="G339">
         <v>463.0633083425498</v>
@@ -8212,7 +8212,7 @@
         <v>11299741730.86432</v>
       </c>
       <c r="F340">
-        <v>2291136.379248552</v>
+        <v>-2291136.379248552</v>
       </c>
       <c r="G340">
         <v>279.6902830954069</v>
@@ -8235,7 +8235,7 @@
         <v>9112147055.012003</v>
       </c>
       <c r="F341">
-        <v>25895176.46467625</v>
+        <v>-25895176.46467625</v>
       </c>
       <c r="G341">
         <v>486.7228816925806</v>
@@ -8258,7 +8258,7 @@
         <v>11246854609.25177</v>
       </c>
       <c r="F342">
-        <v>11764468.7818448</v>
+        <v>-11764468.7818448</v>
       </c>
       <c r="G342">
         <v>427.975055229197</v>
@@ -8281,7 +8281,7 @@
         <v>14846790996.89622</v>
       </c>
       <c r="F343">
-        <v>2466836.580840665</v>
+        <v>-2466836.580840665</v>
       </c>
       <c r="G343">
         <v>336.1778190223142</v>
@@ -8304,7 +8304,7 @@
         <v>6781847388.380048</v>
       </c>
       <c r="F344">
-        <v>36460525.76559008</v>
+        <v>-36460525.76559008</v>
       </c>
       <c r="G344">
         <v>523.001499348122</v>
@@ -8327,7 +8327,7 @@
         <v>3480849164.915765</v>
       </c>
       <c r="F345">
-        <v>83271495.83645821</v>
+        <v>-83271495.83645821</v>
       </c>
       <c r="G345">
         <v>656.694838006605</v>
@@ -8350,7 +8350,7 @@
         <v>10023096943.77432</v>
       </c>
       <c r="F346">
-        <v>21531194.70478527</v>
+        <v>-21531194.70478527</v>
       </c>
       <c r="G346">
         <v>459.2418576381539</v>
@@ -8373,7 +8373,7 @@
         <v>14953298542.03981</v>
       </c>
       <c r="F347">
-        <v>6926871.793785607</v>
+        <v>-6926871.793785607</v>
       </c>
       <c r="G347">
         <v>381.758042844241</v>
@@ -8396,7 +8396,7 @@
         <v>12632071631.39491</v>
       </c>
       <c r="F348">
-        <v>11769442.80861209</v>
+        <v>-11769442.80861209</v>
       </c>
       <c r="G348">
         <v>437.8244903536454</v>
@@ -8419,7 +8419,7 @@
         <v>6884493956.112151</v>
       </c>
       <c r="F349">
-        <v>35292504.53356972</v>
+        <v>-35292504.53356972</v>
       </c>
       <c r="G349">
         <v>518.4216006885525</v>
@@ -8442,7 +8442,7 @@
         <v>11023058042.25396</v>
       </c>
       <c r="F350">
-        <v>14763348.81025014</v>
+        <v>-14763348.81025014</v>
       </c>
       <c r="G350">
         <v>442.2533734426983</v>
@@ -8465,7 +8465,7 @@
         <v>9562939862.65</v>
       </c>
       <c r="F351">
-        <v>-754925.4863659821</v>
+        <v>754925.4863659821</v>
       </c>
       <c r="G351">
         <v>246.928577745953</v>
@@ -8488,7 +8488,7 @@
         <v>11380291370.07478</v>
       </c>
       <c r="F352">
-        <v>2702758.691107813</v>
+        <v>-2702758.691107813</v>
       </c>
       <c r="G352">
         <v>232.5238714657339</v>
@@ -8511,7 +8511,7 @@
         <v>8088641038.087713</v>
       </c>
       <c r="F353">
-        <v>27381835.327106</v>
+        <v>-27381835.327106</v>
       </c>
       <c r="G353">
         <v>501.3428574279085</v>
@@ -8534,7 +8534,7 @@
         <v>10430600514.49866</v>
       </c>
       <c r="F354">
-        <v>3233199.247247541</v>
+        <v>-3233199.247247541</v>
       </c>
       <c r="G354">
         <v>184.3965898477051</v>
@@ -8557,7 +8557,7 @@
         <v>12973216277.58961</v>
       </c>
       <c r="F355">
-        <v>3922429.49292617</v>
+        <v>-3922429.49292617</v>
       </c>
       <c r="G355">
         <v>373.2109214823816</v>
@@ -8580,7 +8580,7 @@
         <v>7395561542.717018</v>
       </c>
       <c r="F356">
-        <v>-427209.6195042419</v>
+        <v>427209.6195042419</v>
       </c>
       <c r="G356">
         <v>113.0203798200507</v>
@@ -8603,7 +8603,7 @@
         <v>3704710244.979796</v>
       </c>
       <c r="F357">
-        <v>2409918.728945904</v>
+        <v>-2409918.728945904</v>
       </c>
       <c r="G357">
         <v>103.5966528170118</v>
@@ -8626,7 +8626,7 @@
         <v>12506265000.31371</v>
       </c>
       <c r="F358">
-        <v>6073885.954013045</v>
+        <v>-6073885.954013045</v>
       </c>
       <c r="G358">
         <v>277.1286340804427</v>
@@ -8649,7 +8649,7 @@
         <v>3205790552.841436</v>
       </c>
       <c r="F359">
-        <v>-16696418.08448537</v>
+        <v>16696418.08448537</v>
       </c>
       <c r="G359">
         <v>122.0293335120035</v>
@@ -8672,7 +8672,7 @@
         <v>6630910522.559899</v>
       </c>
       <c r="F360">
-        <v>-4808875.471577702</v>
+        <v>4808875.471577702</v>
       </c>
       <c r="G360">
         <v>229.7329948318014</v>
@@ -8695,7 +8695,7 @@
         <v>2954065593.074745</v>
       </c>
       <c r="F361">
-        <v>49566298.6596772</v>
+        <v>-49566298.6596772</v>
       </c>
       <c r="G361">
         <v>651.5832568196157</v>
@@ -8718,7 +8718,7 @@
         <v>4536393233.336523</v>
       </c>
       <c r="F362">
-        <v>50421833.47258341</v>
+        <v>-50421833.47258341</v>
       </c>
       <c r="G362">
         <v>594.7361399262213</v>
@@ -8741,7 +8741,7 @@
         <v>9307800823.4429</v>
       </c>
       <c r="F363">
-        <v>20422152.50991127</v>
+        <v>-20422152.50991127</v>
       </c>
       <c r="G363">
         <v>472.3873972143959</v>
@@ -8764,7 +8764,7 @@
         <v>6053397654.657803</v>
       </c>
       <c r="F364">
-        <v>42010462.2615065</v>
+        <v>-42010462.2615065</v>
       </c>
       <c r="G364">
         <v>542.2366920214278</v>
@@ -8787,7 +8787,7 @@
         <v>3166040119.89288</v>
       </c>
       <c r="F365">
-        <v>-20062529.20130051</v>
+        <v>20062529.20130051</v>
       </c>
       <c r="G365">
         <v>233.4315987165931</v>
@@ -8810,7 +8810,7 @@
         <v>10974887381.89085</v>
       </c>
       <c r="F366">
-        <v>12579516.83244504</v>
+        <v>-12579516.83244504</v>
       </c>
       <c r="G366">
         <v>382.8096812041815</v>
@@ -8833,7 +8833,7 @@
         <v>5708228788.672423</v>
       </c>
       <c r="F367">
-        <v>64932027.94484177</v>
+        <v>-64932027.94484177</v>
       </c>
       <c r="G367">
         <v>560.0870455224909</v>
@@ -8856,7 +8856,7 @@
         <v>4891833407.858776</v>
       </c>
       <c r="F368">
-        <v>90150894.77902985</v>
+        <v>-90150894.77902985</v>
       </c>
       <c r="G368">
         <v>568.5810489098885</v>
@@ -8879,7 +8879,7 @@
         <v>3163299084.607537</v>
       </c>
       <c r="F369">
-        <v>-13251098.36659904</v>
+        <v>13251098.36659904</v>
       </c>
       <c r="G369">
         <v>162.9765853665559</v>
@@ -8902,7 +8902,7 @@
         <v>13869775358.03662</v>
       </c>
       <c r="F370">
-        <v>5665370.027981409</v>
+        <v>-5665370.027981409</v>
       </c>
       <c r="G370">
         <v>406.895651647155</v>
@@ -8925,7 +8925,7 @@
         <v>2508076262.359835</v>
       </c>
       <c r="F371">
-        <v>-14270431.72750136</v>
+        <v>14270431.72750136</v>
       </c>
       <c r="G371">
         <v>678.3287192218567</v>
@@ -8948,7 +8948,7 @@
         <v>11899147860.60353</v>
       </c>
       <c r="F372">
-        <v>9023166.110623879</v>
+        <v>-9023166.110623879</v>
       </c>
       <c r="G372">
         <v>369.0740403721263</v>
@@ -8971,7 +8971,7 @@
         <v>14846282057.65637</v>
       </c>
       <c r="F373">
-        <v>986240.9067970578</v>
+        <v>-986240.9067970578</v>
       </c>
       <c r="G373">
         <v>318.2052429697663</v>
@@ -8994,7 +8994,7 @@
         <v>1343684328.225561</v>
       </c>
       <c r="F374">
-        <v>-17808104.12537283</v>
+        <v>17808104.12537283</v>
       </c>
       <c r="G374">
         <v>142.7272816474987</v>
@@ -9017,7 +9017,7 @@
         <v>13888958087.78277</v>
       </c>
       <c r="F375">
-        <v>4102308.351346817</v>
+        <v>-4102308.351346817</v>
       </c>
       <c r="G375">
         <v>354.0402472986774</v>
@@ -9040,7 +9040,7 @@
         <v>2098704886.396751</v>
       </c>
       <c r="F376">
-        <v>-31856808.35245714</v>
+        <v>31856808.35245714</v>
       </c>
       <c r="G376">
         <v>233.3019545104987</v>
@@ -9063,7 +9063,7 @@
         <v>3469584948.927464</v>
       </c>
       <c r="F377">
-        <v>-20031807.26950025</v>
+        <v>20031807.26950025</v>
       </c>
       <c r="G377">
         <v>333.6817578340248</v>
@@ -9086,7 +9086,7 @@
         <v>10741197770.21745</v>
       </c>
       <c r="F378">
-        <v>10289526.79977641</v>
+        <v>-10289526.79977641</v>
       </c>
       <c r="G378">
         <v>437.9842358258773</v>
@@ -9109,7 +9109,7 @@
         <v>6781429250.844815</v>
       </c>
       <c r="F379">
-        <v>-369953.7463990645</v>
+        <v>369953.7463990645</v>
       </c>
       <c r="G379">
         <v>241.3630972534624</v>
@@ -9132,7 +9132,7 @@
         <v>3204548479.936498</v>
       </c>
       <c r="F380">
-        <v>-3719109.553093203</v>
+        <v>3719109.553093203</v>
       </c>
       <c r="G380">
         <v>145.5053018729194</v>
@@ -9155,7 +9155,7 @@
         <v>5581282764.728048</v>
       </c>
       <c r="F381">
-        <v>62014925.11118027</v>
+        <v>-62014925.11118027</v>
       </c>
       <c r="G381">
         <v>586.4258116898707</v>
@@ -9178,7 +9178,7 @@
         <v>9102090185.950563</v>
       </c>
       <c r="F382">
-        <v>14514621.34765114</v>
+        <v>-14514621.34765114</v>
       </c>
       <c r="G382">
         <v>559.0690713101734</v>
@@ -9201,7 +9201,7 @@
         <v>6399037030.390108</v>
       </c>
       <c r="F383">
-        <v>-3539894.703825359</v>
+        <v>3539894.703825359</v>
       </c>
       <c r="G383">
         <v>267.5968796027918</v>
@@ -9224,7 +9224,7 @@
         <v>12563549280.80945</v>
       </c>
       <c r="F384">
-        <v>4753925.450748739</v>
+        <v>-4753925.450748739</v>
       </c>
       <c r="G384">
         <v>435.34043757306</v>
@@ -9247,7 +9247,7 @@
         <v>6283692500.929295</v>
       </c>
       <c r="F385">
-        <v>-2129965.376865087</v>
+        <v>2129965.376865087</v>
       </c>
       <c r="G385">
         <v>239.7669510445183</v>
@@ -9270,7 +9270,7 @@
         <v>7415337182.884626</v>
       </c>
       <c r="F386">
-        <v>-945234.3396702323</v>
+        <v>945234.3396702323</v>
       </c>
       <c r="G386">
         <v>180.8873104808309</v>
@@ -9293,7 +9293,7 @@
         <v>6682589851.132745</v>
       </c>
       <c r="F387">
-        <v>-1400603.725012753</v>
+        <v>1400603.725012753</v>
       </c>
       <c r="G387">
         <v>203.3182170645693</v>
@@ -9316,7 +9316,7 @@
         <v>11520420245.40657</v>
       </c>
       <c r="F388">
-        <v>9016174.033531202</v>
+        <v>-9016174.033531202</v>
       </c>
       <c r="G388">
         <v>334.328522039182</v>
@@ -9339,7 +9339,7 @@
         <v>7098847314.927449</v>
       </c>
       <c r="F389">
-        <v>-6347115.569358299</v>
+        <v>6347115.569358299</v>
       </c>
       <c r="G389">
         <v>158.1198337144403</v>
@@ -9362,7 +9362,7 @@
         <v>3341946036.579381</v>
       </c>
       <c r="F390">
-        <v>-11249100.11776005</v>
+        <v>11249100.11776005</v>
       </c>
       <c r="G390">
         <v>225.449654349734</v>
@@ -9385,7 +9385,7 @@
         <v>3003120981.404699</v>
       </c>
       <c r="F391">
-        <v>-5602085.67968562</v>
+        <v>5602085.67968562</v>
       </c>
       <c r="G391">
         <v>189.1807318217273</v>
@@ -9408,7 +9408,7 @@
         <v>2075463188.252383</v>
       </c>
       <c r="F392">
-        <v>-2184599.835463396</v>
+        <v>2184599.835463396</v>
       </c>
       <c r="G392">
         <v>188.7958040917876</v>
@@ -9431,7 +9431,7 @@
         <v>1189833101.197466</v>
       </c>
       <c r="F393">
-        <v>22726227.2518142</v>
+        <v>-22726227.2518142</v>
       </c>
       <c r="G393">
         <v>143.4126634726172</v>
@@ -9454,7 +9454,7 @@
         <v>921055694.790382</v>
       </c>
       <c r="F394">
-        <v>-54643399.9457631</v>
+        <v>54643399.9457631</v>
       </c>
       <c r="G394">
         <v>201.5300055623515</v>
@@ -9477,7 +9477,7 @@
         <v>2269971915.899831</v>
       </c>
       <c r="F395">
-        <v>-27727450.96783087</v>
+        <v>27727450.96783087</v>
       </c>
       <c r="G395">
         <v>161.0586828614334</v>
@@ -9500,7 +9500,7 @@
         <v>11617561877.23574</v>
       </c>
       <c r="F396">
-        <v>120159.9502042219</v>
+        <v>-120159.9502042219</v>
       </c>
       <c r="G396">
         <v>281.6666207710454</v>
@@ -9523,7 +9523,7 @@
         <v>1849652005.153118</v>
       </c>
       <c r="F397">
-        <v>-29654335.74323343</v>
+        <v>29654335.74323343</v>
       </c>
       <c r="G397">
         <v>210.1036115224865</v>
@@ -9546,7 +9546,7 @@
         <v>10147540515.60598</v>
       </c>
       <c r="F398">
-        <v>2002497.87381213</v>
+        <v>-2002497.87381213</v>
       </c>
       <c r="G398">
         <v>236.9033910424936</v>
@@ -9569,7 +9569,7 @@
         <v>1749073654.666918</v>
       </c>
       <c r="F399">
-        <v>-63548672.92859666</v>
+        <v>63548672.92859666</v>
       </c>
       <c r="G399">
         <v>84.89811937545133</v>
@@ -9592,7 +9592,7 @@
         <v>5925674612.860806</v>
       </c>
       <c r="F400">
-        <v>-1782974.531947648</v>
+        <v>1782974.531947648</v>
       </c>
       <c r="G400">
         <v>245.6520027616339</v>
@@ -9615,7 +9615,7 @@
         <v>6466847073.592945</v>
       </c>
       <c r="F401">
-        <v>-6504217.715117049</v>
+        <v>6504217.715117049</v>
       </c>
       <c r="G401">
         <v>178.5212873107702</v>
@@ -9638,7 +9638,7 @@
         <v>4296664902.39156</v>
       </c>
       <c r="F402">
-        <v>-2748436.596176813</v>
+        <v>2748436.596176813</v>
       </c>
       <c r="G402">
         <v>151.7238001688008</v>
@@ -9661,7 +9661,7 @@
         <v>4843420705.339406</v>
       </c>
       <c r="F403">
-        <v>-5182053.485208192</v>
+        <v>5182053.485208192</v>
       </c>
       <c r="G403">
         <v>204.9950168773173</v>
@@ -9684,7 +9684,7 @@
         <v>10675475455.60962</v>
       </c>
       <c r="F404">
-        <v>4997624.731516102</v>
+        <v>-4997624.731516102</v>
       </c>
       <c r="G404">
         <v>302.9771127943011</v>
@@ -9707,7 +9707,7 @@
         <v>2357809041.239516</v>
       </c>
       <c r="F405">
-        <v>-22449607.34670368</v>
+        <v>22449607.34670368</v>
       </c>
       <c r="G405">
         <v>146.9151142995059</v>
@@ -9730,7 +9730,7 @@
         <v>7035922992.018658</v>
       </c>
       <c r="F406">
-        <v>-186800.6687725699</v>
+        <v>186800.6687725699</v>
       </c>
       <c r="G406">
         <v>209.2089770606141</v>
@@ -9753,7 +9753,7 @@
         <v>5893112517.811577</v>
       </c>
       <c r="F407">
-        <v>-2612029.405499047</v>
+        <v>2612029.405499047</v>
       </c>
       <c r="G407">
         <v>111.2015072872874</v>
@@ -9776,7 +9776,7 @@
         <v>4570776091.417056</v>
       </c>
       <c r="F408">
-        <v>-1496550.362886542</v>
+        <v>1496550.362886542</v>
       </c>
       <c r="G408">
         <v>226.7994110915046</v>
@@ -9799,7 +9799,7 @@
         <v>2572297064.373842</v>
       </c>
       <c r="F409">
-        <v>-26641952.6582154</v>
+        <v>26641952.6582154</v>
       </c>
       <c r="G409">
         <v>182.1781209483723</v>
@@ -9822,7 +9822,7 @@
         <v>1472772815.01032</v>
       </c>
       <c r="F410">
-        <v>-43203877.10277835</v>
+        <v>43203877.10277835</v>
       </c>
       <c r="G410">
         <v>226.5495520036302</v>
@@ -9845,7 +9845,7 @@
         <v>12326018475.64012</v>
       </c>
       <c r="F411">
-        <v>11844508.54755271</v>
+        <v>-11844508.54755271</v>
       </c>
       <c r="G411">
         <v>448.4444291037528</v>
@@ -9868,7 +9868,7 @@
         <v>8869183995.713091</v>
       </c>
       <c r="F412">
-        <v>1729172.915443693</v>
+        <v>-1729172.915443693</v>
       </c>
       <c r="G412">
         <v>239.6716607563876</v>
@@ -9891,7 +9891,7 @@
         <v>1586076246.070092</v>
       </c>
       <c r="F413">
-        <v>15747787.06813077</v>
+        <v>-15747787.06813077</v>
       </c>
       <c r="G413">
         <v>150.887468741358</v>
@@ -9914,7 +9914,7 @@
         <v>3211753353.620571</v>
       </c>
       <c r="F414">
-        <v>247274.2370536211</v>
+        <v>-247274.2370536211</v>
       </c>
       <c r="G414">
         <v>212.0680331192632</v>
@@ -9937,7 +9937,7 @@
         <v>6707027149.956857</v>
       </c>
       <c r="F415">
-        <v>-740634.2348484639</v>
+        <v>740634.2348484639</v>
       </c>
       <c r="G415">
         <v>207.5533754041792</v>
@@ -9960,7 +9960,7 @@
         <v>3807395514.217355</v>
       </c>
       <c r="F416">
-        <v>-4885683.158617209</v>
+        <v>4885683.158617209</v>
       </c>
       <c r="G416">
         <v>145.5916979046763</v>
@@ -9983,7 +9983,7 @@
         <v>5635938770.166121</v>
       </c>
       <c r="F417">
-        <v>-150705.3712828445</v>
+        <v>150705.3712828445</v>
       </c>
       <c r="G417">
         <v>149.7667556265442</v>
@@ -10006,7 +10006,7 @@
         <v>4313395597.11251</v>
       </c>
       <c r="F418">
-        <v>-12668182.9316761</v>
+        <v>12668182.9316761</v>
       </c>
       <c r="G418">
         <v>180.5939073269799</v>
@@ -10029,7 +10029,7 @@
         <v>11022729315.73971</v>
       </c>
       <c r="F419">
-        <v>-1193487.487687052</v>
+        <v>1193487.487687052</v>
       </c>
       <c r="G419">
         <v>277.3930404527628</v>
@@ -10052,7 +10052,7 @@
         <v>10925497589.57991</v>
       </c>
       <c r="F420">
-        <v>5119502.304992794</v>
+        <v>-5119502.304992794</v>
       </c>
       <c r="G420">
         <v>259.6504080836066</v>
@@ -10075,7 +10075,7 @@
         <v>11500540566.43847</v>
       </c>
       <c r="F421">
-        <v>7269538.578155664</v>
+        <v>-7269538.578155664</v>
       </c>
       <c r="G421">
         <v>351.1233776749401</v>
@@ -10098,7 +10098,7 @@
         <v>5008989771.091767</v>
       </c>
       <c r="F422">
-        <v>-7329714.429775923</v>
+        <v>7329714.429775923</v>
       </c>
       <c r="G422">
         <v>149.0437688032002</v>
@@ -10121,7 +10121,7 @@
         <v>9283108393.589682</v>
       </c>
       <c r="F423">
-        <v>-2389180.875809909</v>
+        <v>2389180.875809909</v>
       </c>
       <c r="G423">
         <v>293.5826203511812</v>
@@ -10144,7 +10144,7 @@
         <v>9081272908.763472</v>
       </c>
       <c r="F424">
-        <v>4481801.999388166</v>
+        <v>-4481801.999388166</v>
       </c>
       <c r="G424">
         <v>275.9401075279162</v>
@@ -10167,7 +10167,7 @@
         <v>11555138054.32149</v>
       </c>
       <c r="F425">
-        <v>9118477.395269874</v>
+        <v>-9118477.395269874</v>
       </c>
       <c r="G425">
         <v>306.5566569396331</v>
@@ -10190,7 +10190,7 @@
         <v>11697158721.71951</v>
       </c>
       <c r="F426">
-        <v>11068378.07657321</v>
+        <v>-11068378.07657321</v>
       </c>
       <c r="G426">
         <v>384.7386568464726</v>
@@ -10213,7 +10213,7 @@
         <v>6445370256.299841</v>
       </c>
       <c r="F427">
-        <v>344849.0434468603</v>
+        <v>-344849.0434468603</v>
       </c>
       <c r="G427">
         <v>161.7158574597413</v>
@@ -10236,7 +10236,7 @@
         <v>10984208057.37715</v>
       </c>
       <c r="F428">
-        <v>5374098.654890883</v>
+        <v>-5374098.654890883</v>
       </c>
       <c r="G428">
         <v>270.9477890440778</v>
@@ -10259,7 +10259,7 @@
         <v>11398016353.14199</v>
       </c>
       <c r="F429">
-        <v>5708945.619972014</v>
+        <v>-5708945.619972014</v>
       </c>
       <c r="G429">
         <v>320.6526643654252</v>
@@ -10282,7 +10282,7 @@
         <v>10466949285.08228</v>
       </c>
       <c r="F430">
-        <v>16426917.3157606</v>
+        <v>-16426917.3157606</v>
       </c>
       <c r="G430">
         <v>483.3189935356198</v>
@@ -10305,7 +10305,7 @@
         <v>11123712111.03624</v>
       </c>
       <c r="F431">
-        <v>12031421.49191038</v>
+        <v>-12031421.49191038</v>
       </c>
       <c r="G431">
         <v>480.9888311674453</v>
@@ -10328,7 +10328,7 @@
         <v>11267464611.97781</v>
       </c>
       <c r="F432">
-        <v>5142448.261422534</v>
+        <v>-5142448.261422534</v>
       </c>
       <c r="G432">
         <v>363.9393555399216</v>
@@ -10351,7 +10351,7 @@
         <v>11335290326.72852</v>
       </c>
       <c r="F433">
-        <v>7696068.337145343</v>
+        <v>-7696068.337145343</v>
       </c>
       <c r="G433">
         <v>371.2789986395435</v>
@@ -10374,7 +10374,7 @@
         <v>10819819332.62493</v>
       </c>
       <c r="F434">
-        <v>2536512.074496774</v>
+        <v>-2536512.074496774</v>
       </c>
       <c r="G434">
         <v>298.3238391989815</v>
@@ -10397,7 +10397,7 @@
         <v>11460216963.4004</v>
       </c>
       <c r="F435">
-        <v>6685394.032770485</v>
+        <v>-6685394.032770485</v>
       </c>
       <c r="G435">
         <v>386.7432372292913</v>
@@ -10420,7 +10420,7 @@
         <v>6409794568.045595</v>
       </c>
       <c r="F436">
-        <v>31341712.43832516</v>
+        <v>-31341712.43832516</v>
       </c>
       <c r="G436">
         <v>569.6966819413633</v>
@@ -10443,7 +10443,7 @@
         <v>11017776580.05437</v>
       </c>
       <c r="F437">
-        <v>6281192.555164498</v>
+        <v>-6281192.555164498</v>
       </c>
       <c r="G437">
         <v>312.5088202088724</v>
@@ -10466,7 +10466,7 @@
         <v>10748158308.72359</v>
       </c>
       <c r="F438">
-        <v>3740366.220730961</v>
+        <v>-3740366.220730961</v>
       </c>
       <c r="G438">
         <v>255.1003504786072</v>
@@ -10489,7 +10489,7 @@
         <v>11466576984.6684</v>
       </c>
       <c r="F439">
-        <v>4791894.335482059</v>
+        <v>-4791894.335482059</v>
       </c>
       <c r="G439">
         <v>331.2752944979538</v>
@@ -10512,7 +10512,7 @@
         <v>8916908999.446501</v>
       </c>
       <c r="F440">
-        <v>3898809.766295747</v>
+        <v>-3898809.766295747</v>
       </c>
       <c r="G440">
         <v>265.7637351744941</v>
@@ -10535,7 +10535,7 @@
         <v>7265738821.196564</v>
       </c>
       <c r="F441">
-        <v>723038.6445987809</v>
+        <v>-723038.6445987809</v>
       </c>
       <c r="G441">
         <v>297.8026173230223</v>
@@ -10558,7 +10558,7 @@
         <v>8186886089.921233</v>
       </c>
       <c r="F442">
-        <v>-3049782.608079666</v>
+        <v>3049782.608079666</v>
       </c>
       <c r="G442">
         <v>293.2220547212236</v>
@@ -10581,7 +10581,7 @@
         <v>3674645835.497848</v>
       </c>
       <c r="F443">
-        <v>-11544543.90291288</v>
+        <v>11544543.90291288</v>
       </c>
       <c r="G443">
         <v>224.5752912276861</v>
@@ -10604,7 +10604,7 @@
         <v>4110653387.928495</v>
       </c>
       <c r="F444">
-        <v>-1304245.876438956</v>
+        <v>1304245.876438956</v>
       </c>
       <c r="G444">
         <v>152.3328571949302</v>
@@ -10627,7 +10627,7 @@
         <v>3172024463.29296</v>
       </c>
       <c r="F445">
-        <v>-18005734.95848579</v>
+        <v>18005734.95848579</v>
       </c>
       <c r="G445">
         <v>264.3816239301195</v>
@@ -10650,7 +10650,7 @@
         <v>11097295206.72467</v>
       </c>
       <c r="F446">
-        <v>8414010.256969824</v>
+        <v>-8414010.256969824</v>
       </c>
       <c r="G446">
         <v>380.055767460319</v>
@@ -10673,7 +10673,7 @@
         <v>5853123079.947883</v>
       </c>
       <c r="F447">
-        <v>28131770.25731316</v>
+        <v>-28131770.25731316</v>
       </c>
       <c r="G447">
         <v>575.8217596913773</v>
@@ -10696,7 +10696,7 @@
         <v>5250288921.769056</v>
       </c>
       <c r="F448">
-        <v>-4754515.597482095</v>
+        <v>4754515.597482095</v>
       </c>
       <c r="G448">
         <v>207.8396045337686</v>
@@ -10719,7 +10719,7 @@
         <v>4239965114.322686</v>
       </c>
       <c r="F449">
-        <v>-13393157.529569</v>
+        <v>13393157.529569</v>
       </c>
       <c r="G449">
         <v>267.5263343763079</v>
@@ -10742,7 +10742,7 @@
         <v>10945928959.82665</v>
       </c>
       <c r="F450">
-        <v>8883305.050764252</v>
+        <v>-8883305.050764252</v>
       </c>
       <c r="G450">
         <v>347.3270143878042</v>
@@ -10765,7 +10765,7 @@
         <v>5279304336.256651</v>
       </c>
       <c r="F451">
-        <v>25364803.20749626</v>
+        <v>-25364803.20749626</v>
       </c>
       <c r="G451">
         <v>590.5598290749705</v>
@@ -10788,7 +10788,7 @@
         <v>9909655380.49449</v>
       </c>
       <c r="F452">
-        <v>14348686.88454142</v>
+        <v>-14348686.88454142</v>
       </c>
       <c r="G452">
         <v>473.573156164945</v>
@@ -10811,7 +10811,7 @@
         <v>2286064314.158804</v>
       </c>
       <c r="F453">
-        <v>-17837008.30877105</v>
+        <v>17837008.30877105</v>
       </c>
       <c r="G453">
         <v>254.3311806618962</v>
@@ -10834,7 +10834,7 @@
         <v>4563876809.994122</v>
       </c>
       <c r="F454">
-        <v>-4533049.852747462</v>
+        <v>4533049.852747462</v>
       </c>
       <c r="G454">
         <v>266.0418701200632</v>
@@ -10857,7 +10857,7 @@
         <v>4114797871.081561</v>
       </c>
       <c r="F455">
-        <v>2092482.607439377</v>
+        <v>-2092482.607439377</v>
       </c>
       <c r="G455">
         <v>202.1047878190345</v>
@@ -10880,7 +10880,7 @@
         <v>10838088226.61301</v>
       </c>
       <c r="F456">
-        <v>10431137.36630133</v>
+        <v>-10431137.36630133</v>
       </c>
       <c r="G456">
         <v>407.8548308927116</v>
@@ -10903,7 +10903,7 @@
         <v>7236817728.679172</v>
       </c>
       <c r="F457">
-        <v>20900110.94964657</v>
+        <v>-20900110.94964657</v>
       </c>
       <c r="G457">
         <v>553.1148020513306</v>
@@ -10926,7 +10926,7 @@
         <v>5354467001.628204</v>
       </c>
       <c r="F458">
-        <v>206971.5823852211</v>
+        <v>-206971.5823852211</v>
       </c>
       <c r="G458">
         <v>252.7762893361213</v>
@@ -10949,7 +10949,7 @@
         <v>2929229253.075706</v>
       </c>
       <c r="F459">
-        <v>-7025126.649697298</v>
+        <v>7025126.649697298</v>
       </c>
       <c r="G459">
         <v>247.8570795854087</v>
@@ -10972,7 +10972,7 @@
         <v>11129793591.47611</v>
       </c>
       <c r="F460">
-        <v>8565384.619439717</v>
+        <v>-8565384.619439717</v>
       </c>
       <c r="G460">
         <v>388.7105124995614</v>
@@ -10995,7 +10995,7 @@
         <v>6054903719.335782</v>
       </c>
       <c r="F461">
-        <v>-3859324.550525118</v>
+        <v>3859324.550525118</v>
       </c>
       <c r="G461">
         <v>252.3775826414882</v>
@@ -11018,7 +11018,7 @@
         <v>11674325695.3803</v>
       </c>
       <c r="F462">
-        <v>1470143.36189985</v>
+        <v>-1470143.36189985</v>
       </c>
       <c r="G462">
         <v>322.0932017271632</v>
@@ -11041,7 +11041,7 @@
         <v>746917741.67029</v>
       </c>
       <c r="F463">
-        <v>-83022753.6611363</v>
+        <v>83022753.6611363</v>
       </c>
       <c r="G463">
         <v>162.682376215862</v>
@@ -11064,7 +11064,7 @@
         <v>4707608786.898621</v>
       </c>
       <c r="F464">
-        <v>-2175223.226688494</v>
+        <v>2175223.226688494</v>
       </c>
       <c r="G464">
         <v>278.6015051092205</v>
@@ -11087,7 +11087,7 @@
         <v>4015161257.194639</v>
       </c>
       <c r="F465">
-        <v>-10378232.68453361</v>
+        <v>10378232.68453361</v>
       </c>
       <c r="G465">
         <v>263.0869463685414</v>
@@ -11110,7 +11110,7 @@
         <v>8554097016.054304</v>
       </c>
       <c r="F466">
-        <v>2614382.829637098</v>
+        <v>-2614382.829637098</v>
       </c>
       <c r="G466">
         <v>340.2671505125766</v>
@@ -11133,7 +11133,7 @@
         <v>7353186641.309758</v>
       </c>
       <c r="F467">
-        <v>23019501.85963562</v>
+        <v>-23019501.85963562</v>
       </c>
       <c r="G467">
         <v>546.9893267614135</v>
@@ -11156,7 +11156,7 @@
         <v>3624115906.463933</v>
       </c>
       <c r="F468">
-        <v>-13816884.57671598</v>
+        <v>13816884.57671598</v>
       </c>
       <c r="G468">
         <v>230.4730780011295</v>
@@ -11179,7 +11179,7 @@
         <v>9556764967.012693</v>
       </c>
       <c r="F469">
-        <v>2595228.451017265</v>
+        <v>-2595228.451017265</v>
       </c>
       <c r="G469">
         <v>310.9220271046865</v>
@@ -11202,7 +11202,7 @@
         <v>3874967759.080205</v>
       </c>
       <c r="F470">
-        <v>-5549158.563754943</v>
+        <v>5549158.563754943</v>
       </c>
       <c r="G470">
         <v>253.2496307526172</v>
@@ -11225,7 +11225,7 @@
         <v>1687678936.339648</v>
       </c>
       <c r="F471">
-        <v>-19491802.51046773</v>
+        <v>19491802.51046773</v>
       </c>
       <c r="G471">
         <v>260.5906126537344</v>
@@ -11248,7 +11248,7 @@
         <v>6977380148.974051</v>
       </c>
       <c r="F472">
-        <v>22756674.38876458</v>
+        <v>-22756674.38876458</v>
       </c>
       <c r="G472">
         <v>566.3427617277607</v>
@@ -11271,7 +11271,7 @@
         <v>3058126861.048535</v>
       </c>
       <c r="F473">
-        <v>-5283553.176603395</v>
+        <v>5283553.176603395</v>
       </c>
       <c r="G473">
         <v>168.1068377486629</v>
@@ -11294,7 +11294,7 @@
         <v>5557685890.200953</v>
       </c>
       <c r="F474">
-        <v>3119533.451478652</v>
+        <v>-3119533.451478652</v>
       </c>
       <c r="G474">
         <v>240.3662823221559</v>
@@ -11317,7 +11317,7 @@
         <v>13048368414.91627</v>
       </c>
       <c r="F475">
-        <v>5482678.654874719</v>
+        <v>-5482678.654874719</v>
       </c>
       <c r="G475">
         <v>310.5855443248964</v>
@@ -11340,7 +11340,7 @@
         <v>11208586428.15492</v>
       </c>
       <c r="F476">
-        <v>377379.5821357472</v>
+        <v>-377379.5821357472</v>
       </c>
       <c r="G476">
         <v>317.0300777387063</v>
@@ -11363,7 +11363,7 @@
         <v>6195298998.834575</v>
       </c>
       <c r="F477">
-        <v>27320886.8158157</v>
+        <v>-27320886.8158157</v>
       </c>
       <c r="G477">
         <v>595.9614252734825</v>
@@ -11386,7 +11386,7 @@
         <v>2393040702.621309</v>
       </c>
       <c r="F478">
-        <v>-38979025.12084102</v>
+        <v>38979025.12084102</v>
       </c>
       <c r="G478">
         <v>286.3375110689166</v>
@@ -11409,7 +11409,7 @@
         <v>5120584143.456322</v>
       </c>
       <c r="F479">
-        <v>-7587727.133988104</v>
+        <v>7587727.133988104</v>
       </c>
       <c r="G479">
         <v>256.1723205549114</v>

--- a/Project/IAG Spatially Resolved Atlas/values_SPA.xlsx
+++ b/Project/IAG Spatially Resolved Atlas/values_SPA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Emitted wavelength</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Blueshift</t>
+  </si>
+  <si>
+    <t>Line Depth</t>
   </si>
 </sst>
 </file>
@@ -392,13 +395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G479"/>
+  <dimension ref="A1:H479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,8 +423,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>4202.1078</v>
       </c>
@@ -443,8 +449,11 @@
       <c r="G2">
         <v>420.9257797480747</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>0.8797386591621212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>4203.937</v>
       </c>
@@ -466,8 +475,11 @@
       <c r="G3">
         <v>149.7558507049375</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0.748712696178348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>4206.7233</v>
       </c>
@@ -489,8 +501,11 @@
       <c r="G4">
         <v>277.9337985658759</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>0.8303536874228343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4208.3123</v>
       </c>
@@ -512,8 +527,11 @@
       <c r="G5">
         <v>334.8193889610315</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0.8880424500591345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>4209.7896</v>
       </c>
@@ -535,8 +553,11 @@
       <c r="G6">
         <v>477.1282319023201</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>0.8753567856859491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>4214.8343</v>
       </c>
@@ -558,8 +579,11 @@
       <c r="G7">
         <v>469.4443676410949</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>0.8858486581333692</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>4217.3714</v>
       </c>
@@ -581,8 +605,11 @@
       <c r="G8">
         <v>703.7429367153335</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>0.9180377149081295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>4221.5304</v>
       </c>
@@ -604,8 +631,11 @@
       <c r="G9">
         <v>376.3800984726426</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>0.8679790723885138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>4223.4023</v>
       </c>
@@ -627,8 +657,11 @@
       <c r="G10">
         <v>553.6723727340368</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>0.928980535650502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>4233.9182</v>
       </c>
@@ -650,8 +683,11 @@
       <c r="G11">
         <v>325.713734087069</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>0.8182692719924693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>4234.795</v>
       </c>
@@ -673,8 +709,11 @@
       <c r="G12">
         <v>899.066948116175</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>0.9346851758633459</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>4239.2172</v>
       </c>
@@ -696,8 +735,11 @@
       <c r="G13">
         <v>431.3848305979838</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>0.8855667768332544</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>4240.0035</v>
       </c>
@@ -719,8 +761,11 @@
       <c r="G14">
         <v>586.8573933102427</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>0.920470379930762</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>4241.0415</v>
       </c>
@@ -742,8 +787,11 @@
       <c r="G15">
         <v>367.5797045184399</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0.8801152740960432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>4259.5145</v>
       </c>
@@ -765,8 +813,11 @@
       <c r="G16">
         <v>534.9019661149667</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>0.8929743788649498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>4260.1505</v>
       </c>
@@ -788,8 +839,11 @@
       <c r="G17">
         <v>197.0397248583244</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0.7137097939913537</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>4283.6079</v>
       </c>
@@ -811,8 +865,11 @@
       <c r="G18">
         <v>685.8625151652143</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0.9365026955216839</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>4289.3523</v>
       </c>
@@ -834,8 +891,11 @@
       <c r="G19">
         <v>328.4935473026585</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0.821564853644382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>4292.671</v>
       </c>
@@ -857,8 +917,11 @@
       <c r="G20">
         <v>621.5600673992133</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>0.9077425993669637</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>4327.9699</v>
       </c>
@@ -880,8 +943,11 @@
       <c r="G21">
         <v>297.8550218957526</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>0.7826534793196006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>4338.2657</v>
       </c>
@@ -903,8 +969,11 @@
       <c r="G22">
         <v>518.2816338250062</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0.9162888007074663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>4344.9186</v>
       </c>
@@ -926,8 +995,11 @@
       <c r="G23">
         <v>255.2941025872096</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0.7658101840076471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>4347.7745</v>
       </c>
@@ -949,8 +1021,11 @@
       <c r="G24">
         <v>310.2888755791125</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>0.7812443197215735</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>4369.1311</v>
       </c>
@@ -972,8 +1047,11 @@
       <c r="G25">
         <v>480.3122538659831</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>0.8729258774983479</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>4374.7896</v>
       </c>
@@ -995,8 +1073,11 @@
       <c r="G26">
         <v>287.8146011330351</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>0.7856366453126009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>4389.1239</v>
       </c>
@@ -1018,8 +1099,11 @@
       <c r="G27">
         <v>368.8388184345498</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0.8478080794798396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>4389.6397</v>
       </c>
@@ -1041,8 +1125,11 @@
       <c r="G28">
         <v>484.8977586902467</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <v>0.8737166948479204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>4431.433</v>
       </c>
@@ -1064,8 +1151,11 @@
       <c r="G29">
         <v>297.6659728998812</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <v>0.7604046814986062</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>4431.858</v>
       </c>
@@ -1087,8 +1177,11 @@
       <c r="G30">
         <v>554.6879335489692</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <v>0.8988192177254859</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>4433.8124</v>
       </c>
@@ -1110,8 +1203,11 @@
       <c r="G31">
         <v>236.6526835544075</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31">
+        <v>0.6829994463580147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>4435.0272</v>
       </c>
@@ -1133,8 +1229,11 @@
       <c r="G32">
         <v>236.5878619838987</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <v>0.8053268289373746</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>4439.5893</v>
       </c>
@@ -1156,8 +1255,11 @@
       <c r="G33">
         <v>141.8068472985769</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33">
+        <v>0.6526839068247271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>4443.5861</v>
       </c>
@@ -1179,8 +1281,11 @@
       <c r="G34">
         <v>620.6902604093026</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34">
+        <v>0.9152122761649583</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>4444.0788</v>
       </c>
@@ -1202,8 +1307,11 @@
       <c r="G35">
         <v>229.3600998066294</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0.7920486566736112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>4446.7194</v>
       </c>
@@ -1225,8 +1333,11 @@
       <c r="G36">
         <v>269.6751748805509</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36">
+        <v>0.6101842536439906</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>4448.3788</v>
       </c>
@@ -1248,8 +1359,11 @@
       <c r="G37">
         <v>249.3564834071857</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0.8051857656071628</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>4451.5648</v>
       </c>
@@ -1271,8 +1385,11 @@
       <c r="G38">
         <v>228.9743950366214</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38">
+        <v>0.7117458846616594</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>4457.5765</v>
       </c>
@@ -1294,8 +1411,11 @@
       <c r="G39">
         <v>235.3910478027842</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39">
+        <v>0.6915226629248759</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>4459.3315</v>
       </c>
@@ -1317,8 +1437,11 @@
       <c r="G40">
         <v>255.4668429945003</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40">
+        <v>0.7605743075641704</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>4462.905</v>
       </c>
@@ -1340,8 +1463,11 @@
       <c r="G41">
         <v>812.8088637041188</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41">
+        <v>0.9183434089122136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>4470.6298</v>
       </c>
@@ -1363,8 +1489,11 @@
       <c r="G42">
         <v>509.6424402378982</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0.8867388899109457</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>4481.3936</v>
       </c>
@@ -1386,8 +1515,11 @@
       <c r="G43">
         <v>321.1063179710299</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43">
+        <v>0.7724106211931314</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>4482.8668</v>
       </c>
@@ -1409,8 +1541,11 @@
       <c r="G44">
         <v>180.5629461444882</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44">
+        <v>0.6858464231312844</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>4485.478</v>
       </c>
@@ -1432,8 +1567,11 @@
       <c r="G45">
         <v>447.8027689461618</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0.8740867156031099</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>4486.9341</v>
       </c>
@@ -1455,8 +1593,11 @@
       <c r="G46">
         <v>367.4799945611327</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46">
+        <v>0.8208776845437709</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>4490.9987</v>
       </c>
@@ -1478,8 +1619,11 @@
       <c r="G47">
         <v>507.3309597821763</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47">
+        <v>0.9037056118213894</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>4495.8241</v>
       </c>
@@ -1501,8 +1645,11 @@
       <c r="G48">
         <v>646.8195325669061</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48">
+        <v>0.9188458000498709</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>4503.8539</v>
       </c>
@@ -1524,8 +1671,11 @@
       <c r="G49">
         <v>166.4088492987254</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0.3866008661109934</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>4518.7914</v>
       </c>
@@ -1547,8 +1697,11 @@
       <c r="G50">
         <v>278.6427193197707</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50">
+        <v>0.7703387181486956</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>4526.4058</v>
       </c>
@@ -1570,8 +1723,11 @@
       <c r="G51">
         <v>556.3479631289255</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51">
+        <v>0.8754819374460251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>4532.4187</v>
       </c>
@@ -1593,8 +1749,11 @@
       <c r="G52">
         <v>674.6691499345801</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0.9035775262236376</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>4576</v>
       </c>
@@ -1616,8 +1775,11 @@
       <c r="G53">
         <v>268.6077530148755</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53">
+        <v>0.7350099557681258</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>4588.4129</v>
       </c>
@@ -1639,8 +1801,11 @@
       <c r="G54">
         <v>228.6789846124696</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54">
+        <v>0.6784707176612326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>4599.4054</v>
       </c>
@@ -1662,8 +1827,11 @@
       <c r="G55">
         <v>338.9396337718985</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55">
+        <v>0.8090185615322717</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>4604.2305</v>
       </c>
@@ -1685,8 +1853,11 @@
       <c r="G56">
         <v>670.6576304898763</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56">
+        <v>0.8973216937202337</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>4620.5818</v>
       </c>
@@ -1708,8 +1879,11 @@
       <c r="G57">
         <v>389.2918307329556</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0.8277727781888289</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>4626.3406</v>
       </c>
@@ -1731,8 +1905,11 @@
       <c r="G58">
         <v>434.1680914004986</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58">
+        <v>0.8416137181597374</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>4631.417</v>
       </c>
@@ -1754,8 +1931,11 @@
       <c r="G59">
         <v>362.4890102856461</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59">
+        <v>0.8141806091500976</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>4637.1444</v>
       </c>
@@ -1777,8 +1957,11 @@
       <c r="G60">
         <v>265.0659483337108</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60">
+        <v>0.6928727939421042</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>4638.802</v>
       </c>
@@ -1800,8 +1983,11 @@
       <c r="G61">
         <v>426.5390553607528</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61">
+        <v>0.8326779917284546</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>4644.7636</v>
       </c>
@@ -1823,8 +2009,11 @@
       <c r="G62">
         <v>348.5385721603259</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0.7806024972501133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>4648.7355</v>
       </c>
@@ -1846,8 +2035,11 @@
       <c r="G63">
         <v>444.9743291182667</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63">
+        <v>0.8562500961764069</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>4668.7597</v>
       </c>
@@ -1869,8 +2061,11 @@
       <c r="G64">
         <v>468.7508212037549</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64">
+        <v>0.8536444568442502</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>4680.1554</v>
       </c>
@@ -1892,8 +2087,11 @@
       <c r="G65">
         <v>486.8262879988054</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65">
+        <v>0.857291182021686</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>4681.6048</v>
       </c>
@@ -1915,8 +2113,11 @@
       <c r="G66">
         <v>281.7595400651596</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66">
+        <v>0.6262297650335722</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>4684.8705</v>
       </c>
@@ -1938,8 +2139,11 @@
       <c r="G67">
         <v>300.7606192795334</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67">
+        <v>0.6618478383208597</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>4708.5916</v>
       </c>
@@ -1961,8 +2165,11 @@
       <c r="G68">
         <v>541.1885568986736</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68">
+        <v>0.8589124318851744</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>4729.8685</v>
       </c>
@@ -1984,8 +2191,11 @@
       <c r="G69">
         <v>386.6352719951028</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69">
+        <v>0.7938690867900281</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>4730.3421</v>
       </c>
@@ -2007,8 +2217,11 @@
       <c r="G70">
         <v>152.103565471654</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0.4991345298393296</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>4747.1274</v>
       </c>
@@ -2030,8 +2243,11 @@
       <c r="G71">
         <v>353.6534040947407</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71">
+        <v>0.7684042625601248</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>4780.7756</v>
       </c>
@@ -2053,8 +2269,11 @@
       <c r="G72">
         <v>213.2069025311453</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72">
+        <v>0.5229238564028793</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>4788.1452</v>
       </c>
@@ -2076,8 +2295,11 @@
       <c r="G73">
         <v>394.4517984240071</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73">
+        <v>0.8164088534870499</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>4789.1654</v>
       </c>
@@ -2099,8 +2321,11 @@
       <c r="G74">
         <v>187.7941768108143</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74">
+        <v>0.4876740644249166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>4790.9897</v>
       </c>
@@ -2122,8 +2347,11 @@
       <c r="G75">
         <v>419.2472942516421</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75">
+        <v>0.8221313482413499</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>4799.6061</v>
       </c>
@@ -2145,8 +2373,11 @@
       <c r="G76">
         <v>168.6470972061475</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76">
+        <v>0.5253544179758886</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>4801.9909</v>
       </c>
@@ -2168,8 +2399,11 @@
       <c r="G77">
         <v>274.6958173502403</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77">
+        <v>0.6623105769292491</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>4809.0525</v>
       </c>
@@ -2191,8 +2425,11 @@
       <c r="G78">
         <v>274.2924547390904</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78">
+        <v>0.587218862852467</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>4837.2191</v>
       </c>
@@ -2214,8 +2451,11 @@
       <c r="G79">
         <v>216.9166997070782</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0.5799732627472048</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>4840.8967</v>
       </c>
@@ -2237,8 +2477,11 @@
       <c r="G80">
         <v>346.8030549982863</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80">
+        <v>0.7211970366081855</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>4857.0297</v>
       </c>
@@ -2260,8 +2503,11 @@
       <c r="G81">
         <v>376.5128291380712</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81">
+        <v>0.7090575026386261</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>4861.099</v>
       </c>
@@ -2283,8 +2529,11 @@
       <c r="G82">
         <v>610.5502756047948</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0.8793453162046073</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>4872.6789</v>
       </c>
@@ -2306,8 +2555,11 @@
       <c r="G83">
         <v>670.6244879635998</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83">
+        <v>0.9013135147440396</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>4873.4986</v>
       </c>
@@ -2329,8 +2581,11 @@
       <c r="G84">
         <v>652.0572418087476</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0.8922371223508457</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>4877.2394</v>
       </c>
@@ -2352,8 +2607,11 @@
       <c r="G85">
         <v>301.19149868148</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85">
+        <v>0.6668492290836959</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>4883.0812</v>
       </c>
@@ -2375,8 +2633,11 @@
       <c r="G86">
         <v>313.1099961994693</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86">
+        <v>0.7119238526230245</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>4883.5069</v>
       </c>
@@ -2398,8 +2659,11 @@
       <c r="G87">
         <v>392.8880966500864</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87">
+        <v>0.7460472168261336</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>4886.795</v>
       </c>
@@ -2421,8 +2685,11 @@
       <c r="G88">
         <v>355.8152646964811</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88">
+        <v>0.7517017559802283</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>4887.6964</v>
       </c>
@@ -2444,8 +2711,11 @@
       <c r="G89">
         <v>361.8832589915302</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89">
+        <v>0.7550679792677039</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>4892.1209</v>
       </c>
@@ -2467,8 +2737,11 @@
       <c r="G90">
         <v>618.9347908313625</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90">
+        <v>0.8997948056053549</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>4892.8584</v>
       </c>
@@ -2490,8 +2763,11 @@
       <c r="G91">
         <v>618.8414988269474</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91">
+        <v>0.9136292872785773</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>4894.2253</v>
       </c>
@@ -2513,8 +2789,11 @@
       <c r="G92">
         <v>232.76642785476</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92">
+        <v>0.5975439838206209</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>4909.1021</v>
       </c>
@@ -2536,8 +2815,11 @@
       <c r="G93">
         <v>305.3434741262351</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93">
+        <v>0.6748750701107361</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>4910.7542</v>
       </c>
@@ -2559,8 +2841,11 @@
       <c r="G94">
         <v>280.8214890136861</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94">
+        <v>0.6825713804301581</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>4911.3878</v>
       </c>
@@ -2582,8 +2867,11 @@
       <c r="G95">
         <v>408.9698371265093</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95">
+        <v>0.7839709145668129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>4911.6968</v>
       </c>
@@ -2605,8 +2893,11 @@
       <c r="G96">
         <v>390.6331781611177</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0.7481693699321313</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>4911.9359</v>
       </c>
@@ -2628,8 +2919,11 @@
       <c r="G97">
         <v>384.5108168893962</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0.7365628135844482</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>4918.6028</v>
       </c>
@@ -2651,8 +2945,11 @@
       <c r="G98">
         <v>286.4684565991175</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98">
+        <v>0.6804148572440983</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>4919.3855</v>
       </c>
@@ -2674,8 +2971,11 @@
       <c r="G99">
         <v>219.3877363176368</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0.6060579973590594</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>4921.8768</v>
       </c>
@@ -2697,8 +2997,11 @@
       <c r="G100">
         <v>621.2839523717316</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0.921071058316754</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>4926.1443</v>
       </c>
@@ -2720,8 +3023,11 @@
       <c r="G101">
         <v>523.3738562432578</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="H101">
+        <v>0.821472652747837</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>4939.5522</v>
       </c>
@@ -2743,8 +3049,11 @@
       <c r="G102">
         <v>352.0149572303775</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0.7489655451128316</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>4940.1923</v>
       </c>
@@ -2766,8 +3075,11 @@
       <c r="G103">
         <v>606.8437012180223</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0.8527192965992141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>4941.0654</v>
       </c>
@@ -2789,8 +3101,11 @@
       <c r="G104">
         <v>546.0628232056733</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="H104">
+        <v>0.8491216195357875</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>4947.0177</v>
       </c>
@@ -2812,8 +3127,11 @@
       <c r="G105">
         <v>169.6818028425222</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="H105">
+        <v>0.4838016924799176</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>4947.7686</v>
       </c>
@@ -2835,8 +3153,11 @@
       <c r="G106">
         <v>508.9681532508874</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="H106">
+        <v>0.8071353558196513</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>4951.4876</v>
       </c>
@@ -2858,8 +3179,11 @@
       <c r="G107">
         <v>345.1118428330054</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="H107">
+        <v>0.7403304411567413</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>4967.4747</v>
       </c>
@@ -2881,8 +3205,11 @@
       <c r="G108">
         <v>567.30014252463</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="H108">
+        <v>0.844326646881619</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>4969.2836</v>
       </c>
@@ -2904,8 +3231,11 @@
       <c r="G109">
         <v>434.3695935401912</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="H109">
+        <v>0.7609090127340565</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>4971.3044</v>
       </c>
@@ -2927,8 +3257,11 @@
       <c r="G110">
         <v>361.8275211944923</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="H110">
+        <v>0.7447557560289856</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>4971.8828</v>
       </c>
@@ -2950,8 +3283,11 @@
       <c r="G111">
         <v>289.428342609861</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="H111">
+        <v>0.6370136085299584</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>4983.8901</v>
       </c>
@@ -2973,8 +3309,11 @@
       <c r="G112">
         <v>517.3097895519192</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="H112">
+        <v>0.8468090952332923</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>4984.6411</v>
       </c>
@@ -2996,8 +3335,11 @@
       <c r="G113">
         <v>457.0886118432708</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="H113">
+        <v>0.8175133018182108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>4985.2434</v>
       </c>
@@ -3019,8 +3361,11 @@
       <c r="G114">
         <v>541.2237488989177</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="H114">
+        <v>0.8370378768954065</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>4986.6438</v>
       </c>
@@ -3042,8 +3387,11 @@
       <c r="G115">
         <v>468.9288560410837</v>
       </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="H115">
+        <v>0.8163024037643201</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>4987.6138</v>
       </c>
@@ -3065,8 +3413,11 @@
       <c r="G116">
         <v>228.4080897259217</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="H116">
+        <v>0.5462601285278765</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>4990.3419</v>
       </c>
@@ -3088,8 +3439,11 @@
       <c r="G117">
         <v>396.4919162247787</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="H117">
+        <v>0.7781577339076411</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>4992.6608</v>
       </c>
@@ -3111,8 +3465,11 @@
       <c r="G118">
         <v>402.3124239570178</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="H118">
+        <v>0.772420618937437</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>4995.5228</v>
       </c>
@@ -3134,8 +3491,11 @@
       <c r="G119">
         <v>648.1320726640671</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="H119">
+        <v>0.8568798187925261</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>5000.5071</v>
       </c>
@@ -3157,8 +3517,11 @@
       <c r="G120">
         <v>113.909581325338</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="H120">
+        <v>0.374418684945979</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>5003.2589</v>
       </c>
@@ -3180,8 +3543,11 @@
       <c r="G121">
         <v>557.2507669958649</v>
       </c>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="H121">
+        <v>0.855292008588283</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122">
         <v>5004.1883</v>
       </c>
@@ -3203,8 +3569,11 @@
       <c r="G122">
         <v>389.4040072806783</v>
       </c>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="H122">
+        <v>0.7515000938532119</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123">
         <v>5005.4402</v>
       </c>
@@ -3226,8 +3595,11 @@
       <c r="G123">
         <v>209.6266383939193</v>
       </c>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="H123">
+        <v>0.539179559299829</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124">
         <v>5007.1086</v>
       </c>
@@ -3249,8 +3621,11 @@
       <c r="G124">
         <v>526.8856422683017</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="H124">
+        <v>0.8471808253999096</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>5016.3412</v>
       </c>
@@ -3272,8 +3647,11 @@
       <c r="G125">
         <v>531.8922237942238</v>
       </c>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="H125">
+        <v>0.8322402011036238</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126">
         <v>5023.6362</v>
       </c>
@@ -3295,8 +3673,11 @@
       <c r="G126">
         <v>495.3140120929924</v>
       </c>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="H126">
+        <v>0.8100424194730144</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>5024.5876</v>
       </c>
@@ -3318,8 +3699,11 @@
       <c r="G127">
         <v>131.2631921423011</v>
       </c>
-    </row>
-    <row r="128" spans="1:7">
+      <c r="H127">
+        <v>0.4354980829097452</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128">
         <v>5029.1588</v>
       </c>
@@ -3341,8 +3725,11 @@
       <c r="G128">
         <v>256.3266782031861</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="H128">
+        <v>0.6090934309477531</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>5029.5286</v>
       </c>
@@ -3364,8 +3751,11 @@
       <c r="G129">
         <v>429.1666017403272</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="H129">
+        <v>0.7770234049437367</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>5031.0203</v>
       </c>
@@ -3387,8 +3777,11 @@
       <c r="G130">
         <v>244.3140763600454</v>
       </c>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="H130">
+        <v>0.5814699288102826</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>5032.1816</v>
       </c>
@@ -3410,8 +3803,11 @@
       <c r="G131">
         <v>142.9801140968682</v>
       </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="H131">
+        <v>0.2661876790722415</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>5045.6179</v>
       </c>
@@ -3433,8 +3829,11 @@
       <c r="G132">
         <v>386.2066084853685</v>
       </c>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="H132">
+        <v>0.7475411076972691</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>5056.0519</v>
       </c>
@@ -3456,8 +3855,11 @@
       <c r="G133">
         <v>195.6694928810959</v>
       </c>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="H133">
+        <v>0.4609639689790187</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>5070.1789</v>
       </c>
@@ -3479,8 +3881,11 @@
       <c r="G134">
         <v>549.8957560367161</v>
       </c>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="H134">
+        <v>0.8478931892729015</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>5074.0862</v>
       </c>
@@ -3502,8 +3907,11 @@
       <c r="G135">
         <v>295.4152197930109</v>
       </c>
-    </row>
-    <row r="136" spans="1:7">
+      <c r="H135">
+        <v>0.6718089219455455</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>5080.3906</v>
       </c>
@@ -3525,8 +3933,11 @@
       <c r="G136">
         <v>483.8797543895105</v>
       </c>
-    </row>
-    <row r="137" spans="1:7">
+      <c r="H136">
+        <v>0.797563945451028</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>5084.7555</v>
       </c>
@@ -3548,8 +3959,11 @@
       <c r="G137">
         <v>672.1334036531405</v>
       </c>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="H137">
+        <v>0.8562221996798296</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>5092.1929</v>
       </c>
@@ -3571,8 +3985,11 @@
       <c r="G138">
         <v>423.885296576584</v>
       </c>
-    </row>
-    <row r="139" spans="1:7">
+      <c r="H138">
+        <v>0.7766541755500417</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>5100.1192</v>
       </c>
@@ -3594,8 +4011,11 @@
       <c r="G139">
         <v>581.9364641927928</v>
       </c>
-    </row>
-    <row r="140" spans="1:7">
+      <c r="H139">
+        <v>0.8346256617895024</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>5100.4984</v>
       </c>
@@ -3617,8 +4037,11 @@
       <c r="G140">
         <v>205.7198180589327</v>
       </c>
-    </row>
-    <row r="141" spans="1:7">
+      <c r="H140">
+        <v>0.5811203322790391</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>5108.8708</v>
       </c>
@@ -3640,8 +4063,11 @@
       <c r="G141">
         <v>557.4672882490107</v>
       </c>
-    </row>
-    <row r="142" spans="1:7">
+      <c r="H141">
+        <v>0.849262856413401</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>5117.2037</v>
       </c>
@@ -3663,8 +4089,11 @@
       <c r="G142">
         <v>140.6045061678527</v>
       </c>
-    </row>
-    <row r="143" spans="1:7">
+      <c r="H142">
+        <v>0.2984698530348242</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>5128.788</v>
       </c>
@@ -3686,8 +4115,11 @@
       <c r="G143">
         <v>549.4571242738238</v>
       </c>
-    </row>
-    <row r="144" spans="1:7">
+      <c r="H143">
+        <v>0.8407363754475672</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>5132.8984</v>
       </c>
@@ -3709,8 +4141,11 @@
       <c r="G144">
         <v>414.6831450819184</v>
       </c>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="H144">
+        <v>0.7873530160644492</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145">
         <v>5138.8135</v>
       </c>
@@ -3732,8 +4167,11 @@
       <c r="G145">
         <v>519.2157442921462</v>
       </c>
-    </row>
-    <row r="146" spans="1:7">
+      <c r="H145">
+        <v>0.8182063151461183</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146">
         <v>5143.1715</v>
       </c>
@@ -3755,8 +4193,11 @@
       <c r="G146">
         <v>501.2889690035408</v>
       </c>
-    </row>
-    <row r="147" spans="1:7">
+      <c r="H146">
+        <v>0.790854144056891</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147">
         <v>5149.477</v>
       </c>
@@ -3778,8 +4219,11 @@
       <c r="G147">
         <v>372.595456089051</v>
       </c>
-    </row>
-    <row r="148" spans="1:7">
+      <c r="H147">
+        <v>0.7305179513332208</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148">
         <v>5149.6634</v>
       </c>
@@ -3801,8 +4245,11 @@
       <c r="G148">
         <v>413.3331222706581</v>
       </c>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="H148">
+        <v>0.7735137760121482</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>5160.4947</v>
       </c>
@@ -3824,8 +4271,11 @@
       <c r="G149">
         <v>395.0374591750795</v>
       </c>
-    </row>
-    <row r="150" spans="1:7">
+      <c r="H149">
+        <v>0.699779207291259</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150">
         <v>5163.7108</v>
       </c>
@@ -3847,8 +4297,11 @@
       <c r="G150">
         <v>539.9353231382562</v>
       </c>
-    </row>
-    <row r="151" spans="1:7">
+      <c r="H150">
+        <v>0.845240834541533</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151">
         <v>5166.8495</v>
       </c>
@@ -3870,8 +4323,11 @@
       <c r="G151">
         <v>429.3649716223846</v>
       </c>
-    </row>
-    <row r="152" spans="1:7">
+      <c r="H151">
+        <v>0.7638897176322621</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152">
         <v>5196.3884</v>
       </c>
@@ -3893,8 +4349,11 @@
       <c r="G152">
         <v>703.8480779650433</v>
       </c>
-    </row>
-    <row r="153" spans="1:7">
+      <c r="H152">
+        <v>0.8566513920341772</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153">
         <v>5196.9191</v>
       </c>
@@ -3916,8 +4375,11 @@
       <c r="G153">
         <v>519.1791656285195</v>
       </c>
-    </row>
-    <row r="154" spans="1:7">
+      <c r="H153">
+        <v>0.8035873779288836</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154">
         <v>5197.5065</v>
       </c>
@@ -3939,8 +4401,11 @@
       <c r="G154">
         <v>340.3123212836119</v>
       </c>
-    </row>
-    <row r="155" spans="1:7">
+      <c r="H154">
+        <v>0.7161659757329624</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155">
         <v>5200.1588</v>
       </c>
@@ -3962,8 +4427,11 @@
       <c r="G155">
         <v>490.0303992407331</v>
       </c>
-    </row>
-    <row r="156" spans="1:7">
+      <c r="H155">
+        <v>0.8194174810846763</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156">
         <v>5216.6327</v>
       </c>
@@ -3985,8 +4453,11 @@
       <c r="G156">
         <v>517.2171929760651</v>
       </c>
-    </row>
-    <row r="157" spans="1:7">
+      <c r="H156">
+        <v>0.8283048241256601</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157">
         <v>5217.7263</v>
       </c>
@@ -4008,8 +4479,11 @@
       <c r="G157">
         <v>597.5479325376913</v>
       </c>
-    </row>
-    <row r="158" spans="1:7">
+      <c r="H157">
+        <v>0.8510798430438764</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158">
         <v>5218.842</v>
       </c>
@@ -4031,8 +4505,11 @@
       <c r="G158">
         <v>516.9982386881812</v>
       </c>
-    </row>
-    <row r="159" spans="1:7">
+      <c r="H158">
+        <v>0.8175383912785</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159">
         <v>5224.6397</v>
       </c>
@@ -4054,8 +4531,11 @@
       <c r="G159">
         <v>74.59465487300163</v>
       </c>
-    </row>
-    <row r="160" spans="1:7">
+      <c r="H159">
+        <v>0.3527713916043146</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160">
         <v>5226.9809</v>
       </c>
@@ -4077,8 +4557,11 @@
       <c r="G160">
         <v>447.3674607553189</v>
       </c>
-    </row>
-    <row r="161" spans="1:7">
+      <c r="H160">
+        <v>0.7823174883676389</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161">
         <v>5229.8323</v>
       </c>
@@ -4100,8 +4583,11 @@
       <c r="G161">
         <v>246.4911865977916</v>
       </c>
-    </row>
-    <row r="162" spans="1:7">
+      <c r="H161">
+        <v>0.6277198798228258</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162">
         <v>5234.3971</v>
       </c>
@@ -4123,8 +4609,11 @@
       <c r="G162">
         <v>641.4636615118862</v>
       </c>
-    </row>
-    <row r="163" spans="1:7">
+      <c r="H162">
+        <v>0.8960555193100996</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163">
         <v>5243.9504</v>
       </c>
@@ -4146,8 +4635,11 @@
       <c r="G163">
         <v>508.8058949962946</v>
       </c>
-    </row>
-    <row r="164" spans="1:7">
+      <c r="H163">
+        <v>0.7837258549564907</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164">
         <v>5245.2366</v>
       </c>
@@ -4169,8 +4661,11 @@
       <c r="G164">
         <v>314.3535067409522</v>
       </c>
-    </row>
-    <row r="165" spans="1:7">
+      <c r="H164">
+        <v>0.6432035886639236</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165">
         <v>5248.511</v>
       </c>
@@ -4192,8 +4687,11 @@
       <c r="G165">
         <v>411.260583732821</v>
       </c>
-    </row>
-    <row r="166" spans="1:7">
+      <c r="H165">
+        <v>0.7567043574720576</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166">
         <v>5251.6703</v>
       </c>
@@ -4215,8 +4713,11 @@
       <c r="G166">
         <v>422.4302103327851</v>
       </c>
-    </row>
-    <row r="167" spans="1:7">
+      <c r="H166">
+        <v>0.7566019701073616</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167">
         <v>5252.1075</v>
       </c>
@@ -4238,8 +4739,11 @@
       <c r="G167">
         <v>485.1834988164658</v>
       </c>
-    </row>
-    <row r="168" spans="1:7">
+      <c r="H167">
+        <v>0.8195833569663222</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168">
         <v>5254.924</v>
       </c>
@@ -4261,8 +4765,11 @@
       <c r="G168">
         <v>399.3487262362295</v>
       </c>
-    </row>
-    <row r="169" spans="1:7">
+      <c r="H168">
+        <v>0.7392427507339475</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169">
         <v>5271.0039</v>
       </c>
@@ -4284,8 +4791,11 @@
       <c r="G169">
         <v>614.2584235759223</v>
       </c>
-    </row>
-    <row r="170" spans="1:7">
+      <c r="H169">
+        <v>0.9116238181148668</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170">
         <v>5283.2601</v>
       </c>
@@ -4307,8 +4817,11 @@
       <c r="G170">
         <v>595.810304460068</v>
       </c>
-    </row>
-    <row r="171" spans="1:7">
+      <c r="H170">
+        <v>0.8398793500122246</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171">
         <v>5323.5213</v>
       </c>
@@ -4330,8 +4843,11 @@
       <c r="G171">
         <v>388.5713691400574</v>
       </c>
-    </row>
-    <row r="172" spans="1:7">
+      <c r="H171">
+        <v>0.6669704991980717</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172">
         <v>5325.6601</v>
       </c>
@@ -4353,8 +4869,11 @@
       <c r="G172">
         <v>636.1004480173411</v>
       </c>
-    </row>
-    <row r="173" spans="1:7">
+      <c r="H172">
+        <v>0.8721581314611457</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173">
         <v>5327.6244</v>
       </c>
@@ -4376,8 +4895,11 @@
       <c r="G173">
         <v>196.949620428969</v>
       </c>
-    </row>
-    <row r="174" spans="1:7">
+      <c r="H173">
+        <v>0.4120291360757221</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174">
         <v>5329.5208</v>
       </c>
@@ -4399,8 +4921,11 @@
       <c r="G174">
         <v>669.3904356366385</v>
       </c>
-    </row>
-    <row r="175" spans="1:7">
+      <c r="H174">
+        <v>0.9045599968939118</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175">
         <v>5330.0139</v>
       </c>
@@ -4422,8 +4947,11 @@
       <c r="G175">
         <v>742.448428838096</v>
       </c>
-    </row>
-    <row r="176" spans="1:7">
+      <c r="H175">
+        <v>0.8571259333275768</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176">
         <v>5331.4717</v>
       </c>
@@ -4445,8 +4973,11 @@
       <c r="G176">
         <v>314.8919959077166</v>
       </c>
-    </row>
-    <row r="177" spans="1:7">
+      <c r="H176">
+        <v>0.6172082715106413</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177">
         <v>5334.3831</v>
       </c>
@@ -4468,8 +4999,11 @@
       <c r="G177">
         <v>500.1802131727463</v>
       </c>
-    </row>
-    <row r="178" spans="1:7">
+      <c r="H177">
+        <v>0.8023789558803434</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178">
         <v>5341.4147</v>
       </c>
@@ -4491,8 +5025,11 @@
       <c r="G178">
         <v>600.5486337546013</v>
       </c>
-    </row>
-    <row r="179" spans="1:7">
+      <c r="H178">
+        <v>0.834620461466053</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179">
         <v>5366.8911</v>
       </c>
@@ -4514,8 +5051,11 @@
       <c r="G179">
         <v>424.5330561625467</v>
       </c>
-    </row>
-    <row r="180" spans="1:7">
+      <c r="H179">
+        <v>0.7428392420894467</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180">
         <v>5371.4552</v>
       </c>
@@ -4537,8 +5077,11 @@
       <c r="G180">
         <v>669.7457880486612</v>
       </c>
-    </row>
-    <row r="181" spans="1:7">
+      <c r="H180">
+        <v>0.8272606224990258</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181">
         <v>5372.9834</v>
       </c>
@@ -4560,8 +5103,11 @@
       <c r="G181">
         <v>703.0330618523579</v>
       </c>
-    </row>
-    <row r="182" spans="1:7">
+      <c r="H181">
+        <v>0.8940244532953772</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182">
         <v>5375.2029</v>
       </c>
@@ -4583,8 +5129,11 @@
       <c r="G182">
         <v>329.0620903396443</v>
       </c>
-    </row>
-    <row r="183" spans="1:7">
+      <c r="H182">
+        <v>0.6373180872324519</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183">
         <v>5381.0699</v>
       </c>
@@ -4606,8 +5155,11 @@
       <c r="G183">
         <v>367.7020108115853</v>
       </c>
-    </row>
-    <row r="184" spans="1:7">
+      <c r="H183">
+        <v>0.6448746002109773</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184">
         <v>5384.8661</v>
       </c>
@@ -4629,8 +5181,11 @@
       <c r="G184">
         <v>645.8085397330899</v>
       </c>
-    </row>
-    <row r="185" spans="1:7">
+      <c r="H184">
+        <v>0.8438469592447372</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185">
         <v>5390.9777</v>
       </c>
@@ -4652,8 +5207,11 @@
       <c r="G185">
         <v>461.5632895720748</v>
       </c>
-    </row>
-    <row r="186" spans="1:7">
+      <c r="H185">
+        <v>0.734185402183704</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186">
         <v>5394.6671</v>
       </c>
@@ -4675,8 +5233,11 @@
       <c r="G186">
         <v>572.3916342336527</v>
       </c>
-    </row>
-    <row r="187" spans="1:7">
+      <c r="H186">
+        <v>0.8210208442076714</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187">
         <v>5399.1185</v>
       </c>
@@ -4698,8 +5259,11 @@
       <c r="G187">
         <v>199.8942695846278</v>
       </c>
-    </row>
-    <row r="188" spans="1:7">
+      <c r="H187">
+        <v>0.287857588119788</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188">
         <v>5399.7803</v>
       </c>
@@ -4721,8 +5285,11 @@
       <c r="G188">
         <v>394.1876027371848</v>
       </c>
-    </row>
-    <row r="189" spans="1:7">
+      <c r="H188">
+        <v>0.6891616669844864</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189">
         <v>5405.3239</v>
       </c>
@@ -4744,8 +5311,11 @@
       <c r="G189">
         <v>388.2370871417029</v>
       </c>
-    </row>
-    <row r="190" spans="1:7">
+      <c r="H189">
+        <v>0.6617634911992627</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190">
         <v>5407.2781</v>
       </c>
@@ -4767,8 +5337,11 @@
       <c r="G190">
         <v>670.853001182327</v>
       </c>
-    </row>
-    <row r="191" spans="1:7">
+      <c r="H190">
+        <v>0.8816926188780145</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191">
         <v>5410.6373</v>
       </c>
@@ -4790,8 +5363,11 @@
       <c r="G191">
         <v>310.2846618025884</v>
       </c>
-    </row>
-    <row r="192" spans="1:7">
+      <c r="H191">
+        <v>0.5541189401764852</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192">
         <v>5412.414</v>
       </c>
@@ -4813,8 +5389,11 @@
       <c r="G192">
         <v>603.7486770689545</v>
       </c>
-    </row>
-    <row r="193" spans="1:7">
+      <c r="H192">
+        <v>0.8020125888088112</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193">
         <v>5416.7047</v>
       </c>
@@ -4836,8 +5415,11 @@
       <c r="G193">
         <v>675.2201181398445</v>
       </c>
-    </row>
-    <row r="194" spans="1:7">
+      <c r="H193">
+        <v>0.8289327234798494</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194">
         <v>5425.5759</v>
       </c>
@@ -4859,8 +5441,11 @@
       <c r="G194">
         <v>679.641627236473</v>
       </c>
-    </row>
-    <row r="195" spans="1:7">
+      <c r="H194">
+        <v>0.8464184414171511</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195">
         <v>5434.458</v>
       </c>
@@ -4882,8 +5467,11 @@
       <c r="G195">
         <v>347.5401751906177</v>
       </c>
-    </row>
-    <row r="196" spans="1:7">
+      <c r="H195">
+        <v>0.6537951432742402</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196">
         <v>5436.0344</v>
       </c>
@@ -4905,8 +5493,11 @@
       <c r="G196">
         <v>716.9384274599745</v>
       </c>
-    </row>
-    <row r="197" spans="1:7">
+      <c r="H196">
+        <v>0.8691136985161847</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197">
         <v>5446.5558</v>
       </c>
@@ -4928,8 +5519,11 @@
       <c r="G197">
         <v>577.9470411635199</v>
       </c>
-    </row>
-    <row r="198" spans="1:7">
+      <c r="H197">
+        <v>0.7937729383754594</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198">
         <v>5464.4776</v>
       </c>
@@ -4951,8 +5545,11 @@
       <c r="G198">
         <v>515.7032952568153</v>
       </c>
-    </row>
-    <row r="199" spans="1:7">
+      <c r="H198">
+        <v>0.7503593030433957</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199">
         <v>5464.7944</v>
       </c>
@@ -4974,8 +5571,11 @@
       <c r="G199">
         <v>554.0746100250157</v>
       </c>
-    </row>
-    <row r="200" spans="1:7">
+      <c r="H199">
+        <v>0.7789101631867273</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200">
         <v>5465.798</v>
       </c>
@@ -4997,8 +5597,11 @@
       <c r="G200">
         <v>202.9405577513195</v>
       </c>
-    </row>
-    <row r="201" spans="1:7">
+      <c r="H200">
+        <v>0.4270569785199546</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201">
         <v>5467.9152</v>
       </c>
@@ -5020,8 +5623,11 @@
       <c r="G201">
         <v>405.7239565693343</v>
       </c>
-    </row>
-    <row r="202" spans="1:7">
+      <c r="H201">
+        <v>0.7065033376643086</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202">
         <v>5468.507</v>
       </c>
@@ -5043,8 +5649,11 @@
       <c r="G202">
         <v>191.8756990250914</v>
       </c>
-    </row>
-    <row r="203" spans="1:7">
+      <c r="H202">
+        <v>0.3752252776329356</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203">
         <v>5475.4215</v>
       </c>
@@ -5066,8 +5675,11 @@
       <c r="G203">
         <v>410.6429861223715</v>
       </c>
-    </row>
-    <row r="204" spans="1:7">
+      <c r="H203">
+        <v>0.7125699129741377</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204">
         <v>5478.086</v>
       </c>
@@ -5089,8 +5701,11 @@
       <c r="G204">
         <v>514.4222097389581</v>
       </c>
-    </row>
-    <row r="205" spans="1:7">
+      <c r="H204">
+        <v>0.7765978621395745</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205">
         <v>5484.6223</v>
       </c>
@@ -5112,8 +5727,11 @@
       <c r="G205">
         <v>224.1082449474177</v>
       </c>
-    </row>
-    <row r="206" spans="1:7">
+      <c r="H205">
+        <v>0.5007895309312718</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206">
         <v>5495.0251</v>
       </c>
@@ -5135,8 +5753,11 @@
       <c r="G206">
         <v>163.6712040033631</v>
       </c>
-    </row>
-    <row r="207" spans="1:7">
+      <c r="H206">
+        <v>0.4137970308145992</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207">
         <v>5499.0434</v>
       </c>
@@ -5158,8 +5779,11 @@
       <c r="G207">
         <v>681.4650208204075</v>
       </c>
-    </row>
-    <row r="208" spans="1:7">
+      <c r="H207">
+        <v>0.8263359788918466</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208">
         <v>5502.9937</v>
       </c>
@@ -5181,8 +5805,11 @@
       <c r="G208">
         <v>593.8109273766565</v>
       </c>
-    </row>
-    <row r="209" spans="1:7">
+      <c r="H208">
+        <v>0.8196025665560311</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209">
         <v>5508.309</v>
       </c>
@@ -5204,8 +5831,11 @@
       <c r="G209">
         <v>680.3187193694172</v>
       </c>
-    </row>
-    <row r="210" spans="1:7">
+      <c r="H209">
+        <v>0.8289500641165071</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210">
         <v>5523.9805</v>
       </c>
@@ -5227,8 +5857,11 @@
       <c r="G210">
         <v>195.3759338266332</v>
       </c>
-    </row>
-    <row r="211" spans="1:7">
+      <c r="H210">
+        <v>0.4675639065429461</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211">
         <v>5527.0791</v>
       </c>
@@ -5250,8 +5883,11 @@
       <c r="G211">
         <v>244.0830023639354</v>
       </c>
-    </row>
-    <row r="212" spans="1:7">
+      <c r="H211">
+        <v>0.559525276713932</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212">
         <v>5544.7292</v>
       </c>
@@ -5273,8 +5909,11 @@
       <c r="G212">
         <v>329.8148435956174</v>
       </c>
-    </row>
-    <row r="213" spans="1:7">
+      <c r="H212">
+        <v>0.6039017334719752</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213">
         <v>5545.4754</v>
       </c>
@@ -5296,8 +5935,11 @@
       <c r="G213">
         <v>324.3643904619492</v>
       </c>
-    </row>
-    <row r="214" spans="1:7">
+      <c r="H213">
+        <v>0.6146113816747403</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214">
         <v>5561.7557</v>
       </c>
@@ -5319,8 +5961,11 @@
       <c r="G214">
         <v>253.341683606782</v>
       </c>
-    </row>
-    <row r="215" spans="1:7">
+      <c r="H214">
+        <v>0.542108343913299</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215">
         <v>5564.2512</v>
       </c>
@@ -5342,8 +5987,11 @@
       <c r="G215">
         <v>350.2090231170371</v>
       </c>
-    </row>
-    <row r="216" spans="1:7">
+      <c r="H215">
+        <v>0.5964148216874821</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216">
         <v>5567.2496</v>
       </c>
@@ -5365,8 +6013,11 @@
       <c r="G216">
         <v>468.488853923797</v>
       </c>
-    </row>
-    <row r="217" spans="1:7">
+      <c r="H216">
+        <v>0.7101584138005879</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217">
         <v>5577.6371</v>
       </c>
@@ -5388,8 +6039,11 @@
       <c r="G217">
         <v>558.9896774259148</v>
       </c>
-    </row>
-    <row r="218" spans="1:7">
+      <c r="H217">
+        <v>0.7888838103736152</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218">
         <v>5588.3071</v>
       </c>
@@ -5411,8 +6065,11 @@
       <c r="G218">
         <v>622.2980323971223</v>
       </c>
-    </row>
-    <row r="219" spans="1:7">
+      <c r="H218">
+        <v>0.8444069005414708</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219">
         <v>5589.1254</v>
       </c>
@@ -5434,8 +6091,11 @@
       <c r="G219">
         <v>171.6432888880289</v>
       </c>
-    </row>
-    <row r="220" spans="1:7">
+      <c r="H219">
+        <v>0.4022140445113204</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220">
         <v>5617.2028</v>
       </c>
@@ -5457,8 +6117,11 @@
       <c r="G220">
         <v>645.7820504085362</v>
       </c>
-    </row>
-    <row r="221" spans="1:7">
+      <c r="H220">
+        <v>0.8542180943277856</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221">
         <v>5620.1925</v>
       </c>
@@ -5480,8 +6143,11 @@
       <c r="G221">
         <v>250.7075251640749</v>
       </c>
-    </row>
-    <row r="222" spans="1:7">
+      <c r="H221">
+        <v>0.5294172495756938</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222">
         <v>5625.5831</v>
       </c>
@@ -5503,8 +6169,11 @@
       <c r="G222">
         <v>293.1000200226537</v>
       </c>
-    </row>
-    <row r="223" spans="1:7">
+      <c r="H222">
+        <v>0.5111060858887471</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223">
         <v>5637.3869</v>
       </c>
@@ -5526,8 +6195,11 @@
       <c r="G223">
         <v>175.4917888145211</v>
       </c>
-    </row>
-    <row r="224" spans="1:7">
+      <c r="H223">
+        <v>0.375826247406995</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224">
         <v>5638.2607</v>
       </c>
@@ -5549,8 +6221,11 @@
       <c r="G224">
         <v>196.7330270168722</v>
       </c>
-    </row>
-    <row r="225" spans="1:7">
+      <c r="H224">
+        <v>0.2284745622604061</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225">
         <v>5644.3175</v>
       </c>
@@ -5572,8 +6247,11 @@
       <c r="G225">
         <v>159.3420947762234</v>
       </c>
-    </row>
-    <row r="226" spans="1:7">
+      <c r="H225">
+        <v>0.110602302589226</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226">
         <v>5651.5554</v>
       </c>
@@ -5595,8 +6273,11 @@
       <c r="G226">
         <v>122.0058204779061</v>
       </c>
-    </row>
-    <row r="227" spans="1:7">
+      <c r="H226">
+        <v>0.3720456140310324</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227">
         <v>5653.0375</v>
       </c>
@@ -5618,8 +6299,11 @@
       <c r="G227">
         <v>196.2187752029738</v>
       </c>
-    </row>
-    <row r="228" spans="1:7">
+      <c r="H227">
+        <v>0.2041294981135466</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228">
         <v>5653.8867</v>
       </c>
@@ -5641,8 +6325,11 @@
       <c r="G228">
         <v>153.7699947650628</v>
       </c>
-    </row>
-    <row r="229" spans="1:7">
+      <c r="H228">
+        <v>0.2839750216764054</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229">
         <v>5656.7459</v>
       </c>
@@ -5664,8 +6351,11 @@
       <c r="G229">
         <v>211.9893403883534</v>
       </c>
-    </row>
-    <row r="230" spans="1:7">
+      <c r="H229">
+        <v>0.4988726564022297</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230">
         <v>5661.1454</v>
       </c>
@@ -5687,8 +6377,11 @@
       <c r="G230">
         <v>42.36491902258877</v>
       </c>
-    </row>
-    <row r="231" spans="1:7">
+      <c r="H230">
+        <v>0.206542024531806</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231">
         <v>5662.9166</v>
       </c>
@@ -5710,8 +6403,11 @@
       <c r="G231">
         <v>153.5247981838676</v>
       </c>
-    </row>
-    <row r="232" spans="1:7">
+      <c r="H231">
+        <v>0.2413640935618385</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232">
         <v>5664.0877</v>
       </c>
@@ -5733,8 +6429,11 @@
       <c r="G232">
         <v>455.1863027942478</v>
       </c>
-    </row>
-    <row r="233" spans="1:7">
+      <c r="H232">
+        <v>0.7385044210989538</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233">
         <v>5679.2603</v>
       </c>
@@ -5756,8 +6455,11 @@
       <c r="G233">
         <v>147.8042628837914</v>
       </c>
-    </row>
-    <row r="234" spans="1:7">
+      <c r="H233">
+        <v>0.07544798434799482</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234">
         <v>5679.9544</v>
       </c>
@@ -5779,8 +6481,11 @@
       <c r="G234">
         <v>258.625851696873</v>
       </c>
-    </row>
-    <row r="235" spans="1:7">
+      <c r="H234">
+        <v>0.05424805620580386</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235">
         <v>5680.5988</v>
       </c>
@@ -5802,8 +6507,11 @@
       <c r="G235">
         <v>337.7587115346472</v>
       </c>
-    </row>
-    <row r="236" spans="1:7">
+      <c r="H235">
+        <v>0.5710982904479225</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236">
         <v>5681.8166</v>
       </c>
@@ -5825,8 +6533,11 @@
       <c r="G236">
         <v>211.0539491664019</v>
       </c>
-    </row>
-    <row r="237" spans="1:7">
+      <c r="H236">
+        <v>0.116806071895313</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237">
         <v>5688.1081</v>
       </c>
@@ -5848,8 +6559,11 @@
       <c r="G237">
         <v>442.7230641088756</v>
       </c>
-    </row>
-    <row r="238" spans="1:7">
+      <c r="H237">
+        <v>0.6489514514809104</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238">
         <v>5693.0762</v>
       </c>
@@ -5871,8 +6585,11 @@
       <c r="G238">
         <v>210.6365328673202</v>
       </c>
-    </row>
-    <row r="239" spans="1:7">
+      <c r="H238">
+        <v>0.4287399247731091</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239">
         <v>5697.67</v>
       </c>
@@ -5894,8 +6611,11 @@
       <c r="G239">
         <v>231.5133756899312</v>
       </c>
-    </row>
-    <row r="240" spans="1:7">
+      <c r="H239">
+        <v>0.1437331620910733</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240">
         <v>5699.6009</v>
       </c>
@@ -5917,8 +6637,11 @@
       <c r="G240">
         <v>226.1750588973376</v>
       </c>
-    </row>
-    <row r="241" spans="1:7">
+      <c r="H240">
+        <v>0.1650267627940821</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241">
         <v>5703.1265</v>
       </c>
@@ -5940,8 +6663,11 @@
       <c r="G241">
         <v>520.4067162609281</v>
       </c>
-    </row>
-    <row r="242" spans="1:7">
+      <c r="H241">
+        <v>0.7267108256875683</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242">
         <v>5706.3164</v>
       </c>
@@ -5963,8 +6689,11 @@
       <c r="G242">
         <v>78.80542461884487</v>
       </c>
-    </row>
-    <row r="243" spans="1:7">
+      <c r="H242">
+        <v>0.2054965874237704</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243">
         <v>5707.0475</v>
       </c>
@@ -5986,8 +6715,11 @@
       <c r="G243">
         <v>215.373900064697</v>
       </c>
-    </row>
-    <row r="244" spans="1:7">
+      <c r="H243">
+        <v>0.4049581046399371</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244">
         <v>5710.9623</v>
       </c>
@@ -6009,8 +6741,11 @@
       <c r="G244">
         <v>509.1938432839436</v>
       </c>
-    </row>
-    <row r="245" spans="1:7">
+      <c r="H244">
+        <v>0.7572922542213694</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245">
         <v>5711.5164</v>
       </c>
@@ -6032,8 +6767,11 @@
       <c r="G245">
         <v>131.2227948456307</v>
       </c>
-    </row>
-    <row r="246" spans="1:7">
+      <c r="H245">
+        <v>0.1148579951162548</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246">
         <v>5713.7163</v>
       </c>
@@ -6055,8 +6793,11 @@
       <c r="G246">
         <v>278.0852152709296</v>
       </c>
-    </row>
-    <row r="247" spans="1:7">
+      <c r="H246">
+        <v>0.5375813788555228</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247">
         <v>5716.1345</v>
       </c>
@@ -6078,8 +6819,11 @@
       <c r="G247">
         <v>57.69138280990988</v>
       </c>
-    </row>
-    <row r="248" spans="1:7">
+      <c r="H247">
+        <v>0.06757644868917934</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248">
         <v>5726.0428</v>
       </c>
@@ -6101,8 +6845,11 @@
       <c r="G248">
         <v>172.7746623561969</v>
       </c>
-    </row>
-    <row r="249" spans="1:7">
+      <c r="H248">
+        <v>0.05850956438746335</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
       <c r="A249">
         <v>5733.3522</v>
       </c>
@@ -6124,8 +6871,11 @@
       <c r="G249">
         <v>292.8195767894628</v>
       </c>
-    </row>
-    <row r="250" spans="1:7">
+      <c r="H249">
+        <v>0.570149960651714</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250">
         <v>5733.8861</v>
       </c>
@@ -6147,8 +6897,11 @@
       <c r="G250">
         <v>135.9392874703295</v>
       </c>
-    </row>
-    <row r="251" spans="1:7">
+      <c r="H250">
+        <v>0.1488789939785273</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
       <c r="A251">
         <v>5743.4411</v>
       </c>
@@ -6170,8 +6923,11 @@
       <c r="G251">
         <v>177.4710211691086</v>
       </c>
-    </row>
-    <row r="252" spans="1:7">
+      <c r="H251">
+        <v>0.3407291894690964</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
       <c r="A252">
         <v>5744.5529</v>
       </c>
@@ -6193,8 +6949,11 @@
       <c r="G252">
         <v>208.7490275865416</v>
       </c>
-    </row>
-    <row r="253" spans="1:7">
+      <c r="H252">
+        <v>0.1257828799788326</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
       <c r="A253">
         <v>5753.6274</v>
       </c>
@@ -6216,8 +6975,11 @@
       <c r="G253">
         <v>343.892658511731</v>
       </c>
-    </row>
-    <row r="254" spans="1:7">
+      <c r="H253">
+        <v>0.5406763736894107</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
       <c r="A254">
         <v>5754.7184</v>
       </c>
@@ -6239,8 +7001,11 @@
       <c r="G254">
         <v>421.9700671478758</v>
       </c>
-    </row>
-    <row r="255" spans="1:7">
+      <c r="H254">
+        <v>0.6841031246416768</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
       <c r="A255">
         <v>5755.9986</v>
       </c>
@@ -6262,8 +7027,11 @@
       <c r="G255">
         <v>203.1255855498597</v>
       </c>
-    </row>
-    <row r="256" spans="1:7">
+      <c r="H255">
+        <v>0.1537858319721854</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
       <c r="A256">
         <v>5760.8595</v>
       </c>
@@ -6285,8 +7053,11 @@
       <c r="G256">
         <v>31.22372191764283</v>
       </c>
-    </row>
-    <row r="257" spans="1:7">
+      <c r="H256">
+        <v>0.09564396247823714</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
       <c r="A257">
         <v>5761.9422</v>
       </c>
@@ -6308,8 +7079,11 @@
       <c r="G257">
         <v>213.3220075740043</v>
       </c>
-    </row>
-    <row r="258" spans="1:7">
+      <c r="H257">
+        <v>0.2565716657221331</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
       <c r="A258">
         <v>5762.8537</v>
       </c>
@@ -6331,8 +7105,11 @@
       <c r="G258">
         <v>234.0968782828236</v>
       </c>
-    </row>
-    <row r="259" spans="1:7">
+      <c r="H258">
+        <v>0.04151733430745241</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259">
         <v>5764.0117</v>
       </c>
@@ -6354,8 +7131,11 @@
       <c r="G259">
         <v>187.2398782436362</v>
       </c>
-    </row>
-    <row r="260" spans="1:7">
+      <c r="H259">
+        <v>0.312226736548865</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
       <c r="A260">
         <v>5770.9229</v>
       </c>
@@ -6377,8 +7157,11 @@
       <c r="G260">
         <v>228.574673124128</v>
       </c>
-    </row>
-    <row r="261" spans="1:7">
+      <c r="H260">
+        <v>0.08591485240877983</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
       <c r="A261">
         <v>5776.6821</v>
       </c>
@@ -6400,8 +7183,11 @@
       <c r="G261">
         <v>280.243787914125</v>
       </c>
-    </row>
-    <row r="262" spans="1:7">
+      <c r="H261">
+        <v>0.5758663502578396</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
       <c r="A262">
         <v>5782.2031</v>
       </c>
@@ -6423,8 +7209,11 @@
       <c r="G262">
         <v>243.6829921484749</v>
       </c>
-    </row>
-    <row r="263" spans="1:7">
+      <c r="H262">
+        <v>0.4068513993866343</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
       <c r="A263">
         <v>5782.4074</v>
       </c>
@@ -6446,8 +7235,11 @@
       <c r="G263">
         <v>171.0905238982596</v>
       </c>
-    </row>
-    <row r="264" spans="1:7">
+      <c r="H263">
+        <v>0.2621099459086483</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
       <c r="A264">
         <v>5786.2625</v>
       </c>
@@ -6469,8 +7261,11 @@
       <c r="G264">
         <v>222.7876059399582</v>
       </c>
-    </row>
-    <row r="265" spans="1:7">
+      <c r="H264">
+        <v>0.2850912763441859</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
       <c r="A265">
         <v>5793.1299</v>
       </c>
@@ -6492,8 +7287,11 @@
       <c r="G265">
         <v>196.6486787283332</v>
       </c>
-    </row>
-    <row r="266" spans="1:7">
+      <c r="H265">
+        <v>0.09635678491650046</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
       <c r="A266">
         <v>5795.5214</v>
       </c>
@@ -6515,8 +7313,11 @@
       <c r="G266">
         <v>186.2218727446886</v>
       </c>
-    </row>
-    <row r="267" spans="1:7">
+      <c r="H266">
+        <v>0.3581318548226752</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
       <c r="A267">
         <v>5808.3349</v>
       </c>
@@ -6538,8 +7339,11 @@
       <c r="G267">
         <v>320.0079319939016</v>
       </c>
-    </row>
-    <row r="268" spans="1:7">
+      <c r="H267">
+        <v>0.513701120096886</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
       <c r="A268">
         <v>5809.3941</v>
       </c>
@@ -6561,8 +7365,11 @@
       <c r="G268">
         <v>149.6538387839017</v>
       </c>
-    </row>
-    <row r="269" spans="1:7">
+      <c r="H268">
+        <v>0.0865426970784885</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
       <c r="A269">
         <v>5809.5858</v>
       </c>
@@ -6584,8 +7391,11 @@
       <c r="G269">
         <v>247.6947321306367</v>
       </c>
-    </row>
-    <row r="270" spans="1:7">
+      <c r="H269">
+        <v>0.03781413557243707</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
       <c r="A270">
         <v>5813.5259</v>
       </c>
@@ -6607,8 +7417,11 @@
       <c r="G270">
         <v>201.1155719441867</v>
       </c>
-    </row>
-    <row r="271" spans="1:7">
+      <c r="H270">
+        <v>0.1219908783055612</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
       <c r="A271">
         <v>5816.4197</v>
       </c>
@@ -6630,8 +7443,11 @@
       <c r="G271">
         <v>149.4730732894459</v>
       </c>
-    </row>
-    <row r="272" spans="1:7">
+      <c r="H271">
+        <v>0.2417181014484968</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
       <c r="A272">
         <v>5818.6893</v>
       </c>
@@ -6653,8 +7469,11 @@
       <c r="G272">
         <v>20.60893387877744</v>
       </c>
-    </row>
-    <row r="273" spans="1:7">
+      <c r="H272">
+        <v>0.1259895707218381</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
       <c r="A273">
         <v>5829.4928</v>
       </c>
@@ -6676,8 +7495,11 @@
       <c r="G273">
         <v>210.8500893461524</v>
       </c>
-    </row>
-    <row r="274" spans="1:7">
+      <c r="H273">
+        <v>0.1255756009848736</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
       <c r="A274">
         <v>5836.7184</v>
       </c>
@@ -6699,8 +7521,11 @@
       <c r="G274">
         <v>118.135329844852</v>
       </c>
-    </row>
-    <row r="275" spans="1:7">
+      <c r="H274">
+        <v>0.1528794762269441</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
       <c r="A275">
         <v>5839.3196</v>
       </c>
@@ -6722,8 +7547,11 @@
       <c r="G275">
         <v>251.5675018282688</v>
       </c>
-    </row>
-    <row r="276" spans="1:7">
+      <c r="H275">
+        <v>0.1070635693398051</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
       <c r="A276">
         <v>5839.9903</v>
       </c>
@@ -6745,8 +7573,11 @@
       <c r="G276">
         <v>200.2042000006331</v>
       </c>
-    </row>
-    <row r="277" spans="1:7">
+      <c r="H276">
+        <v>0.1974303798161461</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
       <c r="A277">
         <v>5846.5391</v>
       </c>
@@ -6768,8 +7599,11 @@
       <c r="G277">
         <v>225.6184030490063</v>
       </c>
-    </row>
-    <row r="278" spans="1:7">
+      <c r="H277">
+        <v>0.04023402996429426</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
       <c r="A278">
         <v>5846.9073</v>
       </c>
@@ -6791,8 +7625,11 @@
       <c r="G278">
         <v>128.1842017920085</v>
       </c>
-    </row>
-    <row r="279" spans="1:7">
+      <c r="H278">
+        <v>0.07042988772830405</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
       <c r="A279">
         <v>5851.3056</v>
       </c>
@@ -6814,8 +7651,11 @@
       <c r="G279">
         <v>133.2113624649405</v>
       </c>
-    </row>
-    <row r="280" spans="1:7">
+      <c r="H279">
+        <v>0.08884629654993814</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
       <c r="A280">
         <v>5852.8271</v>
       </c>
@@ -6837,8 +7677,11 @@
       <c r="G280">
         <v>291.9643757297873</v>
       </c>
-    </row>
-    <row r="281" spans="1:7">
+      <c r="H280">
+        <v>0.05827332964546672</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
       <c r="A281">
         <v>5853.8409</v>
       </c>
@@ -6860,8 +7703,11 @@
       <c r="G281">
         <v>250.9434522490381</v>
       </c>
-    </row>
-    <row r="282" spans="1:7">
+      <c r="H281">
+        <v>0.4102428024404212</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
       <c r="A282">
         <v>5854.7708</v>
       </c>
@@ -6883,8 +7729,11 @@
       <c r="G282">
         <v>302.1084108215355</v>
       </c>
-    </row>
-    <row r="283" spans="1:7">
+      <c r="H282">
+        <v>0.08509883732321011</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
       <c r="A283">
         <v>5856.6996</v>
       </c>
@@ -6906,8 +7755,11 @@
       <c r="G283">
         <v>250.8209647597078</v>
       </c>
-    </row>
-    <row r="284" spans="1:7">
+      <c r="H283">
+        <v>0.2353750486133454</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
       <c r="A284">
         <v>5857.7113</v>
       </c>
@@ -6929,8 +7781,11 @@
       <c r="G284">
         <v>240.5418226831307</v>
       </c>
-    </row>
-    <row r="285" spans="1:7">
+      <c r="H284">
+        <v>0.3572891361409473</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
       <c r="A285">
         <v>5859.8892</v>
       </c>
@@ -6952,8 +7807,11 @@
       <c r="G285">
         <v>250.6844402908375</v>
       </c>
-    </row>
-    <row r="286" spans="1:7">
+      <c r="H285">
+        <v>0.03572839752312751</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
       <c r="A286">
         <v>5860.4019</v>
       </c>
@@ -6975,8 +7833,11 @@
       <c r="G286">
         <v>250.6625090288727</v>
       </c>
-    </row>
-    <row r="287" spans="1:7">
+      <c r="H286">
+        <v>0.140016564584761</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
       <c r="A287">
         <v>5862.7342</v>
       </c>
@@ -6998,8 +7859,11 @@
       <c r="G287">
         <v>61.36231613344666</v>
       </c>
-    </row>
-    <row r="288" spans="1:7">
+      <c r="H287">
+        <v>0.09097379817495788</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
       <c r="A288">
         <v>5863.9814</v>
       </c>
@@ -7021,8 +7885,11 @@
       <c r="G288">
         <v>531.6936311114202</v>
       </c>
-    </row>
-    <row r="289" spans="1:7">
+      <c r="H288">
+        <v>0.6954016901626702</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
       <c r="A289">
         <v>5874.8407</v>
       </c>
@@ -7044,8 +7911,11 @@
       <c r="G289">
         <v>142.883684043463</v>
       </c>
-    </row>
-    <row r="290" spans="1:7">
+      <c r="H289">
+        <v>0.1758552352553547</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
       <c r="A290">
         <v>5882.9101</v>
       </c>
@@ -7067,8 +7937,11 @@
       <c r="G290">
         <v>168.1676406513978</v>
       </c>
-    </row>
-    <row r="291" spans="1:7">
+      <c r="H290">
+        <v>0.1541122333719152</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
       <c r="A291">
         <v>5904.1092</v>
       </c>
@@ -7090,8 +7963,11 @@
       <c r="G291">
         <v>126.9422904632902</v>
       </c>
-    </row>
-    <row r="292" spans="1:7">
+      <c r="H291">
+        <v>0.1588464291142485</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
       <c r="A292">
         <v>5907.3085</v>
       </c>
@@ -7113,8 +7989,11 @@
       <c r="G292">
         <v>279.1217893847889</v>
       </c>
-    </row>
-    <row r="293" spans="1:7">
+      <c r="H292">
+        <v>0.5537554165691374</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
       <c r="A293">
         <v>5908.4799</v>
       </c>
@@ -7136,8 +8015,11 @@
       <c r="G293">
         <v>5.07393544957745</v>
       </c>
-    </row>
-    <row r="294" spans="1:7">
+      <c r="H293">
+        <v>0.1581207767968238</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
       <c r="A294">
         <v>5917.8867</v>
       </c>
@@ -7159,8 +8041,11 @@
       <c r="G294">
         <v>395.1378745460425</v>
       </c>
-    </row>
-    <row r="295" spans="1:7">
+      <c r="H294">
+        <v>0.5650563788751721</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
       <c r="A295">
         <v>5929.4316</v>
       </c>
@@ -7182,8 +8067,11 @@
       <c r="G295">
         <v>217.4082874196293</v>
       </c>
-    </row>
-    <row r="296" spans="1:7">
+      <c r="H295">
+        <v>0.4291980716710346</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
       <c r="A296">
         <v>5931.3202</v>
       </c>
@@ -7205,8 +8093,11 @@
       <c r="G296">
         <v>197.1214749586593</v>
       </c>
-    </row>
-    <row r="297" spans="1:7">
+      <c r="H296">
+        <v>0.4081746479187643</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
       <c r="A297">
         <v>5931.8229</v>
       </c>
@@ -7228,8 +8119,11 @@
       <c r="G297">
         <v>535.7206558771211</v>
       </c>
-    </row>
-    <row r="298" spans="1:7">
+      <c r="H297">
+        <v>0.6969114551418815</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
       <c r="A298">
         <v>5936.2992</v>
       </c>
@@ -7251,8 +8145,11 @@
       <c r="G298">
         <v>419.1630707102194</v>
       </c>
-    </row>
-    <row r="299" spans="1:7">
+      <c r="H298">
+        <v>0.648338550543504</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
       <c r="A299">
         <v>5954.3675</v>
       </c>
@@ -7274,8 +8171,11 @@
       <c r="G299">
         <v>317.1944770638686</v>
       </c>
-    </row>
-    <row r="300" spans="1:7">
+      <c r="H299">
+        <v>0.5497363852027355</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
       <c r="A300">
         <v>5964.8905</v>
       </c>
@@ -7297,8 +8197,11 @@
       <c r="G300">
         <v>301.5570441444258</v>
       </c>
-    </row>
-    <row r="301" spans="1:7">
+      <c r="H300">
+        <v>0.03902640370934984</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
       <c r="A301">
         <v>5971.2159</v>
       </c>
@@ -7320,8 +8223,11 @@
       <c r="G301">
         <v>165.6806800781056</v>
       </c>
-    </row>
-    <row r="302" spans="1:7">
+      <c r="H301">
+        <v>0.04747334885483201</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
       <c r="A302">
         <v>5977.8158</v>
       </c>
@@ -7343,8 +8249,11 @@
       <c r="G302">
         <v>285.8597634298384</v>
       </c>
-    </row>
-    <row r="303" spans="1:7">
+      <c r="H302">
+        <v>0.02205679465607424</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
       <c r="A303">
         <v>5985.3384</v>
       </c>
@@ -7366,8 +8275,11 @@
       <c r="G303">
         <v>360.6321903990441</v>
       </c>
-    </row>
-    <row r="304" spans="1:7">
+      <c r="H303">
+        <v>0.6190323071362765</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
       <c r="A304">
         <v>5986.4728</v>
       </c>
@@ -7389,8 +8301,11 @@
       <c r="G304">
         <v>475.7439724646751</v>
       </c>
-    </row>
-    <row r="305" spans="1:7">
+      <c r="H304">
+        <v>0.6603062211814863</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
       <c r="A305">
         <v>6004.6749</v>
       </c>
@@ -7412,8 +8327,11 @@
       <c r="G305">
         <v>449.3385848136188</v>
       </c>
-    </row>
-    <row r="306" spans="1:7">
+      <c r="H305">
+        <v>0.6714223540492699</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
       <c r="A306">
         <v>6007.2046</v>
       </c>
@@ -7435,8 +8353,11 @@
       <c r="G306">
         <v>294.4423604351983</v>
       </c>
-    </row>
-    <row r="307" spans="1:7">
+      <c r="H306">
+        <v>0.2447084945482755</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
       <c r="A307">
         <v>6009.6241</v>
       </c>
@@ -7458,8 +8379,11 @@
       <c r="G307">
         <v>369.1519057380905</v>
       </c>
-    </row>
-    <row r="308" spans="1:7">
+      <c r="H307">
+        <v>0.5676056243134864</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
       <c r="A308">
         <v>6010.2207</v>
       </c>
@@ -7481,8 +8405,11 @@
       <c r="G308">
         <v>473.8641878588085</v>
       </c>
-    </row>
-    <row r="309" spans="1:7">
+      <c r="H308">
+        <v>0.684145828137061</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
       <c r="A309">
         <v>6016.9102</v>
       </c>
@@ -7504,8 +8431,11 @@
       <c r="G309">
         <v>318.879901335732</v>
       </c>
-    </row>
-    <row r="310" spans="1:7">
+      <c r="H309">
+        <v>0.05621120943293445</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
       <c r="A310">
         <v>6019.9662</v>
       </c>
@@ -7527,8 +8457,11 @@
       <c r="G310">
         <v>49.79969125091323</v>
       </c>
-    </row>
-    <row r="311" spans="1:7">
+      <c r="H310">
+        <v>0.09158216942311315</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
       <c r="A311">
         <v>6021.0329</v>
       </c>
@@ -7550,8 +8483,11 @@
       <c r="G311">
         <v>189.2053006797367</v>
       </c>
-    </row>
-    <row r="312" spans="1:7">
+      <c r="H311">
+        <v>0.05556808939885982</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
       <c r="A312">
         <v>6025.7262</v>
       </c>
@@ -7573,8 +8509,11 @@
       <c r="G312">
         <v>587.0746341558789</v>
       </c>
-    </row>
-    <row r="313" spans="1:7">
+      <c r="H312">
+        <v>0.7397161411098176</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
       <c r="A313">
         <v>6028.72</v>
       </c>
@@ -7596,8 +8535,11 @@
       <c r="G313">
         <v>372.9553595075291</v>
       </c>
-    </row>
-    <row r="314" spans="1:7">
+      <c r="H313">
+        <v>0.6160553739397592</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
       <c r="A314">
         <v>6035.7064</v>
       </c>
@@ -7619,8 +8561,11 @@
       <c r="G314">
         <v>89.40567822075303</v>
       </c>
-    </row>
-    <row r="315" spans="1:7">
+      <c r="H314">
+        <v>0.08902899983976753</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
       <c r="A315">
         <v>6055.7504</v>
       </c>
@@ -7642,8 +8587,11 @@
       <c r="G315">
         <v>123.7635463544082</v>
       </c>
-    </row>
-    <row r="316" spans="1:7">
+      <c r="H315">
+        <v>0.09910040086236804</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
       <c r="A316">
         <v>6057.6815</v>
       </c>
@@ -7665,8 +8613,11 @@
       <c r="G316">
         <v>395.917095359063</v>
       </c>
-    </row>
-    <row r="317" spans="1:7">
+      <c r="H316">
+        <v>0.6249361462439429</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
       <c r="A317">
         <v>6064.5271</v>
       </c>
@@ -7688,8 +8639,11 @@
       <c r="G317">
         <v>247.1688666531107</v>
       </c>
-    </row>
-    <row r="318" spans="1:7">
+      <c r="H317">
+        <v>0.2196021545531024</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
       <c r="A318">
         <v>6080.1739</v>
       </c>
@@ -7711,8 +8665,11 @@
       <c r="G318">
         <v>414.1751023327312</v>
       </c>
-    </row>
-    <row r="319" spans="1:7">
+      <c r="H318">
+        <v>0.6315564635573452</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
       <c r="A319">
         <v>6080.6922</v>
       </c>
@@ -7734,8 +8691,11 @@
       <c r="G319">
         <v>212.000135340784</v>
       </c>
-    </row>
-    <row r="320" spans="1:7">
+      <c r="H319">
+        <v>0.4529953476645689</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
       <c r="A320">
         <v>6084.3946</v>
       </c>
@@ -7757,8 +8717,11 @@
       <c r="G320">
         <v>251.2890166721456</v>
       </c>
-    </row>
-    <row r="321" spans="1:7">
+      <c r="H320">
+        <v>0.3799572678981898</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
       <c r="A321">
         <v>6095.3313</v>
       </c>
@@ -7780,8 +8743,11 @@
       <c r="G321">
         <v>127.8782649479058</v>
       </c>
-    </row>
-    <row r="322" spans="1:7">
+      <c r="H321">
+        <v>0.3118276962518409</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
       <c r="A322">
         <v>6096.0607</v>
       </c>
@@ -7803,8 +8769,11 @@
       <c r="G322">
         <v>196.7122525614102</v>
       </c>
-    </row>
-    <row r="323" spans="1:7">
+      <c r="H322">
+        <v>0.194616287956635</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
       <c r="A323">
         <v>6098.353</v>
       </c>
@@ -7826,8 +8795,11 @@
       <c r="G323">
         <v>206.4702262821356</v>
       </c>
-    </row>
-    <row r="324" spans="1:7">
+      <c r="H323">
+        <v>0.3684058513122634</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
       <c r="A324">
         <v>6099.9329</v>
       </c>
@@ -7849,8 +8821,11 @@
       <c r="G324">
         <v>147.4405356400202</v>
       </c>
-    </row>
-    <row r="325" spans="1:7">
+      <c r="H324">
+        <v>0.1608942236396645</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
       <c r="A325">
         <v>6101.9603</v>
       </c>
@@ -7872,8 +8847,11 @@
       <c r="G325">
         <v>186.6959607134303</v>
       </c>
-    </row>
-    <row r="326" spans="1:7">
+      <c r="H325">
+        <v>0.08406288797050054</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
       <c r="A326">
         <v>6106.8214</v>
       </c>
@@ -7895,8 +8873,11 @@
       <c r="G326">
         <v>-9.818281462614754</v>
       </c>
-    </row>
-    <row r="327" spans="1:7">
+      <c r="H326">
+        <v>0.1174202872054156</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
       <c r="A327">
         <v>6121.9435</v>
       </c>
@@ -7918,8 +8899,11 @@
       <c r="G327">
         <v>142.01341913711</v>
       </c>
-    </row>
-    <row r="328" spans="1:7">
+      <c r="H327">
+        <v>0.05783687841960117</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
       <c r="A328">
         <v>6129.6027</v>
       </c>
@@ -7941,8 +8925,11 @@
       <c r="G328">
         <v>273.8901437581127</v>
       </c>
-    </row>
-    <row r="329" spans="1:7">
+      <c r="H328">
+        <v>0.4911134632748123</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
       <c r="A329">
         <v>6138.3138</v>
       </c>
@@ -7964,8 +8951,11 @@
       <c r="G329">
         <v>678.8696866891216</v>
       </c>
-    </row>
-    <row r="330" spans="1:7">
+      <c r="H329">
+        <v>0.7815014133277446</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
       <c r="A330">
         <v>6138.6932</v>
       </c>
@@ -7987,8 +8977,11 @@
       <c r="G330">
         <v>380.9249129044233</v>
       </c>
-    </row>
-    <row r="331" spans="1:7">
+      <c r="H330">
+        <v>0.636353656290517</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
       <c r="A331">
         <v>6139.3904</v>
       </c>
@@ -8010,8 +9003,11 @@
       <c r="G331">
         <v>659.2182479698313</v>
       </c>
-    </row>
-    <row r="332" spans="1:7">
+      <c r="H331">
+        <v>0.7750025739682369</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
       <c r="A332">
         <v>6153.3206</v>
       </c>
@@ -8033,8 +9029,11 @@
       <c r="G332">
         <v>311.810785737741</v>
       </c>
-    </row>
-    <row r="333" spans="1:7">
+      <c r="H332">
+        <v>0.5256068458744143</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
       <c r="A333">
         <v>6159.4325</v>
       </c>
@@ -8056,8 +9055,11 @@
       <c r="G333">
         <v>321.2357993535135</v>
       </c>
-    </row>
-    <row r="334" spans="1:7">
+      <c r="H333">
+        <v>0.5873987979124176</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
       <c r="A334">
         <v>6167.0664</v>
       </c>
@@ -8079,8 +9081,11 @@
       <c r="G334">
         <v>262.5039473108753</v>
       </c>
-    </row>
-    <row r="335" spans="1:7">
+      <c r="H334">
+        <v>0.456787619183467</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
       <c r="A335">
         <v>6175.0438</v>
       </c>
@@ -8102,8 +9107,11 @@
       <c r="G335">
         <v>398.1021406184202</v>
       </c>
-    </row>
-    <row r="336" spans="1:7">
+      <c r="H335">
+        <v>0.644658734980281</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
       <c r="A336">
         <v>6181.9143</v>
       </c>
@@ -8125,8 +9133,11 @@
       <c r="G336">
         <v>320.0675594512902</v>
       </c>
-    </row>
-    <row r="337" spans="1:7">
+      <c r="H336">
+        <v>0.5430179005926099</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
       <c r="A337">
         <v>6189.7026</v>
       </c>
@@ -8148,8 +9159,11 @@
       <c r="G337">
         <v>261.5439509517371</v>
       </c>
-    </row>
-    <row r="338" spans="1:7">
+      <c r="H337">
+        <v>0.4475896790619687</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
       <c r="A338">
         <v>6202.0285</v>
       </c>
@@ -8171,8 +9185,11 @@
       <c r="G338">
         <v>468.8767299859279</v>
       </c>
-    </row>
-    <row r="339" spans="1:7">
+      <c r="H338">
+        <v>0.6507609176834865</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
       <c r="A339">
         <v>6215.1493</v>
       </c>
@@ -8194,8 +9211,11 @@
       <c r="G339">
         <v>463.0633083425498</v>
       </c>
-    </row>
-    <row r="340" spans="1:7">
+      <c r="H339">
+        <v>0.6999906849557218</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
       <c r="A340">
         <v>6216.8633</v>
       </c>
@@ -8217,8 +9237,11 @@
       <c r="G340">
         <v>279.6902830954069</v>
       </c>
-    </row>
-    <row r="341" spans="1:7">
+      <c r="H340">
+        <v>0.5033954754414275</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
       <c r="A341">
         <v>6221.0016</v>
       </c>
@@ -8240,8 +9263,11 @@
       <c r="G341">
         <v>486.7228816925806</v>
       </c>
-    </row>
-    <row r="342" spans="1:7">
+      <c r="H341">
+        <v>0.7167836707229329</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
       <c r="A342">
         <v>6234.3654</v>
       </c>
@@ -8263,8 +9289,11 @@
       <c r="G342">
         <v>427.975055229197</v>
       </c>
-    </row>
-    <row r="343" spans="1:7">
+      <c r="H342">
+        <v>0.6630203688188003</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
       <c r="A343">
         <v>6242.3726</v>
       </c>
@@ -8286,8 +9315,11 @@
       <c r="G343">
         <v>336.1778190223142</v>
       </c>
-    </row>
-    <row r="344" spans="1:7">
+      <c r="H343">
+        <v>0.5079423245743135</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
       <c r="A344">
         <v>6248.0467</v>
       </c>
@@ -8309,8 +9341,11 @@
       <c r="G344">
         <v>523.001499348122</v>
       </c>
-    </row>
-    <row r="345" spans="1:7">
+      <c r="H344">
+        <v>0.7336325604439211</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
       <c r="A345">
         <v>6254.285</v>
       </c>
@@ -8332,8 +9367,11 @@
       <c r="G345">
         <v>656.694838006605</v>
       </c>
-    </row>
-    <row r="346" spans="1:7">
+      <c r="H345">
+        <v>0.7562403972721112</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
       <c r="A346">
         <v>6266.8669</v>
       </c>
@@ -8355,8 +9393,11 @@
       <c r="G346">
         <v>459.2418576381539</v>
       </c>
-    </row>
-    <row r="347" spans="1:7">
+      <c r="H346">
+        <v>0.7055188649089266</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
       <c r="A347">
         <v>6282.3553</v>
       </c>
@@ -8378,8 +9419,11 @@
       <c r="G347">
         <v>381.758042844241</v>
       </c>
-    </row>
-    <row r="348" spans="1:7">
+      <c r="H347">
+        <v>0.6313794101165418</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
       <c r="A348">
         <v>6299.5348</v>
       </c>
@@ -8401,8 +9445,11 @@
       <c r="G348">
         <v>437.8244903536454</v>
       </c>
-    </row>
-    <row r="349" spans="1:7">
+      <c r="H348">
+        <v>0.6654854464290649</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
       <c r="A349">
         <v>6303.2439</v>
       </c>
@@ -8424,8 +9471,11 @@
       <c r="G349">
         <v>518.4216006885525</v>
       </c>
-    </row>
-    <row r="350" spans="1:7">
+      <c r="H349">
+        <v>0.732145323298764</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
       <c r="A350">
         <v>6304.2365</v>
       </c>
@@ -8447,8 +9497,11 @@
       <c r="G350">
         <v>442.2533734426983</v>
       </c>
-    </row>
-    <row r="351" spans="1:7">
+      <c r="H350">
+        <v>0.6651886282036505</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
       <c r="A351">
         <v>6313.2457</v>
       </c>
@@ -8470,8 +9523,11 @@
       <c r="G351">
         <v>246.928577745953</v>
       </c>
-    </row>
-    <row r="352" spans="1:7">
+      <c r="H351">
+        <v>0.2912627011339803</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
       <c r="A352">
         <v>6317.558</v>
       </c>
@@ -8493,8 +9549,11 @@
       <c r="G352">
         <v>232.5238714657339</v>
       </c>
-    </row>
-    <row r="353" spans="1:7">
+      <c r="H352">
+        <v>0.413430722805997</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
       <c r="A353">
         <v>6338.5765</v>
       </c>
@@ -8516,8 +9575,11 @@
       <c r="G353">
         <v>501.3428574279085</v>
       </c>
-    </row>
-    <row r="354" spans="1:7">
+      <c r="H353">
+        <v>0.7111820552698167</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
       <c r="A354">
         <v>6340.6302</v>
       </c>
@@ -8539,8 +9601,11 @@
       <c r="G354">
         <v>184.3965898477051</v>
       </c>
-    </row>
-    <row r="355" spans="1:7">
+      <c r="H354">
+        <v>0.4095668089177944</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
       <c r="A355">
         <v>6345.9033</v>
       </c>
@@ -8562,8 +9627,11 @@
       <c r="G355">
         <v>373.2109214823816</v>
       </c>
-    </row>
-    <row r="356" spans="1:7">
+      <c r="H355">
+        <v>0.5650854921639806</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
       <c r="A356">
         <v>6366.1253</v>
       </c>
@@ -8585,8 +9653,11 @@
       <c r="G356">
         <v>113.0203798200507</v>
       </c>
-    </row>
-    <row r="357" spans="1:7">
+      <c r="H356">
+        <v>0.2727056654817125</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
       <c r="A357">
         <v>6366.4548</v>
       </c>
@@ -8608,8 +9679,11 @@
       <c r="G357">
         <v>103.5966528170118</v>
       </c>
-    </row>
-    <row r="358" spans="1:7">
+      <c r="H357">
+        <v>0.1257503446841526</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
       <c r="A358">
         <v>6382.5072</v>
       </c>
@@ -8631,8 +9705,11 @@
       <c r="G358">
         <v>277.1286340804427</v>
       </c>
-    </row>
-    <row r="359" spans="1:7">
+      <c r="H358">
+        <v>0.4952371058970548</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
       <c r="A359">
         <v>6387.4838</v>
       </c>
@@ -8654,8 +9731,11 @@
       <c r="G359">
         <v>122.0293335120035</v>
       </c>
-    </row>
-    <row r="360" spans="1:7">
+      <c r="H359">
+        <v>0.1070531645952315</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
       <c r="A360">
         <v>6394.3059</v>
       </c>
@@ -8677,8 +9757,11 @@
       <c r="G360">
         <v>229.7329948318014</v>
       </c>
-    </row>
-    <row r="361" spans="1:7">
+      <c r="H360">
+        <v>0.1895513576937424</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8">
       <c r="A361">
         <v>6395.3687</v>
       </c>
@@ -8700,8 +9783,11 @@
       <c r="G361">
         <v>651.5832568196157</v>
       </c>
-    </row>
-    <row r="362" spans="1:7">
+      <c r="H361">
+        <v>0.7548010022744016</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8">
       <c r="A362">
         <v>6401.7704</v>
       </c>
@@ -8723,8 +9809,11 @@
       <c r="G362">
         <v>594.7361399262213</v>
       </c>
-    </row>
-    <row r="363" spans="1:7">
+      <c r="H362">
+        <v>0.7659491932657994</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8">
       <c r="A363">
         <v>6409.7896</v>
       </c>
@@ -8746,8 +9835,11 @@
       <c r="G363">
         <v>472.3873972143959</v>
       </c>
-    </row>
-    <row r="364" spans="1:7">
+      <c r="H363">
+        <v>0.6844420822360129</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
       <c r="A364">
         <v>6413.4216</v>
       </c>
@@ -8769,8 +9861,11 @@
       <c r="G364">
         <v>542.2366920214278</v>
       </c>
-    </row>
-    <row r="365" spans="1:7">
+      <c r="H364">
+        <v>0.736909043582247</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8">
       <c r="A365">
         <v>6421.4198</v>
       </c>
@@ -8792,8 +9887,11 @@
       <c r="G365">
         <v>233.4315987165931</v>
       </c>
-    </row>
-    <row r="366" spans="1:7">
+      <c r="H365">
+        <v>0.1071799743930507</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
       <c r="A366">
         <v>6421.7241</v>
       </c>
@@ -8815,8 +9913,11 @@
       <c r="G366">
         <v>382.8096812041815</v>
       </c>
-    </row>
-    <row r="367" spans="1:7">
+      <c r="H366">
+        <v>0.6466716822774413</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8">
       <c r="A367">
         <v>6423.1257</v>
       </c>
@@ -8838,8 +9939,11 @@
       <c r="G367">
         <v>560.0870455224909</v>
       </c>
-    </row>
-    <row r="368" spans="1:7">
+      <c r="H367">
+        <v>0.735806372255108</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
       <c r="A368">
         <v>6432.6238</v>
       </c>
@@ -8861,8 +9965,11 @@
       <c r="G368">
         <v>568.5810489098885</v>
       </c>
-    </row>
-    <row r="369" spans="1:7">
+      <c r="H368">
+        <v>0.742007667078084</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8">
       <c r="A369">
         <v>6438.1862</v>
       </c>
@@ -8884,8 +9991,11 @@
       <c r="G369">
         <v>162.9765853665559</v>
       </c>
-    </row>
-    <row r="370" spans="1:7">
+      <c r="H369">
+        <v>0.1011722032202695</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8">
       <c r="A370">
         <v>6483.6614</v>
       </c>
@@ -8907,8 +10017,11 @@
       <c r="G370">
         <v>406.895651647155</v>
       </c>
-    </row>
-    <row r="371" spans="1:7">
+      <c r="H370">
+        <v>0.5949746148457946</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
       <c r="A371">
         <v>6496.7751</v>
       </c>
@@ -8930,8 +10043,11 @@
       <c r="G371">
         <v>678.3287192218567</v>
       </c>
-    </row>
-    <row r="372" spans="1:7">
+      <c r="H371">
+        <v>0.7696031101827028</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8">
       <c r="A372">
         <v>6498.2616</v>
       </c>
@@ -8953,8 +10069,11 @@
       <c r="G372">
         <v>369.0740403721263</v>
       </c>
-    </row>
-    <row r="373" spans="1:7">
+      <c r="H372">
+        <v>0.5432576184678575</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8">
       <c r="A373">
         <v>6500.735</v>
       </c>
@@ -8976,8 +10095,11 @@
       <c r="G373">
         <v>318.2052429697663</v>
       </c>
-    </row>
-    <row r="374" spans="1:7">
+      <c r="H373">
+        <v>0.4734266402612695</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8">
       <c r="A374">
         <v>6511.4154</v>
       </c>
@@ -8999,8 +10121,11 @@
       <c r="G374">
         <v>142.7272816474987</v>
       </c>
-    </row>
-    <row r="375" spans="1:7">
+      <c r="H374">
+        <v>0.03762321127457968</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8">
       <c r="A375">
         <v>6520.1681</v>
       </c>
@@ -9022,8 +10147,11 @@
       <c r="G375">
         <v>354.0402472986774</v>
       </c>
-    </row>
-    <row r="376" spans="1:7">
+      <c r="H375">
+        <v>0.5410218411436283</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8">
       <c r="A376">
         <v>6553.4879</v>
       </c>
@@ -9045,8 +10173,11 @@
       <c r="G376">
         <v>233.3019545104987</v>
       </c>
-    </row>
-    <row r="377" spans="1:7">
+      <c r="H376">
+        <v>0.08993388414018733</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8">
       <c r="A377">
         <v>6558.5993</v>
       </c>
@@ -9068,8 +10199,11 @@
       <c r="G377">
         <v>333.6817578340248</v>
       </c>
-    </row>
-    <row r="378" spans="1:7">
+      <c r="H377">
+        <v>0.1949866208909089</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8">
       <c r="A378">
         <v>6571.0301</v>
       </c>
@@ -9091,8 +10225,11 @@
       <c r="G378">
         <v>437.9842358258773</v>
       </c>
-    </row>
-    <row r="379" spans="1:7">
+      <c r="H378">
+        <v>0.6181121305685302</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8">
       <c r="A379">
         <v>6583.028</v>
       </c>
@@ -9114,8 +10251,11 @@
       <c r="G379">
         <v>241.3630972534624</v>
       </c>
-    </row>
-    <row r="380" spans="1:7">
+      <c r="H379">
+        <v>0.191318307504056</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8">
       <c r="A380">
         <v>6593.1334</v>
       </c>
@@ -9137,8 +10277,11 @@
       <c r="G380">
         <v>145.5053018729194</v>
       </c>
-    </row>
-    <row r="381" spans="1:7">
+      <c r="H380">
+        <v>0.09913024090132272</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8">
       <c r="A381">
         <v>6594.7348</v>
       </c>
@@ -9160,8 +10303,11 @@
       <c r="G381">
         <v>586.4258116898707</v>
       </c>
-    </row>
-    <row r="382" spans="1:7">
+      <c r="H381">
+        <v>0.7240466599809766</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8">
       <c r="A382">
         <v>6595.6917</v>
       </c>
@@ -9183,8 +10329,11 @@
       <c r="G382">
         <v>559.0690713101734</v>
       </c>
-    </row>
-    <row r="383" spans="1:7">
+      <c r="H382">
+        <v>0.6616851736999052</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8">
       <c r="A383">
         <v>6609.851</v>
       </c>
@@ -9206,8 +10355,11 @@
       <c r="G383">
         <v>267.5968796027918</v>
       </c>
-    </row>
-    <row r="384" spans="1:7">
+      <c r="H383">
+        <v>0.1799982202413752</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8">
       <c r="A384">
         <v>6610.9356</v>
       </c>
@@ -9229,8 +10381,11 @@
       <c r="G384">
         <v>435.34043757306</v>
       </c>
-    </row>
-    <row r="385" spans="1:7">
+      <c r="H384">
+        <v>0.5805276924162144</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8">
       <c r="A385">
         <v>6626.8517</v>
       </c>
@@ -9252,8 +10407,11 @@
       <c r="G385">
         <v>239.7669510445183</v>
       </c>
-    </row>
-    <row r="386" spans="1:7">
+      <c r="H385">
+        <v>0.1557229932865727</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8">
       <c r="A386">
         <v>6629.3751</v>
       </c>
@@ -9275,8 +10433,11 @@
       <c r="G386">
         <v>180.8873104808309</v>
       </c>
-    </row>
-    <row r="387" spans="1:7">
+      <c r="H386">
+        <v>0.2606401474733556</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8">
       <c r="A387">
         <v>6635.2444</v>
       </c>
@@ -9298,8 +10459,11 @@
       <c r="G387">
         <v>203.3182170645693</v>
       </c>
-    </row>
-    <row r="388" spans="1:7">
+      <c r="H387">
+        <v>0.2482344926376828</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8">
       <c r="A388">
         <v>6635.5816</v>
       </c>
@@ -9321,8 +10485,11 @@
       <c r="G388">
         <v>334.328522039182</v>
       </c>
-    </row>
-    <row r="389" spans="1:7">
+      <c r="H388">
+        <v>0.5502823150002766</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8">
       <c r="A389">
         <v>6635.9392</v>
       </c>
@@ -9344,8 +10511,11 @@
       <c r="G389">
         <v>158.1198337144403</v>
       </c>
-    </row>
-    <row r="390" spans="1:7">
+      <c r="H389">
+        <v>0.2795884990021381</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8">
       <c r="A390">
         <v>6648.7673</v>
       </c>
@@ -9367,8 +10537,11 @@
       <c r="G390">
         <v>225.449654349734</v>
       </c>
-    </row>
-    <row r="391" spans="1:7">
+      <c r="H390">
+        <v>0.09448733767914785</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8">
       <c r="A391">
         <v>6655.6901</v>
       </c>
@@ -9390,8 +10563,11 @@
       <c r="G391">
         <v>189.1807318217273</v>
       </c>
-    </row>
-    <row r="392" spans="1:7">
+      <c r="H391">
+        <v>0.09715224720557192</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8">
       <c r="A392">
         <v>6669.2601</v>
       </c>
@@ -9413,8 +10589,11 @@
       <c r="G392">
         <v>188.7958040917876</v>
       </c>
-    </row>
-    <row r="393" spans="1:7">
+      <c r="H392">
+        <v>0.05896159583261051</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8">
       <c r="A393">
         <v>6689.3386</v>
       </c>
@@ -9436,8 +10615,11 @@
       <c r="G393">
         <v>143.4126634726172</v>
       </c>
-    </row>
-    <row r="394" spans="1:7">
+      <c r="H393">
+        <v>0.03871060475871968</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8">
       <c r="A394">
         <v>6694.1201</v>
       </c>
@@ -9459,8 +10641,11 @@
       <c r="G394">
         <v>201.5300055623515</v>
       </c>
-    </row>
-    <row r="395" spans="1:7">
+      <c r="H394">
+        <v>0.02972880723582605</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8">
       <c r="A395">
         <v>6700.9914</v>
       </c>
@@ -9482,8 +10667,11 @@
       <c r="G395">
         <v>161.0586828614334</v>
       </c>
-    </row>
-    <row r="396" spans="1:7">
+      <c r="H395">
+        <v>0.07781847090745908</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8">
       <c r="A396">
         <v>6705.4182</v>
       </c>
@@ -9505,8 +10693,11 @@
       <c r="G396">
         <v>281.6666207710454</v>
       </c>
-    </row>
-    <row r="397" spans="1:7">
+      <c r="H396">
+        <v>0.3654217584600302</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8">
       <c r="A397">
         <v>6706.3319</v>
       </c>
@@ -9528,8 +10719,11 @@
       <c r="G397">
         <v>210.1036115224865</v>
       </c>
-    </row>
-    <row r="398" spans="1:7">
+      <c r="H397">
+        <v>0.06088215699410571</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8">
       <c r="A398">
         <v>6706.9535</v>
       </c>
@@ -9551,8 +10745,11 @@
       <c r="G398">
         <v>236.9033910424936</v>
       </c>
-    </row>
-    <row r="399" spans="1:7">
+      <c r="H398">
+        <v>0.4098251514038731</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8">
       <c r="A399">
         <v>6709.2849</v>
       </c>
@@ -9574,8 +10771,11 @@
       <c r="G399">
         <v>84.89811937545133</v>
       </c>
-    </row>
-    <row r="400" spans="1:7">
+      <c r="H399">
+        <v>0.05989318483075701</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8">
       <c r="A400">
         <v>6712.1721</v>
       </c>
@@ -9597,8 +10797,11 @@
       <c r="G400">
         <v>245.6520027616339</v>
       </c>
-    </row>
-    <row r="401" spans="1:7">
+      <c r="H400">
+        <v>0.1579565675627709</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8">
       <c r="A401">
         <v>6717.2372</v>
       </c>
@@ -9620,8 +10823,11 @@
       <c r="G401">
         <v>178.5212873107702</v>
       </c>
-    </row>
-    <row r="402" spans="1:7">
+      <c r="H401">
+        <v>0.2345089565646257</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8">
       <c r="A402">
         <v>6718.0914</v>
       </c>
@@ -9643,8 +10849,11 @@
       <c r="G402">
         <v>151.7238001688008</v>
       </c>
-    </row>
-    <row r="403" spans="1:7">
+      <c r="H402">
+        <v>0.1414342387134878</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8">
       <c r="A403">
         <v>6727.2138</v>
       </c>
@@ -9666,8 +10875,11 @@
       <c r="G403">
         <v>204.9950168773173</v>
       </c>
-    </row>
-    <row r="404" spans="1:7">
+      <c r="H403">
+        <v>0.1609271428297842</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8">
       <c r="A404">
         <v>6728.5238</v>
       </c>
@@ -9689,8 +10901,11 @@
       <c r="G404">
         <v>302.9771127943011</v>
       </c>
-    </row>
-    <row r="405" spans="1:7">
+      <c r="H404">
+        <v>0.4193147608492456</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8">
       <c r="A405">
         <v>6733.9233</v>
       </c>
@@ -9712,8 +10927,11 @@
       <c r="G405">
         <v>146.9151142995059</v>
       </c>
-    </row>
-    <row r="406" spans="1:7">
+      <c r="H405">
+        <v>0.07291182916377414</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8">
       <c r="A406">
         <v>6735.01</v>
       </c>
@@ -9735,8 +10953,11 @@
       <c r="G406">
         <v>209.2089770606141</v>
       </c>
-    </row>
-    <row r="407" spans="1:7">
+      <c r="H406">
+        <v>0.2479766591546467</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8">
       <c r="A407">
         <v>6739.847</v>
       </c>
@@ -9758,8 +10979,11 @@
       <c r="G407">
         <v>111.2015072872874</v>
       </c>
-    </row>
-    <row r="408" spans="1:7">
+      <c r="H407">
+        <v>0.201050616303423</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8">
       <c r="A408">
         <v>6741.3823</v>
       </c>
@@ -9781,8 +11005,11 @@
       <c r="G408">
         <v>226.7994110915046</v>
       </c>
-    </row>
-    <row r="409" spans="1:7">
+      <c r="H408">
+        <v>0.1176259859301999</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8">
       <c r="A409">
         <v>6746.9632</v>
       </c>
@@ -9804,8 +11031,11 @@
       <c r="G409">
         <v>182.1781209483723</v>
       </c>
-    </row>
-    <row r="410" spans="1:7">
+      <c r="H409">
+        <v>0.08296620389872322</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8">
       <c r="A410">
         <v>6748.8173</v>
       </c>
@@ -9827,8 +11057,11 @@
       <c r="G410">
         <v>226.5495520036302</v>
       </c>
-    </row>
-    <row r="411" spans="1:7">
+      <c r="H410">
+        <v>0.04367003290121174</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8">
       <c r="A411">
         <v>6752.0157</v>
       </c>
@@ -9850,8 +11083,11 @@
       <c r="G411">
         <v>448.4444291037528</v>
       </c>
-    </row>
-    <row r="412" spans="1:7">
+      <c r="H411">
+        <v>0.6303651204672323</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8">
       <c r="A412">
         <v>6754.5711</v>
       </c>
@@ -9873,8 +11109,11 @@
       <c r="G412">
         <v>239.6716607563876</v>
       </c>
-    </row>
-    <row r="413" spans="1:7">
+      <c r="H412">
+        <v>0.3247967931021069</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8">
       <c r="A413">
         <v>6755.3281</v>
       </c>
@@ -9896,8 +11135,11 @@
       <c r="G413">
         <v>150.887468741358</v>
       </c>
-    </row>
-    <row r="414" spans="1:7">
+      <c r="H413">
+        <v>0.05827670071570912</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8">
       <c r="A414">
         <v>6785.5762</v>
       </c>
@@ -9919,8 +11161,11 @@
       <c r="G414">
         <v>212.0680331192632</v>
       </c>
-    </row>
-    <row r="415" spans="1:7">
+      <c r="H414">
+        <v>0.1108983669893502</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8">
       <c r="A415">
         <v>6788.7335</v>
       </c>
@@ -9942,8 +11187,11 @@
       <c r="G415">
         <v>207.5533754041792</v>
       </c>
-    </row>
-    <row r="416" spans="1:7">
+      <c r="H415">
+        <v>0.2329727416146766</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8">
       <c r="A416">
         <v>6795.1341</v>
       </c>
@@ -9965,8 +11213,11 @@
       <c r="G416">
         <v>145.5916979046763</v>
       </c>
-    </row>
-    <row r="417" spans="1:7">
+      <c r="H416">
+        <v>0.1215238935587594</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8">
       <c r="A417">
         <v>6805.8786</v>
       </c>
@@ -9988,8 +11239,11 @@
       <c r="G417">
         <v>149.7667556265442</v>
       </c>
-    </row>
-    <row r="418" spans="1:7">
+      <c r="H417">
+        <v>0.1960633960544875</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8">
       <c r="A418">
         <v>6806.1492</v>
       </c>
@@ -10011,8 +11265,11 @@
       <c r="G418">
         <v>180.5939073269799</v>
       </c>
-    </row>
-    <row r="419" spans="1:7">
+      <c r="H418">
+        <v>0.1405716974125787</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8">
       <c r="A419">
         <v>6808.7234</v>
       </c>
@@ -10034,8 +11291,11 @@
       <c r="G419">
         <v>277.3930404527628</v>
       </c>
-    </row>
-    <row r="420" spans="1:7">
+      <c r="H419">
+        <v>0.3378049047013986</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8">
       <c r="A420">
         <v>6812.1422</v>
       </c>
@@ -10057,8 +11317,11 @@
       <c r="G420">
         <v>259.6504080836066</v>
       </c>
-    </row>
-    <row r="421" spans="1:7">
+      <c r="H420">
+        <v>0.4371920277846642</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8">
       <c r="A421">
         <v>6830.4756</v>
       </c>
@@ -10080,8 +11343,11 @@
       <c r="G421">
         <v>351.1233776749401</v>
       </c>
-    </row>
-    <row r="422" spans="1:7">
+      <c r="H421">
+        <v>0.4822456929342895</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8">
       <c r="A422">
         <v>6838.8928</v>
       </c>
@@ -10103,8 +11369,11 @@
       <c r="G422">
         <v>149.0437688032002</v>
       </c>
-    </row>
-    <row r="423" spans="1:7">
+      <c r="H422">
+        <v>0.1666512599697192</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8">
       <c r="A423">
         <v>6841.7179</v>
       </c>
@@ -10126,8 +11395,11 @@
       <c r="G423">
         <v>293.5826203511812</v>
       </c>
-    </row>
-    <row r="424" spans="1:7">
+      <c r="H423">
+        <v>0.2916092124074483</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8">
       <c r="A424">
         <v>6844.574</v>
       </c>
@@ -10149,8 +11421,11 @@
       <c r="G424">
         <v>275.9401075279162</v>
       </c>
-    </row>
-    <row r="425" spans="1:7">
+      <c r="H424">
+        <v>0.3504549068744095</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8">
       <c r="A425">
         <v>6845.5444</v>
       </c>
@@ -10172,8 +11447,11 @@
       <c r="G425">
         <v>306.5566569396331</v>
       </c>
-    </row>
-    <row r="426" spans="1:7">
+      <c r="H425">
+        <v>0.5089782589158635</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8">
       <c r="A426">
         <v>6857.0537</v>
       </c>
@@ -10195,8 +11473,11 @@
       <c r="G426">
         <v>384.7386568464726</v>
       </c>
-    </row>
-    <row r="427" spans="1:7">
+      <c r="H426">
+        <v>0.5772602861787268</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8">
       <c r="A427">
         <v>6859.1424</v>
       </c>
@@ -10218,8 +11499,11 @@
       <c r="G427">
         <v>161.7158574597413</v>
       </c>
-    </row>
-    <row r="428" spans="1:7">
+      <c r="H427">
+        <v>0.2098797067791576</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8">
       <c r="A428">
         <v>6860.0421</v>
       </c>
@@ -10241,8 +11525,11 @@
       <c r="G428">
         <v>270.9477890440778</v>
       </c>
-    </row>
-    <row r="429" spans="1:7">
+      <c r="H428">
+        <v>0.4488791099090512</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8">
       <c r="A429">
         <v>6918.5896</v>
       </c>
@@ -10264,8 +11551,11 @@
       <c r="G429">
         <v>320.6526643654252</v>
       </c>
-    </row>
-    <row r="430" spans="1:7">
+      <c r="H429">
+        <v>0.4839161704606616</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8">
       <c r="A430">
         <v>6947.121</v>
       </c>
@@ -10287,8 +11577,11 @@
       <c r="G430">
         <v>483.3189935356198</v>
       </c>
-    </row>
-    <row r="431" spans="1:7">
+      <c r="H430">
+        <v>0.6405441633589763</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8">
       <c r="A431">
         <v>6980.7765</v>
       </c>
@@ -10310,8 +11603,11 @@
       <c r="G431">
         <v>480.9888311674453</v>
       </c>
-    </row>
-    <row r="432" spans="1:7">
+      <c r="H431">
+        <v>0.6326146648792834</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8">
       <c r="A432">
         <v>7001.8146</v>
       </c>
@@ -10333,8 +11629,11 @@
       <c r="G432">
         <v>363.9393555399216</v>
       </c>
-    </row>
-    <row r="433" spans="1:7">
+      <c r="H432">
+        <v>0.4551932790065255</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8">
       <c r="A433">
         <v>7024.8907</v>
       </c>
@@ -10356,8 +11655,11 @@
       <c r="G433">
         <v>371.2789986395435</v>
       </c>
-    </row>
-    <row r="434" spans="1:7">
+      <c r="H433">
+        <v>0.5253879715744005</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8">
       <c r="A434">
         <v>7134.9526</v>
       </c>
@@ -10379,8 +11681,11 @@
       <c r="G434">
         <v>298.3238391989815</v>
       </c>
-    </row>
-    <row r="435" spans="1:7">
+      <c r="H434">
+        <v>0.389598141218077</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8">
       <c r="A435">
         <v>7209.0979</v>
       </c>
@@ -10402,8 +11707,11 @@
       <c r="G435">
         <v>386.7432372292913</v>
       </c>
-    </row>
-    <row r="436" spans="1:7">
+      <c r="H435">
+        <v>0.5342976568372431</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8">
       <c r="A436">
         <v>7209.3744</v>
       </c>
@@ -10425,8 +11733,11 @@
       <c r="G436">
         <v>569.6966819413633</v>
       </c>
-    </row>
-    <row r="437" spans="1:7">
+      <c r="H436">
+        <v>0.6721015119644458</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8">
       <c r="A437">
         <v>7290.7468</v>
       </c>
@@ -10448,8 +11759,11 @@
       <c r="G437">
         <v>312.5088202088724</v>
       </c>
-    </row>
-    <row r="438" spans="1:7">
+      <c r="H437">
+        <v>0.4954870406324505</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8">
       <c r="A438">
         <v>7403.7236</v>
       </c>
@@ -10471,8 +11785,11 @@
       <c r="G438">
         <v>255.1003504786072</v>
       </c>
-    </row>
-    <row r="439" spans="1:7">
+      <c r="H438">
+        <v>0.3643349965352209</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8">
       <c r="A439">
         <v>7420.7108</v>
       </c>
@@ -10494,8 +11811,11 @@
       <c r="G439">
         <v>331.2752944979538</v>
       </c>
-    </row>
-    <row r="440" spans="1:7">
+      <c r="H439">
+        <v>0.422099767756754</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8">
       <c r="A440">
         <v>7445.0723</v>
       </c>
@@ -10517,8 +11837,11 @@
       <c r="G440">
         <v>265.7637351744941</v>
       </c>
-    </row>
-    <row r="441" spans="1:7">
+      <c r="H440">
+        <v>0.3101320876306226</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8">
       <c r="A441">
         <v>7449.4449</v>
       </c>
@@ -10540,8 +11863,11 @@
       <c r="G441">
         <v>297.8026173230223</v>
       </c>
-    </row>
-    <row r="442" spans="1:7">
+      <c r="H441">
+        <v>0.2797614410380952</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8">
       <c r="A442">
         <v>7463.5755</v>
       </c>
@@ -10563,8 +11889,11 @@
       <c r="G442">
         <v>293.2220547212236</v>
       </c>
-    </row>
-    <row r="443" spans="1:7">
+      <c r="H442">
+        <v>0.2439329172833247</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8">
       <c r="A443">
         <v>7475.6121</v>
       </c>
@@ -10586,8 +11915,11 @@
       <c r="G443">
         <v>224.5752912276861</v>
       </c>
-    </row>
-    <row r="444" spans="1:7">
+      <c r="H443">
+        <v>0.1416315628643768</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8">
       <c r="A444">
         <v>7478.4348</v>
       </c>
@@ -10609,8 +11941,11 @@
       <c r="G444">
         <v>152.3328571949302</v>
       </c>
-    </row>
-    <row r="445" spans="1:7">
+      <c r="H444">
+        <v>0.1474377567648847</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8">
       <c r="A445">
         <v>7483.993</v>
       </c>
@@ -10632,8 +11967,11 @@
       <c r="G445">
         <v>264.3816239301195</v>
       </c>
-    </row>
-    <row r="446" spans="1:7">
+      <c r="H445">
+        <v>0.1129858997326331</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8">
       <c r="A446">
         <v>7493.7117</v>
       </c>
@@ -10655,8 +11993,11 @@
       <c r="G446">
         <v>380.055767460319</v>
       </c>
-    </row>
-    <row r="447" spans="1:7">
+      <c r="H446">
+        <v>0.5009975304793197</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8">
       <c r="A447">
         <v>7497.1314</v>
       </c>
@@ -10678,8 +12019,11 @@
       <c r="G447">
         <v>575.8217596913773</v>
       </c>
-    </row>
-    <row r="448" spans="1:7">
+      <c r="H447">
+        <v>0.6755947312053567</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8">
       <c r="A448">
         <v>7500.5954</v>
       </c>
@@ -10701,8 +12045,11 @@
       <c r="G448">
         <v>207.8396045337686</v>
       </c>
-    </row>
-    <row r="449" spans="1:7">
+      <c r="H448">
+        <v>0.164264007736417</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8">
       <c r="A449">
         <v>7508.0813</v>
       </c>
@@ -10724,8 +12071,11 @@
       <c r="G449">
         <v>267.5263343763079</v>
       </c>
-    </row>
-    <row r="450" spans="1:7">
+      <c r="H449">
+        <v>0.1576106777017845</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8">
       <c r="A450">
         <v>7509.3335</v>
       </c>
@@ -10747,8 +12097,11 @@
       <c r="G450">
         <v>347.3270143878042</v>
       </c>
-    </row>
-    <row r="451" spans="1:7">
+      <c r="H450">
+        <v>0.4534800014335328</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8">
       <c r="A451">
         <v>7513.0887</v>
       </c>
@@ -10770,8 +12123,11 @@
       <c r="G451">
         <v>590.5598290749705</v>
       </c>
-    </row>
-    <row r="452" spans="1:7">
+      <c r="H451">
+        <v>0.7011375644231126</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8">
       <c r="A452">
         <v>7533.2189</v>
       </c>
@@ -10793,8 +12149,11 @@
       <c r="G452">
         <v>473.573156164945</v>
       </c>
-    </row>
-    <row r="453" spans="1:7">
+      <c r="H452">
+        <v>0.5828285510477349</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8">
       <c r="A453">
         <v>7543.9894</v>
       </c>
@@ -10816,8 +12175,11 @@
       <c r="G453">
         <v>254.3311806618962</v>
       </c>
-    </row>
-    <row r="454" spans="1:7">
+      <c r="H453">
+        <v>0.09079385459493095</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8">
       <c r="A454">
         <v>7549.975</v>
       </c>
@@ -10839,8 +12201,11 @@
       <c r="G454">
         <v>266.0418701200632</v>
       </c>
-    </row>
-    <row r="455" spans="1:7">
+      <c r="H454">
+        <v>0.1724918826570881</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8">
       <c r="A455">
         <v>7565.0931</v>
       </c>
@@ -10862,8 +12227,11 @@
       <c r="G455">
         <v>202.1047878190345</v>
       </c>
-    </row>
-    <row r="456" spans="1:7">
+      <c r="H455">
+        <v>0.1354957736513572</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8">
       <c r="A456">
         <v>7570.9838</v>
       </c>
@@ -10885,8 +12253,11 @@
       <c r="G456">
         <v>407.8548308927116</v>
       </c>
-    </row>
-    <row r="457" spans="1:7">
+      <c r="H456">
+        <v>0.5381991165591049</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8">
       <c r="A457">
         <v>7588.1072</v>
       </c>
@@ -10908,8 +12279,11 @@
       <c r="G457">
         <v>553.1148020513306</v>
       </c>
-    </row>
-    <row r="458" spans="1:7">
+      <c r="H457">
+        <v>0.6394301068031066</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8">
       <c r="A458">
         <v>7590.3944</v>
       </c>
@@ -10931,8 +12305,11 @@
       <c r="G458">
         <v>252.7762893361213</v>
       </c>
-    </row>
-    <row r="459" spans="1:7">
+      <c r="H458">
+        <v>0.2093770910788972</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8">
       <c r="A459">
         <v>7620.0869</v>
       </c>
@@ -10954,8 +12331,11 @@
       <c r="G459">
         <v>247.8570795854087</v>
       </c>
-    </row>
-    <row r="460" spans="1:7">
+      <c r="H459">
+        <v>0.1427889339645912</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8">
       <c r="A460">
         <v>7712.4865</v>
       </c>
@@ -10977,8 +12357,11 @@
       <c r="G460">
         <v>388.7105124995614</v>
       </c>
-    </row>
-    <row r="461" spans="1:7">
+      <c r="H460">
+        <v>0.4914615824476677</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8">
       <c r="A461">
         <v>7721.173</v>
       </c>
@@ -11000,8 +12383,11 @@
       <c r="G461">
         <v>252.3775826414882</v>
       </c>
-    </row>
-    <row r="462" spans="1:7">
+      <c r="H461">
+        <v>0.2245503697318828</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8">
       <c r="A462">
         <v>7725.3335</v>
       </c>
@@ -11023,8 +12409,11 @@
       <c r="G462">
         <v>322.0932017271632</v>
       </c>
-    </row>
-    <row r="463" spans="1:7">
+      <c r="H462">
+        <v>0.3632078291658772</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8">
       <c r="A463">
         <v>7739.7955</v>
       </c>
@@ -11046,8 +12435,11 @@
       <c r="G463">
         <v>162.682376215862</v>
       </c>
-    </row>
-    <row r="464" spans="1:7">
+      <c r="H463">
+        <v>0.02653174997208652</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8">
       <c r="A464">
         <v>7747.6455</v>
       </c>
@@ -11069,8 +12461,11 @@
       <c r="G464">
         <v>278.6015051092205</v>
       </c>
-    </row>
-    <row r="465" spans="1:7">
+      <c r="H464">
+        <v>0.1736953929844248</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8">
       <c r="A465">
         <v>7748.7262</v>
       </c>
@@ -11092,8 +12487,11 @@
       <c r="G465">
         <v>263.0869463685414</v>
       </c>
-    </row>
-    <row r="466" spans="1:7">
+      <c r="H465">
+        <v>0.1485678667965966</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8">
       <c r="A466">
         <v>7753.2422</v>
       </c>
@@ -11115,8 +12513,11 @@
       <c r="G466">
         <v>340.2671505125766</v>
       </c>
-    </row>
-    <row r="467" spans="1:7">
+      <c r="H466">
+        <v>0.3492343510070526</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8">
       <c r="A467">
         <v>7782.6983</v>
       </c>
@@ -11138,8 +12539,11 @@
       <c r="G467">
         <v>546.9893267614135</v>
       </c>
-    </row>
-    <row r="468" spans="1:7">
+      <c r="H467">
+        <v>0.6289229212182752</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8">
       <c r="A468">
         <v>7804.6198</v>
       </c>
@@ -11161,8 +12565,11 @@
       <c r="G468">
         <v>230.4730780011295</v>
       </c>
-    </row>
-    <row r="469" spans="1:7">
+      <c r="H468">
+        <v>0.1266210543654368</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8">
       <c r="A469">
         <v>7810.0575</v>
       </c>
@@ -11184,8 +12591,11 @@
       <c r="G469">
         <v>310.9220271046865</v>
       </c>
-    </row>
-    <row r="470" spans="1:7">
+      <c r="H469">
+        <v>0.4305987197497483</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8">
       <c r="A470">
         <v>7812.9639</v>
       </c>
@@ -11207,8 +12617,11 @@
       <c r="G470">
         <v>253.2496307526172</v>
       </c>
-    </row>
-    <row r="471" spans="1:7">
+      <c r="H470">
+        <v>0.1694816346557407</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8">
       <c r="A471">
         <v>7822.9553</v>
       </c>
@@ -11230,8 +12643,11 @@
       <c r="G471">
         <v>260.5906126537344</v>
       </c>
-    </row>
-    <row r="472" spans="1:7">
+      <c r="H471">
+        <v>0.04853020969302713</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8">
       <c r="A472">
         <v>7834.3517</v>
       </c>
@@ -11253,8 +12669,11 @@
       <c r="G472">
         <v>566.3427617277607</v>
       </c>
-    </row>
-    <row r="473" spans="1:7">
+      <c r="H472">
+        <v>0.638909229696091</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8">
       <c r="A473">
         <v>7846.7172</v>
       </c>
@@ -11276,8 +12695,11 @@
       <c r="G473">
         <v>168.1068377486629</v>
       </c>
-    </row>
-    <row r="474" spans="1:7">
+      <c r="H473">
+        <v>0.1034034249971277</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8">
       <c r="A474">
         <v>7857.56</v>
       </c>
@@ -11299,8 +12721,11 @@
       <c r="G474">
         <v>240.3662823221559</v>
       </c>
-    </row>
-    <row r="475" spans="1:7">
+      <c r="H474">
+        <v>0.2172608462926084</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8">
       <c r="A475">
         <v>7915.0437</v>
       </c>
@@ -11322,8 +12747,11 @@
       <c r="G475">
         <v>310.5855443248964</v>
       </c>
-    </row>
-    <row r="476" spans="1:7">
+      <c r="H475">
+        <v>0.3998781385079311</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8">
       <c r="A476">
         <v>7943.2736</v>
       </c>
@@ -11345,8 +12773,11 @@
       <c r="G476">
         <v>317.0300777387063</v>
       </c>
-    </row>
-    <row r="477" spans="1:7">
+      <c r="H476">
+        <v>0.3530895527692454</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8">
       <c r="A477">
         <v>7948.0326</v>
       </c>
@@ -11368,8 +12799,11 @@
       <c r="G477">
         <v>595.9614252734825</v>
       </c>
-    </row>
-    <row r="478" spans="1:7">
+      <c r="H477">
+        <v>0.6463170469558642</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8">
       <c r="A478">
         <v>7957.1226</v>
       </c>
@@ -11391,8 +12825,11 @@
       <c r="G478">
         <v>286.3375110689166</v>
       </c>
-    </row>
-    <row r="479" spans="1:7">
+      <c r="H478">
+        <v>0.07079499978164883</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8">
       <c r="A479">
         <v>7957.8805</v>
       </c>
@@ -11413,6 +12850,9 @@
       </c>
       <c r="G479">
         <v>256.1723205549114</v>
+      </c>
+      <c r="H479">
+        <v>0.1955442885894566</v>
       </c>
     </row>
   </sheetData>
